--- a/data_clean/Mowi 14.01.2021.xlsx
+++ b/data_clean/Mowi 14.01.2021.xlsx
@@ -1518,7 +1518,7 @@
         <v>1.025415632032083</v>
       </c>
       <c r="K2">
-        <v>49.82547417465769</v>
+        <v>-0.001745258253422999</v>
       </c>
       <c r="L2">
         <v>-0.0002163203080703814</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1589,7 +1589,7 @@
         <v>1.025415632032083</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.004336330276367807</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1660,7 +1660,7 @@
         <v>0.2375000000000337</v>
       </c>
       <c r="K4">
-        <v>19.1919191919214</v>
+        <v>-0.308080808080786</v>
       </c>
       <c r="L4">
         <v>-0.003281398547167753</v>
@@ -1690,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9996817169099259</v>
+        <v>-0.0003182830900740896</v>
       </c>
       <c r="V4">
-        <v>0.9996817169099259</v>
+        <v>-0.0003182830900740896</v>
       </c>
       <c r="W4">
-        <v>0.9989088925259137</v>
+        <v>-0.00109110747408625</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1731,7 +1731,7 @@
         <v>0.2375000000000337</v>
       </c>
       <c r="K5">
-        <v>19.1919191919214</v>
+        <v>-0.308080808080786</v>
       </c>
       <c r="L5">
         <v>-0.005351056968747951</v>
@@ -1761,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9998408077867734</v>
+        <v>-0.0001591922132265777</v>
       </c>
       <c r="V5">
-        <v>0.9998408077867734</v>
+        <v>-0.0001591922132265777</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1802,7 +1802,7 @@
         <v>1.8995498614958</v>
       </c>
       <c r="K6">
-        <v>65.51188812858949</v>
+        <v>0.1551188812858949</v>
       </c>
       <c r="L6">
         <v>-0.002569860986484227</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000232002729444</v>
+        <v>0.0002320027294437921</v>
       </c>
       <c r="V6">
-        <v>1.000232002729444</v>
+        <v>0.0002320027294437921</v>
       </c>
       <c r="W6">
-        <v>1.001638448935008</v>
+        <v>0.001638448935008308</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1873,7 +1873,7 @@
         <v>3.649076031491177</v>
       </c>
       <c r="K7">
-        <v>78.49034962589646</v>
+        <v>0.2849034962589646</v>
       </c>
       <c r="L7">
         <v>0.002306145239320559</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000427513689534</v>
+        <v>0.0004275136895339759</v>
       </c>
       <c r="V7">
-        <v>1.000427513689534</v>
+        <v>0.0004275136895339759</v>
       </c>
       <c r="W7">
-        <v>1.001635768811341</v>
+        <v>0.001635768811341309</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1944,7 +1944,7 @@
         <v>2.261073490046107</v>
       </c>
       <c r="K8">
-        <v>69.33525101312999</v>
+        <v>0.1933525101312999</v>
       </c>
       <c r="L8">
         <v>0.005668766972032829</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000227303723235</v>
+        <v>0.0002273037232349839</v>
       </c>
       <c r="V8">
-        <v>1.000227303723235</v>
+        <v>0.0002273037232349839</v>
       </c>
       <c r="W8">
-        <v>0.9994556341861731</v>
+        <v>-0.0005443658138268859</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2015,7 +2015,7 @@
         <v>0.8070197943498078</v>
       </c>
       <c r="K9">
-        <v>44.66026309579997</v>
+        <v>-0.05339736904200032</v>
       </c>
       <c r="L9">
         <v>0.005618798359939464</v>
@@ -2045,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9998636487592036</v>
+        <v>-0.0001363512407963619</v>
       </c>
       <c r="V9">
-        <v>0.9998636487592036</v>
+        <v>-0.0001363512407963619</v>
       </c>
       <c r="W9">
-        <v>0.9975490196078431</v>
+        <v>-0.002450980392156854</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2086,7 +2086,7 @@
         <v>1.032662296213519</v>
       </c>
       <c r="K10">
-        <v>50.80343636703359</v>
+        <v>0.008034363670335942</v>
       </c>
       <c r="L10">
         <v>0.005065097549862395</v>
@@ -2116,13 +2116,13 @@
         <v>0.009027777777788515</v>
       </c>
       <c r="U10">
-        <v>0.999984847796112</v>
+        <v>-1.515220388803584E-05</v>
       </c>
       <c r="V10">
-        <v>0.999984847796112</v>
+        <v>-1.515220388803584E-05</v>
       </c>
       <c r="W10">
-        <v>1.000819000819001</v>
+        <v>0.0008190008190007703</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2157,7 +2157,7 @@
         <v>0.7000925427684607</v>
       </c>
       <c r="K11">
-        <v>41.17967258584745</v>
+        <v>-0.08820327414152551</v>
       </c>
       <c r="L11">
         <v>0.003250554678160851</v>
@@ -2187,13 +2187,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U11">
-        <v>0.9998242317716226</v>
+        <v>-0.0001757682283773931</v>
       </c>
       <c r="V11">
-        <v>0.9998242317716226</v>
+        <v>-0.0001757682283773931</v>
       </c>
       <c r="W11">
-        <v>0.9983633387888706</v>
+        <v>-0.001636661211129375</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2228,7 +2228,7 @@
         <v>0.9260931278339404</v>
       </c>
       <c r="K12">
-        <v>48.08143045894218</v>
+        <v>-0.01918569541057819</v>
       </c>
       <c r="L12">
         <v>0.001803569633870725</v>
@@ -2258,13 +2258,13 @@
         <v>0.02443181818179596</v>
       </c>
       <c r="U12">
-        <v>0.9999553613498726</v>
+        <v>-4.463865012738211E-05</v>
       </c>
       <c r="V12">
-        <v>0.9999553613498726</v>
+        <v>-4.463865012738211E-05</v>
       </c>
       <c r="W12">
-        <v>1.001092896174863</v>
+        <v>0.0010928961748633</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2299,7 +2299,7 @@
         <v>0.8276464998387068</v>
       </c>
       <c r="K13">
-        <v>45.28482394772447</v>
+        <v>-0.04715176052275533</v>
       </c>
       <c r="L13">
         <v>0.0003624069318170855</v>
@@ -2329,13 +2329,13 @@
         <v>0.03958333333335418</v>
       </c>
       <c r="U13">
-        <v>0.9999173321429161</v>
+        <v>-8.266785708388458E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999173321429161</v>
+        <v>-8.266785708388458E-05</v>
       </c>
       <c r="W13">
-        <v>0.9994541484716157</v>
+        <v>-0.0005458515283842669</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2370,7 +2370,7 @@
         <v>0.6762944242806666</v>
       </c>
       <c r="K14">
-        <v>40.34460858932218</v>
+        <v>-0.09655391410677822</v>
       </c>
       <c r="L14">
         <v>-0.00150059315195043</v>
@@ -2400,13 +2400,13 @@
         <v>0.005288461538441425</v>
       </c>
       <c r="U14">
-        <v>0.9998460978817473</v>
+        <v>-0.0001539021182527245</v>
       </c>
       <c r="V14">
-        <v>0.9998460978817473</v>
+        <v>-0.0001539021182527245</v>
       </c>
       <c r="W14">
-        <v>0.9989077007099946</v>
+        <v>-0.001092299290005427</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2441,7 +2441,7 @@
         <v>0.9169134178707418</v>
       </c>
       <c r="K15">
-        <v>47.83280294887943</v>
+        <v>-0.02167197051120567</v>
       </c>
       <c r="L15">
         <v>-0.00270881789170203</v>
@@ -2471,13 +2471,13 @@
         <v>-0.05714285714284983</v>
       </c>
       <c r="U15">
-        <v>0.9999655166209888</v>
+        <v>-3.448337901124088E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999655166209888</v>
+        <v>-3.448337901124088E-05</v>
       </c>
       <c r="W15">
-        <v>1.001366867140514</v>
+        <v>0.001366867140514039</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2512,7 +2512,7 @@
         <v>0.8727051174373258</v>
       </c>
       <c r="K16">
-        <v>46.6013100146576</v>
+        <v>-0.03398689985342401</v>
       </c>
       <c r="L16">
         <v>-0.003593260182614408</v>
@@ -2542,13 +2542,13 @@
         <v>-0.1108333333333462</v>
       </c>
       <c r="U16">
-        <v>0.9999519215151219</v>
+        <v>-4.807848487808908E-05</v>
       </c>
       <c r="V16">
-        <v>0.9999519215151219</v>
+        <v>-4.807848487808908E-05</v>
       </c>
       <c r="W16">
-        <v>0.9997269997269996</v>
+        <v>-0.0002730002730003678</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2583,7 +2583,7 @@
         <v>0.830553014658524</v>
       </c>
       <c r="K17">
-        <v>45.37169959065389</v>
+        <v>-0.04628300409346109</v>
       </c>
       <c r="L17">
         <v>-0.00434008733050216</v>
@@ -2613,13 +2613,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U17">
-        <v>0.9999408736150782</v>
+        <v>-5.912638492178157E-05</v>
       </c>
       <c r="V17">
-        <v>0.9999272290647117</v>
+        <v>-7.277093528834655E-05</v>
       </c>
       <c r="W17">
-        <v>0.9997269251774987</v>
+        <v>-0.0002730748225012736</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2654,7 +2654,7 @@
         <v>0.7903685869581744</v>
       </c>
       <c r="K18">
-        <v>44.14557944747042</v>
+        <v>-0.05854420552529577</v>
       </c>
       <c r="L18">
         <v>-0.005051959374121891</v>
@@ -2684,13 +2684,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U18">
-        <v>0.9999317732141639</v>
+        <v>-6.822678583606745E-05</v>
       </c>
       <c r="V18">
-        <v>0.9998908356530757</v>
+        <v>-0.0001091643469243175</v>
       </c>
       <c r="W18">
-        <v>0.9997268505872712</v>
+        <v>-0.0002731494127288236</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2725,7 +2725,7 @@
         <v>1.095943765178667</v>
       </c>
       <c r="K19">
-        <v>52.28879626382744</v>
+        <v>0.02288796263827431</v>
       </c>
       <c r="L19">
         <v>-0.004972751378858148</v>
@@ -2755,13 +2755,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U19">
-        <v>1.00003032508491</v>
+        <v>3.032508491007668E-05</v>
       </c>
       <c r="V19">
-        <v>1.00007278417672</v>
+        <v>7.278417671985338E-05</v>
       </c>
       <c r="W19">
-        <v>1.001639344262295</v>
+        <v>0.001639344262295062</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2796,7 +2796,7 @@
         <v>1.040180045397308</v>
       </c>
       <c r="K20">
-        <v>50.98471812544083</v>
+        <v>0.00984718125440831</v>
       </c>
       <c r="L20">
         <v>-0.004552202985586507</v>
@@ -2826,13 +2826,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U20">
-        <v>1.000012768069612</v>
+        <v>1.27680696115906E-05</v>
       </c>
       <c r="V20">
-        <v>1.000054584159677</v>
+        <v>5.458415967685148E-05</v>
       </c>
       <c r="W20">
-        <v>0.9997272231314784</v>
+        <v>-0.0002727768685215626</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2867,7 +2867,7 @@
         <v>1.200859783536562</v>
       </c>
       <c r="K21">
-        <v>54.56321172841371</v>
+        <v>0.04563211728413707</v>
       </c>
       <c r="L21">
         <v>-0.003619111664172988</v>
@@ -2897,13 +2897,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U21">
-        <v>1.000052428216435</v>
+        <v>5.242821643514084E-05</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1.000818553888131</v>
+        <v>0.0008185538881309018</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2938,7 +2938,7 @@
         <v>1.07917453340716</v>
       </c>
       <c r="K22">
-        <v>51.90398959142252</v>
+        <v>0.01903989591422528</v>
       </c>
       <c r="L22">
         <v>-0.002663921159935891</v>
@@ -2968,13 +2968,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U22">
-        <v>1.000021442118949</v>
+        <v>2.14421189492775E-05</v>
       </c>
       <c r="V22">
-        <v>0.9998544501855762</v>
+        <v>-0.0001455498144238287</v>
       </c>
       <c r="W22">
-        <v>0.9994547437295529</v>
+        <v>-0.0005452562704471031</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3009,7 +3009,7 @@
         <v>1.18583955686318</v>
       </c>
       <c r="K23">
-        <v>54.25098805353014</v>
+        <v>0.04250988053530136</v>
       </c>
       <c r="L23">
         <v>-0.001537814335175792</v>
@@ -3039,13 +3039,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U23">
-        <v>1.000044300948749</v>
+        <v>4.430094874918744E-05</v>
       </c>
       <c r="V23">
-        <v>0.9999272144988719</v>
+        <v>-7.278550112810311E-05</v>
       </c>
       <c r="W23">
-        <v>1.000545553737043</v>
+        <v>0.0005455537370431252</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3080,7 +3080,7 @@
         <v>1.354258014951647</v>
       </c>
       <c r="K24">
-        <v>57.52377209086242</v>
+        <v>0.07523772090862413</v>
       </c>
       <c r="L24">
         <v>-6.63866049242425E-05</v>
@@ -3110,13 +3110,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U24">
-        <v>1.00007604017294</v>
+        <v>7.604017294005061E-05</v>
       </c>
       <c r="V24">
-        <v>1.000145581598486</v>
+        <v>0.0001455815984858777</v>
       </c>
       <c r="W24">
-        <v>1.000817884405671</v>
+        <v>0.0008178844056707657</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3151,7 +3151,7 @@
         <v>1.590634798233684</v>
       </c>
       <c r="K25">
-        <v>61.39942223111463</v>
+        <v>0.1139942223111463</v>
       </c>
       <c r="L25">
         <v>0.001926157105298886</v>
@@ -3181,13 +3181,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U25">
-        <v>1.000115175026495</v>
+        <v>0.0001151750264951623</v>
       </c>
       <c r="V25">
-        <v>1.000163755458515</v>
+        <v>0.0001637554585152134</v>
       </c>
       <c r="W25">
-        <v>1.001089621356579</v>
+        <v>0.00108962135657853</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3222,7 +3222,7 @@
         <v>1.901656881499541</v>
       </c>
       <c r="K26">
-        <v>65.53693145540998</v>
+        <v>0.1553693145540999</v>
       </c>
       <c r="L26">
         <v>0.004602776454668348</v>
@@ -3252,13 +3252,13 @@
         <v>0.2156250000000171</v>
       </c>
       <c r="U26">
-        <v>1.000160514738482</v>
+        <v>0.0001605147384815542</v>
       </c>
       <c r="V26">
-        <v>1.000363841437901</v>
+        <v>0.0003638414379012467</v>
       </c>
       <c r="W26">
-        <v>1.001360544217687</v>
+        <v>0.001360544217687165</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3293,7 +3293,7 @@
         <v>2.032613548137788</v>
       </c>
       <c r="K27">
-        <v>67.02514236889624</v>
+        <v>0.1702514236889624</v>
       </c>
       <c r="L27">
         <v>0.00769237213654198</v>
@@ -3323,13 +3323,13 @@
         <v>0.2468749999999886</v>
       </c>
       <c r="U27">
-        <v>1.000169127194562</v>
+        <v>0.0001691271945616357</v>
       </c>
       <c r="V27">
-        <v>1.000327338194912</v>
+        <v>0.0003273381949118193</v>
       </c>
       <c r="W27">
-        <v>1.00054347826087</v>
+        <v>0.0005434782608695343</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3364,7 +3364,7 @@
         <v>1.371097494251956</v>
       </c>
       <c r="K28">
-        <v>57.8254372743334</v>
+        <v>0.07825437274333402</v>
       </c>
       <c r="L28">
         <v>0.01007248375308172</v>
@@ -3394,13 +3394,13 @@
         <v>0.2749999999999773</v>
       </c>
       <c r="U28">
-        <v>1.000085862488699</v>
+        <v>8.58624886990178E-05</v>
       </c>
       <c r="V28">
-        <v>1.000236333557547</v>
+        <v>0.0002363335575472636</v>
       </c>
       <c r="W28">
-        <v>0.9980988593155894</v>
+        <v>-0.001901140684410607</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3435,7 +3435,7 @@
         <v>1.101548580278564</v>
       </c>
       <c r="K29">
-        <v>52.4160417044726</v>
+        <v>0.02416041704472605</v>
       </c>
       <c r="L29">
         <v>0.01132431582587987</v>
@@ -3465,13 +3465,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U29">
-        <v>1.000031023277559</v>
+        <v>3.102327755888368E-05</v>
       </c>
       <c r="V29">
-        <v>1.000218102508179</v>
+        <v>0.0002181025081788857</v>
       </c>
       <c r="W29">
-        <v>0.9986394557823129</v>
+        <v>-0.001360544217687054</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3506,7 +3506,7 @@
         <v>1.142936694560579</v>
       </c>
       <c r="K30">
-        <v>53.33506572833897</v>
+        <v>0.03335065728338971</v>
       </c>
       <c r="L30">
         <v>0.01188027587544712</v>
@@ -3536,13 +3536,13 @@
         <v>0.2531249999999829</v>
       </c>
       <c r="U30">
-        <v>1.000038286562156</v>
+        <v>3.828656215554282E-05</v>
       </c>
       <c r="V30">
-        <v>1.000145369966565</v>
+        <v>0.000145369966564779</v>
       </c>
       <c r="W30">
-        <v>1.000272479564033</v>
+        <v>0.0002724795640327571</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3577,7 +3577,7 @@
         <v>1.051331188501724</v>
       </c>
       <c r="K31">
-        <v>51.25116774876356</v>
+        <v>0.0125116774876356</v>
       </c>
       <c r="L31">
         <v>0.01173680796898136</v>
@@ -3607,13 +3607,13 @@
         <v>0.2406250000000227</v>
       </c>
       <c r="U31">
-        <v>1.000017552933064</v>
+        <v>1.755293306371364E-05</v>
       </c>
       <c r="V31">
-        <v>1.000127180232558</v>
+        <v>0.0001271802325584215</v>
       </c>
       <c r="W31">
-        <v>0.9994551893217106</v>
+        <v>-0.0005448106782893758</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3648,7 +3648,7 @@
         <v>0.8389823554048431</v>
       </c>
       <c r="K32">
-        <v>45.62209925174324</v>
+        <v>-0.04377900748256763</v>
       </c>
       <c r="L32">
         <v>0.01053403909965927</v>
@@ -3678,13 +3678,13 @@
         <v>0.1875</v>
       </c>
       <c r="U32">
-        <v>0.9999818204955735</v>
+        <v>-1.817950442650762E-05</v>
       </c>
       <c r="V32">
-        <v>1.000036332588515</v>
+        <v>3.633258851487575E-05</v>
       </c>
       <c r="W32">
-        <v>0.9983646770237122</v>
+        <v>-0.001635322976287767</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3719,7 +3719,7 @@
         <v>0.7583639154716608</v>
       </c>
       <c r="K33">
-        <v>43.12895122556234</v>
+        <v>-0.0687104877443766</v>
       </c>
       <c r="L33">
         <v>0.008432699386122023</v>
@@ -3749,13 +3749,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U33">
-        <v>0.9999454604952186</v>
+        <v>-5.453950478140346E-05</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0.9991809991809991</v>
+        <v>-0.0008190008190008813</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3790,7 +3790,7 @@
         <v>0.7920799664996176</v>
       </c>
       <c r="K34">
-        <v>44.1989186479635</v>
+        <v>-0.05801081352036497</v>
       </c>
       <c r="L34">
         <v>0.005996946920261324</v>
@@ -3820,13 +3820,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U34">
-        <v>0.9999909095867499</v>
+        <v>-9.090413250145701E-06</v>
       </c>
       <c r="V34">
-        <v>0.9999091718287346</v>
+        <v>-9.082817126537801E-05</v>
       </c>
       <c r="W34">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3861,7 +3861,7 @@
         <v>0.7649320831842885</v>
       </c>
       <c r="K35">
-        <v>43.34059596243493</v>
+        <v>-0.0665940403756507</v>
       </c>
       <c r="L35">
         <v>0.003394884184370447</v>
@@ -3891,13 +3891,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U35">
-        <v>0.9999818190082268</v>
+        <v>-1.818099177319787E-05</v>
       </c>
       <c r="V35">
-        <v>0.9999091635782282</v>
+        <v>-9.083642177176721E-05</v>
       </c>
       <c r="W35">
-        <v>0.9997268505872712</v>
+        <v>-0.0002731494127288236</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3932,7 +3932,7 @@
         <v>0.945322450873895</v>
       </c>
       <c r="K36">
-        <v>48.59464046432142</v>
+        <v>-0.0140535953567858</v>
       </c>
       <c r="L36">
         <v>0.001348547786423854</v>
@@ -3962,13 +3962,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U36">
-        <v>0.9999727280165088</v>
+        <v>-2.727198349117277E-05</v>
       </c>
       <c r="V36">
-        <v>0.999945493195734</v>
+        <v>-5.450680426599686E-05</v>
       </c>
       <c r="W36">
-        <v>1.001366120218579</v>
+        <v>0.001366120218579292</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4003,7 +4003,7 @@
         <v>0.9107355212839102</v>
       </c>
       <c r="K37">
-        <v>47.6641330597102</v>
+        <v>-0.02335866940289805</v>
       </c>
       <c r="L37">
         <v>-0.0003362028974704145</v>
@@ -4033,13 +4033,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U37">
-        <v>0.9999090909090909</v>
+        <v>-9.090909090914145E-05</v>
       </c>
       <c r="V37">
-        <v>0.99996366014972</v>
+        <v>-3.63398502799539E-05</v>
       </c>
       <c r="W37">
-        <v>0.9997271487039563</v>
+        <v>-0.0002728512960437079</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4074,7 +4074,7 @@
         <v>0.987761713291919</v>
       </c>
       <c r="K38">
-        <v>49.69215910976036</v>
+        <v>-0.003078408902396412</v>
       </c>
       <c r="L38">
         <v>-0.001493616958505136</v>
@@ -4104,13 +4104,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U38">
-        <v>0.999945449586326</v>
+        <v>-5.455041367397051E-05</v>
       </c>
       <c r="V38">
-        <v>0.9999636588290876</v>
+        <v>-3.634117091244615E-05</v>
       </c>
       <c r="W38">
-        <v>1.000545851528384</v>
+        <v>0.0005458515283844889</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4145,7 +4145,7 @@
         <v>1.028301814348743</v>
       </c>
       <c r="K39">
-        <v>50.69767265770135</v>
+        <v>0.006976726577013426</v>
       </c>
       <c r="L39">
         <v>-0.002153178577202568</v>
@@ -4175,13 +4175,13 @@
         <v>-0.2718749999999943</v>
       </c>
       <c r="U39">
-        <v>1.000036368926389</v>
+        <v>3.636892638936295E-05</v>
       </c>
       <c r="V39">
-        <v>0.9999273150167176</v>
+        <v>-7.268498328238948E-05</v>
       </c>
       <c r="W39">
-        <v>1.000272776868522</v>
+        <v>0.0002727768685215626</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4216,7 +4216,7 @@
         <v>0.9862162294984815</v>
       </c>
       <c r="K40">
-        <v>49.65301435219369</v>
+        <v>-0.003469856478063083</v>
       </c>
       <c r="L40">
         <v>-0.00256160262915096</v>
@@ -4246,13 +4246,13 @@
         <v>-0.2375000000000398</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V40">
-        <v>0.9998364468997601</v>
+        <v>-0.0001635531002398549</v>
       </c>
       <c r="W40">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4287,7 +4287,7 @@
         <v>0.9862162294984813</v>
       </c>
       <c r="K41">
-        <v>49.65301435219369</v>
+        <v>-0.003469856478063083</v>
       </c>
       <c r="L41">
         <v>-0.002782739339558283</v>
@@ -4317,13 +4317,13 @@
         <v>-0.171875</v>
       </c>
       <c r="U41">
-        <v>1.000054551405608</v>
+        <v>5.455140560783889E-05</v>
       </c>
       <c r="V41">
-        <v>0.9997455424489721</v>
+        <v>-0.0002544575510279312</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4358,7 +4358,7 @@
         <v>1.167611327047525</v>
       </c>
       <c r="K42">
-        <v>53.86626801945683</v>
+        <v>0.03866268019456831</v>
       </c>
       <c r="L42">
         <v>-0.002467891352508144</v>
@@ -4388,13 +4388,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U42">
-        <v>1.000054548429914</v>
+        <v>5.454842991436948E-05</v>
       </c>
       <c r="V42">
-        <v>0.9997818380147259</v>
+        <v>-0.0002181619852741346</v>
       </c>
       <c r="W42">
-        <v>1.001091107474086</v>
+        <v>0.001091107474086028</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4429,7 +4429,7 @@
         <v>1.310817983007309</v>
       </c>
       <c r="K43">
-        <v>56.7252805130677</v>
+        <v>0.067252805130677</v>
       </c>
       <c r="L43">
         <v>-0.001541298322648569</v>
@@ -4459,13 +4459,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U43">
-        <v>1.0001</v>
+        <v>9.999999999998899E-05</v>
       </c>
       <c r="V43">
-        <v>0.9999636317349481</v>
+        <v>-3.636826505193369E-05</v>
       </c>
       <c r="W43">
-        <v>1.000817438692098</v>
+        <v>0.0008174386920980492</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4500,7 +4500,7 @@
         <v>1.361065932466864</v>
       </c>
       <c r="K44">
-        <v>57.64624840632084</v>
+        <v>0.07646248406320844</v>
       </c>
       <c r="L44">
         <v>-0.0001986824663325579</v>
@@ -4530,13 +4530,13 @@
         <v>0.08437499999996589</v>
       </c>
       <c r="U44">
-        <v>1.000145440001454</v>
+        <v>0.0001454400014542223</v>
       </c>
       <c r="V44">
-        <v>1.000072739175502</v>
+        <v>7.273917550176812E-05</v>
       </c>
       <c r="W44">
-        <v>1.000272257010618</v>
+        <v>0.0002722570106179489</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4571,7 +4571,7 @@
         <v>1.361065932466864</v>
       </c>
       <c r="K45">
-        <v>57.64624840632084</v>
+        <v>0.07646248406320844</v>
       </c>
       <c r="L45">
         <v>0.001310600772347414</v>
@@ -4601,13 +4601,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U45">
-        <v>1.000099975460569</v>
+        <v>9.997546056883522E-05</v>
       </c>
       <c r="V45">
-        <v>1.000054550413674</v>
+        <v>5.455041367397051E-05</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4642,7 +4642,7 @@
         <v>1.064678587114865</v>
       </c>
       <c r="K46">
-        <v>51.56631127766103</v>
+        <v>0.01566311277661026</v>
       </c>
       <c r="L46">
         <v>0.002322247751255496</v>
@@ -4672,13 +4672,13 @@
         <v>0.1593750000000114</v>
       </c>
       <c r="U46">
-        <v>1.000063614387757</v>
+        <v>6.361438775703832E-05</v>
       </c>
       <c r="V46">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W46">
-        <v>0.9986390854654328</v>
+        <v>-0.001360914534567215</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4713,7 +4713,7 @@
         <v>1.110523049440434</v>
       </c>
       <c r="K47">
-        <v>52.61838053533074</v>
+        <v>0.02618380535330733</v>
       </c>
       <c r="L47">
         <v>0.003059039363953911</v>
@@ -4743,13 +4743,13 @@
         <v>0.1750000000000398</v>
       </c>
       <c r="U47">
-        <v>1.000081784724431</v>
+        <v>8.178472443098883E-05</v>
       </c>
       <c r="V47">
-        <v>1.00012727735554</v>
+        <v>0.0001272773555403006</v>
       </c>
       <c r="W47">
-        <v>1.000272553829381</v>
+        <v>0.0002725538293812946</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4784,7 +4784,7 @@
         <v>0.97008230699131</v>
       </c>
       <c r="K48">
-        <v>49.24069941386409</v>
+        <v>-0.007593005861359137</v>
       </c>
       <c r="L48">
         <v>0.003273028379447961</v>
@@ -4814,13 +4814,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U48">
-        <v>1.000063605139295</v>
+        <v>6.360513929526412E-05</v>
       </c>
       <c r="V48">
-        <v>1.000127261158077</v>
+        <v>0.000127261158076708</v>
       </c>
       <c r="W48">
-        <v>0.9991825613079018</v>
+        <v>-0.0008174386920981602</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4855,7 +4855,7 @@
         <v>0.891008521035312</v>
       </c>
       <c r="K49">
-        <v>47.1181653135805</v>
+        <v>-0.02881834686419504</v>
       </c>
       <c r="L49">
         <v>0.002946163304320689</v>
@@ -4885,13 +4885,13 @@
         <v>0.1468749999999659</v>
       </c>
       <c r="U49">
-        <v>0.9999909141294373</v>
+        <v>-9.085870562697274E-06</v>
       </c>
       <c r="V49">
-        <v>1.00007271140842</v>
+        <v>7.27114084200231E-05</v>
       </c>
       <c r="W49">
-        <v>0.9994545950368149</v>
+        <v>-0.0005454049631851143</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4926,7 +4926,7 @@
         <v>0.6633425230410592</v>
       </c>
       <c r="K50">
-        <v>39.88009167397957</v>
+        <v>-0.1011990832602043</v>
       </c>
       <c r="L50">
         <v>0.001507038713244346</v>
@@ -4956,13 +4956,13 @@
         <v>0.07812499999997158</v>
       </c>
       <c r="U50">
-        <v>0.9999273123750682</v>
+        <v>-7.268762493184422E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999454704086083</v>
+        <v>-5.452959139173874E-05</v>
       </c>
       <c r="W50">
-        <v>0.9978171896316507</v>
+        <v>-0.002182810368349331</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4997,7 +4997,7 @@
         <v>0.6969629112421323</v>
       </c>
       <c r="K51">
-        <v>41.07119293090346</v>
+        <v>-0.08928807069096534</v>
       </c>
       <c r="L51">
         <v>-0.0004198857792682057</v>
@@ -5027,13 +5027,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U51">
-        <v>0.9999091338639914</v>
+        <v>-9.086613600861604E-05</v>
       </c>
       <c r="V51">
-        <v>0.9998727573482633</v>
+        <v>-0.000127242651736692</v>
       </c>
       <c r="W51">
-        <v>1.00027344818157</v>
+        <v>0.0002734481815696022</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5068,7 +5068,7 @@
         <v>0.8385224405097683</v>
       </c>
       <c r="K52">
-        <v>45.60849636827227</v>
+        <v>-0.04391503631727728</v>
       </c>
       <c r="L52">
         <v>-0.002120473860828791</v>
@@ -5098,13 +5098,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U52">
-        <v>0.9999636502426348</v>
+        <v>-3.634975736521717E-05</v>
       </c>
       <c r="V52">
-        <v>0.9999636403301458</v>
+        <v>-3.635966985415795E-05</v>
       </c>
       <c r="W52">
-        <v>1.001093493712411</v>
+        <v>0.001093493712411187</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5139,7 +5139,7 @@
         <v>1.062037486721847</v>
       </c>
       <c r="K53">
-        <v>51.50427640431678</v>
+        <v>0.01504276404316773</v>
       </c>
       <c r="L53">
         <v>-0.002971895780446928</v>
@@ -5169,13 +5169,13 @@
         <v>-0.1250000000000284</v>
       </c>
       <c r="U53">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V53">
-        <v>1.000036360991928</v>
+        <v>3.636099192783071E-05</v>
       </c>
       <c r="W53">
-        <v>1.001638448935008</v>
+        <v>0.001638448935008308</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5210,7 +5210,7 @@
         <v>1.101250652723951</v>
       </c>
       <c r="K54">
-        <v>52.40929497375039</v>
+        <v>0.02409294973750387</v>
       </c>
       <c r="L54">
         <v>-0.003144580504315235</v>
@@ -5240,13 +5240,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U54">
-        <v>0.9999818244606409</v>
+        <v>-1.817553935912208E-05</v>
       </c>
       <c r="V54">
-        <v>1.000036359669854</v>
+        <v>3.635966985426897E-05</v>
       </c>
       <c r="W54">
-        <v>1.000272628135223</v>
+        <v>0.0002726281352234405</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5281,7 +5281,7 @@
         <v>1.183804686412638</v>
       </c>
       <c r="K55">
-        <v>54.20835909814299</v>
+        <v>0.04208359098142989</v>
       </c>
       <c r="L55">
         <v>-0.002685015233943617</v>
@@ -5311,13 +5311,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U55">
-        <v>0.9999636482605693</v>
+        <v>-3.635173943072889E-05</v>
       </c>
       <c r="V55">
-        <v>1.000090895869691</v>
+        <v>9.089586969146524E-05</v>
       </c>
       <c r="W55">
-        <v>1.000545107658763</v>
+        <v>0.0005451076587628112</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5352,7 +5352,7 @@
         <v>1.089157966943815</v>
       </c>
       <c r="K56">
-        <v>52.13382540608555</v>
+        <v>0.02133825406085554</v>
       </c>
       <c r="L56">
         <v>-0.002060605471723519</v>
@@ -5382,13 +5382,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U56">
-        <v>0.9999000290824487</v>
+        <v>-9.997091755131748E-05</v>
       </c>
       <c r="V56">
-        <v>1.00005453256503</v>
+        <v>5.453256503029635E-05</v>
       </c>
       <c r="W56">
-        <v>0.9994551893217106</v>
+        <v>-0.0005448106782893758</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5423,7 +5423,7 @@
         <v>1.089157966943815</v>
       </c>
       <c r="K57">
-        <v>52.13382540608555</v>
+        <v>0.02133825406085554</v>
       </c>
       <c r="L57">
         <v>-0.001368626772873129</v>
@@ -5453,13 +5453,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U57">
-        <v>0.9998818407394955</v>
+        <v>-0.0001181592605045134</v>
       </c>
       <c r="V57">
-        <v>0.999981823469536</v>
+        <v>-1.817653046398693E-05</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5494,7 +5494,7 @@
         <v>1.089157966943815</v>
       </c>
       <c r="K58">
-        <v>52.13382540608555</v>
+        <v>0.02133825406085554</v>
       </c>
       <c r="L58">
         <v>-0.0006748365571228177</v>
@@ -5524,13 +5524,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U58">
-        <v>0.9999454585121081</v>
+        <v>-5.454148789185709E-05</v>
       </c>
       <c r="V58">
-        <v>0.9999272925565755</v>
+        <v>-7.2707443424469E-05</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5565,7 +5565,7 @@
         <v>1.322286109499002</v>
       </c>
       <c r="K59">
-        <v>56.93898370620084</v>
+        <v>0.06938983706200841</v>
       </c>
       <c r="L59">
         <v>0.0004748652036775332</v>
@@ -5595,13 +5595,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U59">
-        <v>1.000036362975219</v>
+        <v>3.636297521869558E-05</v>
       </c>
       <c r="V59">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W59">
-        <v>1.001362769146906</v>
+        <v>0.001362769146906473</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5636,7 +5636,7 @@
         <v>1.322286109499002</v>
       </c>
       <c r="K60">
-        <v>56.93898370620084</v>
+        <v>0.06938983706200841</v>
       </c>
       <c r="L60">
         <v>0.001825718429441874</v>
@@ -5666,13 +5666,13 @@
         <v>0.1281250000000398</v>
       </c>
       <c r="U60">
-        <v>1.00002727123975</v>
+        <v>2.72712397504371E-05</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5707,7 +5707,7 @@
         <v>1.322286109499002</v>
       </c>
       <c r="K61">
-        <v>56.93898370620084</v>
+        <v>0.06938983706200841</v>
       </c>
       <c r="L61">
         <v>0.003205624571458014</v>
@@ -5737,13 +5737,13 @@
         <v>0.1656249999999773</v>
       </c>
       <c r="U61">
-        <v>1.00004545082675</v>
+        <v>4.545082675044831E-05</v>
       </c>
       <c r="V61">
-        <v>1.000090890912727</v>
+        <v>9.089091272684868E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5778,7 +5778,7 @@
         <v>1.254086576243885</v>
       </c>
       <c r="K62">
-        <v>55.63613170234313</v>
+        <v>0.05636131702343128</v>
       </c>
       <c r="L62">
         <v>0.004404128501469729</v>
@@ -5808,13 +5808,13 @@
         <v>0.1781249999999659</v>
       </c>
       <c r="U62">
-        <v>1.000090897522134</v>
+        <v>9.089752213364832E-05</v>
       </c>
       <c r="V62">
-        <v>1.000054529591392</v>
+        <v>5.452959139162772E-05</v>
       </c>
       <c r="W62">
-        <v>0.9997278170930867</v>
+        <v>-0.0002721829069133319</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5849,7 +5849,7 @@
         <v>1.254086576243885</v>
       </c>
       <c r="K63">
-        <v>55.63613170234313</v>
+        <v>0.05636131702343128</v>
       </c>
       <c r="L63">
         <v>0.005400247603221898</v>
@@ -5879,13 +5879,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U63">
-        <v>1.000118156038682</v>
+        <v>0.00011815603868226</v>
       </c>
       <c r="V63">
-        <v>1.000109053236155</v>
+        <v>0.0001090532361547325</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5920,7 +5920,7 @@
         <v>1.18629120153146</v>
       </c>
       <c r="K64">
-        <v>54.26043889764012</v>
+        <v>0.04260438897640118</v>
       </c>
       <c r="L64">
         <v>0.006091258693965327</v>
@@ -5950,13 +5950,13 @@
         <v>0.1843749999999602</v>
       </c>
       <c r="U64">
-        <v>1.000099966374947</v>
+        <v>9.996637494680272E-05</v>
       </c>
       <c r="V64">
-        <v>1.000127214902317</v>
+        <v>0.0001272149023172631</v>
       </c>
       <c r="W64">
-        <v>0.9997277429893819</v>
+        <v>-0.00027225701061806</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5991,7 +5991,7 @@
         <v>1.18629120153146</v>
       </c>
       <c r="K65">
-        <v>54.26043889764012</v>
+        <v>0.04260438897640118</v>
       </c>
       <c r="L65">
         <v>0.006531183045442587</v>
@@ -6021,13 +6021,13 @@
         <v>0.1812499999999488</v>
       </c>
       <c r="U65">
-        <v>1.000109043326548</v>
+        <v>0.0001090433265482638</v>
       </c>
       <c r="V65">
-        <v>1.000272568687309</v>
+        <v>0.0002725686873088495</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6062,7 +6062,7 @@
         <v>1.059378135364646</v>
       </c>
       <c r="K66">
-        <v>51.4416520779981</v>
+        <v>0.01441652077998101</v>
       </c>
       <c r="L66">
         <v>0.00656860668598911</v>
@@ -6092,13 +6092,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U66">
-        <v>1.000045429765582</v>
+        <v>4.542976558230549E-05</v>
       </c>
       <c r="V66">
-        <v>1.000217995531092</v>
+        <v>0.000217995531091697</v>
       </c>
       <c r="W66">
-        <v>0.9994553376906319</v>
+        <v>-0.0005446623093681158</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6133,7 +6133,7 @@
         <v>0.8266482392346809</v>
       </c>
       <c r="K67">
-        <v>45.25492218365073</v>
+        <v>-0.04745077816349275</v>
       </c>
       <c r="L67">
         <v>0.005839581347557282</v>
@@ -6163,13 +6163,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U67">
-        <v>1.000009085540362</v>
+        <v>9.085540362274713E-06</v>
       </c>
       <c r="V67">
-        <v>1.000054487004849</v>
+        <v>5.448700484933511E-05</v>
       </c>
       <c r="W67">
-        <v>0.9986376021798365</v>
+        <v>-0.001362397820163452</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6204,7 +6204,7 @@
         <v>0.9191473497424524</v>
       </c>
       <c r="K68">
-        <v>47.89352677196991</v>
+        <v>-0.02106473228030092</v>
       </c>
       <c r="L68">
         <v>0.004870086035756684</v>
@@ -6234,13 +6234,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U68">
-        <v>1.000009085457817</v>
+        <v>9.085457816526699E-06</v>
       </c>
       <c r="V68">
-        <v>0.9999818386546075</v>
+        <v>-1.81613453924534E-05</v>
       </c>
       <c r="W68">
-        <v>1.000545702592087</v>
+        <v>0.0005457025920871938</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6275,7 +6275,7 @@
         <v>1.06519857686</v>
       </c>
       <c r="K69">
-        <v>51.57850624125285</v>
+        <v>0.01578506241252853</v>
       </c>
       <c r="L69">
         <v>0.004096780890337019</v>
@@ -6305,13 +6305,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U69">
-        <v>1.000027256125814</v>
+        <v>2.725612581411241E-05</v>
       </c>
       <c r="V69">
-        <v>1.000018161675233</v>
+        <v>1.816167523283063E-05</v>
       </c>
       <c r="W69">
-        <v>1.000818107444778</v>
+        <v>0.000818107444777727</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6346,7 +6346,7 @@
         <v>1.013272375509975</v>
       </c>
       <c r="K70">
-        <v>50.32962195457068</v>
+        <v>0.003296219545706802</v>
       </c>
       <c r="L70">
         <v>0.003377428163256941</v>
@@ -6376,13 +6376,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U70">
-        <v>1.000027255382938</v>
+        <v>2.725538293812946E-05</v>
       </c>
       <c r="V70">
-        <v>0.9999636773092151</v>
+        <v>-3.63226907849068E-05</v>
       </c>
       <c r="W70">
-        <v>0.9997275204359672</v>
+        <v>-0.0002724795640327571</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6417,7 +6417,7 @@
         <v>0.9638155432587484</v>
       </c>
       <c r="K71">
-        <v>49.0787205838791</v>
+        <v>-0.009212794161209015</v>
       </c>
       <c r="L71">
         <v>0.0026250590795275</v>
@@ -6447,13 +6447,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U71">
-        <v>1.000018169760069</v>
+        <v>1.816976006852045E-05</v>
       </c>
       <c r="V71">
-        <v>0.9999818379949147</v>
+        <v>-1.81620050853093E-05</v>
       </c>
       <c r="W71">
-        <v>0.9997274461706188</v>
+        <v>-0.0002725538293811836</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6488,7 +6488,7 @@
         <v>1.169327208949454</v>
       </c>
       <c r="K72">
-        <v>53.90275861223017</v>
+        <v>0.03902758612230162</v>
       </c>
       <c r="L72">
         <v>0.00228806265678085</v>
@@ -6518,13 +6518,13 @@
         <v>-0.07812499999997158</v>
       </c>
       <c r="U72">
-        <v>1.000018169429934</v>
+        <v>1.816942993393411E-05</v>
       </c>
       <c r="V72">
-        <v>1.000054487004849</v>
+        <v>5.448700484933511E-05</v>
       </c>
       <c r="W72">
-        <v>1.001090512540894</v>
+        <v>0.001090512540894206</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6559,7 +6559,7 @@
         <v>1.169327208949454</v>
       </c>
       <c r="K73">
-        <v>53.90275861223016</v>
+        <v>0.03902758612230162</v>
       </c>
       <c r="L73">
         <v>0.002215824537904799</v>
@@ -6589,13 +6589,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U73">
-        <v>0.9999909154500942</v>
+        <v>-9.084549905780115E-06</v>
       </c>
       <c r="V73">
-        <v>1.000054484036178</v>
+        <v>5.448403617758224E-05</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6630,7 +6630,7 @@
         <v>1.169327208949454</v>
       </c>
       <c r="K74">
-        <v>53.90275861223016</v>
+        <v>0.03902758612230162</v>
       </c>
       <c r="L74">
         <v>0.002300500256063763</v>
@@ -6660,13 +6660,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U74">
-        <v>0.9999818307351284</v>
+        <v>-1.816926487163695E-05</v>
       </c>
       <c r="V74">
-        <v>0.999963679288114</v>
+        <v>-3.632071188597319E-05</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6701,7 +6701,7 @@
         <v>1.044182606657855</v>
       </c>
       <c r="K75">
-        <v>51.08069128741125</v>
+        <v>0.01080691287411251</v>
       </c>
       <c r="L75">
         <v>0.002267976702582656</v>
@@ -6731,13 +6731,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U75">
-        <v>0.9999636608100005</v>
+        <v>-3.633918999945696E-05</v>
       </c>
       <c r="V75">
-        <v>0.9999273559377441</v>
+        <v>-7.264406225593323E-05</v>
       </c>
       <c r="W75">
-        <v>0.9994553376906319</v>
+        <v>-0.0005446623093681158</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6772,7 +6772,7 @@
         <v>0.8521775933475046</v>
       </c>
       <c r="K76">
-        <v>46.0094969514956</v>
+        <v>-0.03990503048504401</v>
       </c>
       <c r="L76">
         <v>0.001761330486094511</v>
@@ -6802,13 +6802,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U76">
-        <v>0.9999727446170619</v>
+        <v>-2.725538293812946E-05</v>
       </c>
       <c r="V76">
-        <v>0.9998547013204014</v>
+        <v>-0.00014529867959856</v>
       </c>
       <c r="W76">
-        <v>0.9989100817438693</v>
+        <v>-0.001089918256130695</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6843,7 +6843,7 @@
         <v>0.7769818295102713</v>
       </c>
       <c r="K77">
-        <v>43.72480441876011</v>
+        <v>-0.0627519558123989</v>
       </c>
       <c r="L77">
         <v>0.000794885705722182</v>
@@ -6873,13 +6873,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U77">
-        <v>0.9999454877483713</v>
+        <v>-5.451225162866891E-05</v>
       </c>
       <c r="V77">
-        <v>0.9998365152313311</v>
+        <v>-0.0001634847686688978</v>
       </c>
       <c r="W77">
-        <v>0.9994544462629568</v>
+        <v>-0.0005455537370432362</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6914,7 +6914,7 @@
         <v>0.7769818295102712</v>
       </c>
       <c r="K78">
-        <v>43.72480441876011</v>
+        <v>-0.0627519558123989</v>
       </c>
       <c r="L78">
         <v>-0.0003914100835097811</v>
@@ -6944,13 +6944,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U78">
-        <v>0.9999727423883121</v>
+        <v>-2.725761168786978E-05</v>
       </c>
       <c r="V78">
-        <v>0.9998364884996911</v>
+        <v>-0.0001635115003089105</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6985,7 +6985,7 @@
         <v>0.7407684914070943</v>
       </c>
       <c r="K79">
-        <v>42.55410728443952</v>
+        <v>-0.07445892715560481</v>
       </c>
       <c r="L79">
         <v>-0.001733128482955668</v>
@@ -7015,13 +7015,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U79">
-        <v>0.9999818277635428</v>
+        <v>-1.817223645717014E-05</v>
       </c>
       <c r="V79">
-        <v>0.9998364617593081</v>
+        <v>-0.0001635382406919295</v>
       </c>
       <c r="W79">
-        <v>0.999727074235808</v>
+        <v>-0.0002729257641920224</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7056,7 +7056,7 @@
         <v>0.6192458530519614</v>
       </c>
       <c r="K80">
-        <v>38.24285557902181</v>
+        <v>-0.1175714442097819</v>
       </c>
       <c r="L80">
         <v>-0.003474182422579569</v>
@@ -7086,13 +7086,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U80">
-        <v>1.000018172566693</v>
+        <v>1.817256669323086E-05</v>
       </c>
       <c r="V80">
-        <v>0.999763739459145</v>
+        <v>-0.0002362605408550156</v>
       </c>
       <c r="W80">
-        <v>0.9989079989079989</v>
+        <v>-0.001092001092001138</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7127,7 +7127,7 @@
         <v>0.6624167519810754</v>
       </c>
       <c r="K81">
-        <v>39.84661193961647</v>
+        <v>-0.1015338806038353</v>
       </c>
       <c r="L81">
         <v>-0.005234455185550341</v>
@@ -7157,13 +7157,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U81">
-        <v>1.000018172236457</v>
+        <v>1.817223645717014E-05</v>
       </c>
       <c r="V81">
-        <v>0.999818218174547</v>
+        <v>-0.0001817818254530312</v>
       </c>
       <c r="W81">
-        <v>1.000273298715496</v>
+        <v>0.0002732987154960842</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7198,7 +7198,7 @@
         <v>0.7078598034854059</v>
       </c>
       <c r="K82">
-        <v>41.44718448439405</v>
+        <v>-0.08552815515605949</v>
       </c>
       <c r="L82">
         <v>-0.006776052871836569</v>
@@ -7228,13 +7228,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U82">
-        <v>0.9999909140468836</v>
+        <v>-9.085953116438894E-06</v>
       </c>
       <c r="V82">
-        <v>0.9999272740495628</v>
+        <v>-7.272595043716912E-05</v>
       </c>
       <c r="W82">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7269,7 +7269,7 @@
         <v>0.7556945945425686</v>
       </c>
       <c r="K83">
-        <v>43.04248568581248</v>
+        <v>-0.06957514314187518</v>
       </c>
       <c r="L83">
         <v>-0.007963153934465271</v>
@@ -7299,13 +7299,13 @@
         <v>-0.1906249999999829</v>
       </c>
       <c r="U83">
-        <v>0.9999454837859694</v>
+        <v>-5.451621403063101E-05</v>
       </c>
       <c r="V83">
-        <v>0.9999090859501428</v>
+        <v>-9.091404985717144E-05</v>
       </c>
       <c r="W83">
-        <v>1.000273149412729</v>
+        <v>0.0002731494127286016</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7340,7 +7340,7 @@
         <v>0.6290065979647598</v>
       </c>
       <c r="K84">
-        <v>38.61289443214196</v>
+        <v>-0.1138710556785804</v>
       </c>
       <c r="L84">
         <v>-0.009227974180831313</v>
@@ -7370,13 +7370,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U84">
-        <v>0.9999000481586144</v>
+        <v>-9.995184138555935E-05</v>
       </c>
       <c r="V84">
-        <v>0.9997817864416643</v>
+        <v>-0.0002182135583357336</v>
       </c>
       <c r="W84">
-        <v>0.9989077007099946</v>
+        <v>-0.001092299290005427</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7411,7 +7411,7 @@
         <v>0.7172405133814101</v>
       </c>
       <c r="K85">
-        <v>41.76703890878368</v>
+        <v>-0.08232961091216323</v>
       </c>
       <c r="L85">
         <v>-0.01022735106265904</v>
@@ -7441,13 +7441,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U85">
-        <v>0.9999000381672454</v>
+        <v>-9.996183275462478E-05</v>
       </c>
       <c r="V85">
-        <v>0.9998363041105857</v>
+        <v>-0.0001636958894143392</v>
       </c>
       <c r="W85">
-        <v>1.000546746856205</v>
+        <v>0.0005467468562054822</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7482,7 +7482,7 @@
         <v>0.6854107883674669</v>
       </c>
       <c r="K86">
-        <v>40.66728379206435</v>
+        <v>-0.09332716207935648</v>
       </c>
       <c r="L86">
         <v>-0.01106438830811125</v>
@@ -7512,13 +7512,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U86">
-        <v>0.9999091165217074</v>
+        <v>-9.088347829255827E-05</v>
       </c>
       <c r="V86">
-        <v>0.9998362773098541</v>
+        <v>-0.0001637226901458622</v>
       </c>
       <c r="W86">
-        <v>0.9997267759562841</v>
+        <v>-0.0002732240437158806</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7553,7 +7553,7 @@
         <v>0.626846154782519</v>
       </c>
       <c r="K87">
-        <v>38.53137267711202</v>
+        <v>-0.1146862732288798</v>
       </c>
       <c r="L87">
         <v>-0.01190815841549493</v>
@@ -7583,13 +7583,13 @@
         <v>-0.2093749999999943</v>
       </c>
       <c r="U87">
-        <v>0.9998909299133801</v>
+        <v>-0.0001090700866198668</v>
       </c>
       <c r="V87">
-        <v>0.9997270841672429</v>
+        <v>-0.0002729158327571257</v>
       </c>
       <c r="W87">
-        <v>0.9994534025690079</v>
+        <v>-0.0005465974309920574</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7624,7 +7624,7 @@
         <v>0.552329947866286</v>
       </c>
       <c r="K88">
-        <v>35.58070554687659</v>
+        <v>-0.1441929445312342</v>
       </c>
       <c r="L88">
         <v>-0.01295697132238804</v>
@@ -7654,13 +7654,13 @@
         <v>-0.1843750000000171</v>
       </c>
       <c r="U88">
-        <v>0.9998636475197483</v>
+        <v>-0.000136352480251678</v>
       </c>
       <c r="V88">
-        <v>0.9996724115966297</v>
+        <v>-0.0003275884033703269</v>
       </c>
       <c r="W88">
-        <v>0.9991796554552912</v>
+        <v>-0.0008203445447088065</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7695,7 +7695,7 @@
         <v>0.6357508552611602</v>
       </c>
       <c r="K89">
-        <v>38.86599558950912</v>
+        <v>-0.1113400441049088</v>
       </c>
       <c r="L89">
         <v>-0.01381767667386853</v>
@@ -7725,13 +7725,13 @@
         <v>-0.1593749999999545</v>
       </c>
       <c r="U89">
-        <v>0.9998363547102571</v>
+        <v>-0.0001636452897428864</v>
       </c>
       <c r="V89">
-        <v>0.9997087148864896</v>
+        <v>-0.0002912851135103978</v>
       </c>
       <c r="W89">
-        <v>1.000547345374932</v>
+        <v>0.0005473453749316182</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7766,7 +7766,7 @@
         <v>0.7235623367294236</v>
       </c>
       <c r="K90">
-        <v>41.98063054118671</v>
+        <v>-0.08019369458813297</v>
       </c>
       <c r="L90">
         <v>-0.01426079488663638</v>
@@ -7796,13 +7796,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U90">
-        <v>0.9998545137120826</v>
+        <v>-0.0001454862879174401</v>
       </c>
       <c r="V90">
-        <v>0.9997814725110629</v>
+        <v>-0.0002185274889371369</v>
       </c>
       <c r="W90">
-        <v>1.00054704595186</v>
+        <v>0.000547045951859948</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7837,7 +7837,7 @@
         <v>0.8159954751170694</v>
       </c>
       <c r="K91">
-        <v>44.93378349769652</v>
+        <v>-0.05066216502303478</v>
       </c>
       <c r="L91">
         <v>-0.01417213383906418</v>
@@ -7867,13 +7867,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U91">
-        <v>0.9998726809748999</v>
+        <v>-0.0001273190251001033</v>
       </c>
       <c r="V91">
-        <v>0.9998907123731809</v>
+        <v>-0.0001092876268190546</v>
       </c>
       <c r="W91">
-        <v>1.000546746856205</v>
+        <v>0.0005467468562054822</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7908,7 +7908,7 @@
         <v>0.8646444953211072</v>
       </c>
       <c r="K92">
-        <v>46.37047423735366</v>
+        <v>-0.03629525762646341</v>
       </c>
       <c r="L92">
         <v>-0.01361592383594656</v>
@@ -7938,13 +7938,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U92">
-        <v>0.9998908555108871</v>
+        <v>-0.0001091444891129223</v>
       </c>
       <c r="V92">
-        <v>0.9999453502140451</v>
+        <v>-5.464978595492997E-05</v>
       </c>
       <c r="W92">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7979,7 +7979,7 @@
         <v>0.8646444953211072</v>
       </c>
       <c r="K93">
-        <v>46.37047423735366</v>
+        <v>-0.03629525762646341</v>
       </c>
       <c r="L93">
         <v>-0.01276220400216157</v>
@@ -8009,13 +8009,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U93">
-        <v>0.9998908435970675</v>
+        <v>-0.0001091564029325198</v>
       </c>
       <c r="V93">
-        <v>0.9999453472272826</v>
+        <v>-5.465277271743396E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8050,7 +8050,7 @@
         <v>0.9185492268490963</v>
       </c>
       <c r="K94">
-        <v>47.87728216688312</v>
+        <v>-0.02122717833116883</v>
       </c>
       <c r="L94">
         <v>-0.01163669718381772</v>
@@ -8080,13 +8080,13 @@
         <v>-0.04062500000003411</v>
       </c>
       <c r="U94">
-        <v>0.9999090264005384</v>
+        <v>-9.097359946164119E-05</v>
       </c>
       <c r="V94">
-        <v>0.9999817814133981</v>
+        <v>-1.821858660189246E-05</v>
       </c>
       <c r="W94">
-        <v>1.000273149412729</v>
+        <v>0.0002731494127286016</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8121,7 +8121,7 @@
         <v>0.8249328409160182</v>
       </c>
       <c r="K95">
-        <v>45.20346296699589</v>
+        <v>-0.04796537033004111</v>
       </c>
       <c r="L95">
         <v>-0.01057455009080796</v>
@@ -8151,13 +8151,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U95">
-        <v>0.9998908217483078</v>
+        <v>-0.0001091782516922102</v>
       </c>
       <c r="V95">
-        <v>1.000018218918525</v>
+        <v>1.821891852493707E-05</v>
       </c>
       <c r="W95">
-        <v>0.9994538503549973</v>
+        <v>-0.0005461496450026582</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8192,7 +8192,7 @@
         <v>0.7829354976206517</v>
       </c>
       <c r="K96">
-        <v>43.91272138927562</v>
+        <v>-0.06087278610724378</v>
       </c>
       <c r="L96">
         <v>-0.009679358724355387</v>
@@ -8222,13 +8222,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U96">
-        <v>0.9998999090081895</v>
+        <v>-0.0001000909918105197</v>
       </c>
       <c r="V96">
-        <v>0.999981781413398</v>
+        <v>-1.821858660200348E-05</v>
       </c>
       <c r="W96">
-        <v>0.9997267759562841</v>
+        <v>-0.0002732240437158806</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8263,7 +8263,7 @@
         <v>0.7829354976206517</v>
       </c>
       <c r="K97">
-        <v>43.91272138927562</v>
+        <v>-0.06087278610724378</v>
       </c>
       <c r="L97">
         <v>-0.008907138440343012</v>
@@ -8293,13 +8293,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U97">
-        <v>0.9999453994485343</v>
+        <v>-5.460055146566667E-05</v>
       </c>
       <c r="V97">
-        <v>0.9999635621629499</v>
+        <v>-3.643783705009618E-05</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8334,7 +8334,7 @@
         <v>0.8957554754340348</v>
       </c>
       <c r="K98">
-        <v>47.25058094472605</v>
+        <v>-0.02749419055273955</v>
       </c>
       <c r="L98">
         <v>-0.008027369200443963</v>
@@ -8364,13 +8364,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U98">
-        <v>0.9999453964671515</v>
+        <v>-5.460353284847397E-05</v>
       </c>
       <c r="V98">
-        <v>0.9999817804175929</v>
+        <v>-1.821958240710853E-05</v>
       </c>
       <c r="W98">
-        <v>1.000546597430992</v>
+        <v>0.0005465974309921684</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8405,7 +8405,7 @@
         <v>0.8455477499649796</v>
       </c>
       <c r="K99">
-        <v>45.81554446266831</v>
+        <v>-0.04184455537331694</v>
       </c>
       <c r="L99">
         <v>-0.007208660188445392</v>
@@ -8435,13 +8435,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U99">
-        <v>0.9999089891424047</v>
+        <v>-9.101085759533056E-05</v>
       </c>
       <c r="V99">
-        <v>1.000036439828733</v>
+        <v>3.64398287326928E-05</v>
       </c>
       <c r="W99">
-        <v>0.9997268505872712</v>
+        <v>-0.0002731494127288236</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8476,7 +8476,7 @@
         <v>0.9045484915571418</v>
       </c>
       <c r="K100">
-        <v>47.49411713941665</v>
+        <v>-0.02505882860583347</v>
       </c>
       <c r="L100">
         <v>-0.006353424271586043</v>
@@ -8506,13 +8506,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U100">
-        <v>0.9999271846869395</v>
+        <v>-7.281531306047029E-05</v>
       </c>
       <c r="V100">
-        <v>1.00001821925046</v>
+        <v>1.82192504600831E-05</v>
       </c>
       <c r="W100">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8547,7 +8547,7 @@
         <v>0.8516555355780127</v>
       </c>
       <c r="K101">
-        <v>45.994274810523</v>
+        <v>-0.04005725189477</v>
       </c>
       <c r="L101">
         <v>-0.005606839318103335</v>
@@ -8577,13 +8577,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U101">
-        <v>0.9999271793844836</v>
+        <v>-7.282061551638908E-05</v>
       </c>
       <c r="V101">
-        <v>1.000018218918525</v>
+        <v>1.821891852493707E-05</v>
       </c>
       <c r="W101">
-        <v>0.9997268505872712</v>
+        <v>-0.0002731494127288236</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8618,7 +8618,7 @@
         <v>0.8516555355780127</v>
       </c>
       <c r="K102">
-        <v>45.994274810523</v>
+        <v>-0.04005725189477</v>
       </c>
       <c r="L102">
         <v>-0.004953239409554432</v>
@@ -8648,13 +8648,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U102">
-        <v>0.9998907611218834</v>
+        <v>-0.0001092388781166465</v>
       </c>
       <c r="V102">
-        <v>1.000054655759806</v>
+        <v>5.46557598062325E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8689,7 +8689,7 @@
         <v>1.046030366733534</v>
       </c>
       <c r="K103">
-        <v>51.12487007724673</v>
+        <v>0.01124870077246731</v>
       </c>
       <c r="L103">
         <v>-0.004081230894945153</v>
@@ -8719,13 +8719,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U103">
-        <v>0.9999180618905854</v>
+        <v>-8.193810941459212E-05</v>
       </c>
       <c r="V103">
-        <v>1.000163958318152</v>
+        <v>0.0001639583181520798</v>
       </c>
       <c r="W103">
-        <v>1.000819672131148</v>
+        <v>0.0008196721311475308</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8760,7 +8760,7 @@
         <v>0.9792442489938069</v>
       </c>
       <c r="K104">
-        <v>49.47566473878237</v>
+        <v>-0.005243352612176289</v>
       </c>
       <c r="L104">
         <v>-0.003217026076148969</v>
@@ -8790,13 +8790,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U104">
-        <v>0.999908950195757</v>
+        <v>-9.104980424301523E-05</v>
       </c>
       <c r="V104">
-        <v>1.000109287626819</v>
+        <v>0.0001092876268191656</v>
       </c>
       <c r="W104">
-        <v>0.9997269997269996</v>
+        <v>-0.0002730002730003678</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8831,7 +8831,7 @@
         <v>0.9175761690538643</v>
       </c>
       <c r="K105">
-        <v>47.85083293492315</v>
+        <v>-0.02149167065076846</v>
       </c>
       <c r="L105">
         <v>-0.002500354666788435</v>
@@ -8861,13 +8861,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U105">
-        <v>0.9999180477144419</v>
+        <v>-8.195228555807343E-05</v>
       </c>
       <c r="V105">
-        <v>1.000054637842169</v>
+        <v>5.463784216930279E-05</v>
       </c>
       <c r="W105">
-        <v>0.9997269251774987</v>
+        <v>-0.0002730748225012736</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8902,7 +8902,7 @@
         <v>1.116445149161371</v>
       </c>
       <c r="K106">
-        <v>52.75096071371166</v>
+        <v>0.02750960713711659</v>
       </c>
       <c r="L106">
         <v>-0.001611246984592386</v>
@@ -8932,13 +8932,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U106">
-        <v>0.9999817868883808</v>
+        <v>-1.821311161920303E-05</v>
       </c>
       <c r="V106">
-        <v>1.000072846476052</v>
+        <v>7.284647605176886E-05</v>
       </c>
       <c r="W106">
-        <v>1.000819448238186</v>
+        <v>0.0008194482381862489</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8973,7 +8973,7 @@
         <v>1.535116686229886</v>
       </c>
       <c r="K107">
-        <v>60.55408394289116</v>
+        <v>0.1055408394289116</v>
       </c>
       <c r="L107">
         <v>-7.166938707099747E-05</v>
@@ -9003,13 +9003,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U107">
-        <v>1.000054640330028</v>
+        <v>5.464033002766655E-05</v>
       </c>
       <c r="V107">
-        <v>1.000163892632116</v>
+        <v>0.0001638926321156919</v>
       </c>
       <c r="W107">
-        <v>1.001637554585153</v>
+        <v>0.001637554585152801</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9044,7 +9044,7 @@
         <v>1.257927937272383</v>
       </c>
       <c r="K108">
-        <v>55.71160693427542</v>
+        <v>0.05711606934275426</v>
       </c>
       <c r="L108">
         <v>0.001465737862576138</v>
@@ -9074,13 +9074,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U108">
-        <v>1.000027318672313</v>
+        <v>2.731867231253737E-05</v>
       </c>
       <c r="V108">
-        <v>1.000109243850482</v>
+        <v>0.0001092438504817217</v>
       </c>
       <c r="W108">
-        <v>0.9991825613079018</v>
+        <v>-0.0008174386920981602</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9115,7 +9115,7 @@
         <v>1.384640402888763</v>
       </c>
       <c r="K109">
-        <v>58.0649560919711</v>
+        <v>0.08064956091971109</v>
       </c>
       <c r="L109">
         <v>0.003097389907583442</v>
@@ -9145,13 +9145,13 @@
         <v>0.1062500000000455</v>
       </c>
       <c r="U109">
-        <v>1.000054635852046</v>
+        <v>5.463585204612542E-05</v>
       </c>
       <c r="V109">
-        <v>1.00012743723716</v>
+        <v>0.000127437237160466</v>
       </c>
       <c r="W109">
-        <v>1.000545404963185</v>
+        <v>0.0005454049631852254</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9186,7 +9186,7 @@
         <v>1.451331174265824</v>
       </c>
       <c r="K110">
-        <v>59.20583842370866</v>
+        <v>0.09205838423708668</v>
       </c>
       <c r="L110">
         <v>0.004770246245001136</v>
@@ -9216,13 +9216,13 @@
         <v>0.1437500000000398</v>
       </c>
       <c r="U110">
-        <v>1.00010016025641</v>
+        <v>0.0001001602564103532</v>
       </c>
       <c r="V110">
-        <v>1.000182029998544</v>
+        <v>0.0001820299985437757</v>
       </c>
       <c r="W110">
-        <v>1.000272553829381</v>
+        <v>0.0002725538293812946</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9257,7 +9257,7 @@
         <v>1.451331174265825</v>
       </c>
       <c r="K111">
-        <v>59.20583842370867</v>
+        <v>0.09205838423708668</v>
       </c>
       <c r="L111">
         <v>0.006343958241087666</v>
@@ -9287,13 +9287,13 @@
         <v>0.1562500000000284</v>
       </c>
       <c r="U111">
-        <v>1.000091045659398</v>
+        <v>9.10456593981035E-05</v>
       </c>
       <c r="V111">
-        <v>1.000200196556619</v>
+        <v>0.0002001965566194031</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9328,7 +9328,7 @@
         <v>1.187973222243552</v>
       </c>
       <c r="K112">
-        <v>54.29560152593649</v>
+        <v>0.04295601525936488</v>
       </c>
       <c r="L112">
         <v>0.007435729947306003</v>
@@ -9358,13 +9358,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U112">
-        <v>1.000054622422505</v>
+        <v>5.462242250464655E-05</v>
       </c>
       <c r="V112">
-        <v>1.00014556835344</v>
+        <v>0.0001455683534399288</v>
       </c>
       <c r="W112">
-        <v>0.9991825613079018</v>
+        <v>-0.0008174386920981602</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9399,7 +9399,7 @@
         <v>1.053784270646259</v>
       </c>
       <c r="K113">
-        <v>51.30939435594507</v>
+        <v>0.0130939435594507</v>
       </c>
       <c r="L113">
         <v>0.007939939263892623</v>
@@ -9429,13 +9429,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U113">
-        <v>1.000027309719529</v>
+        <v>2.730971952913386E-05</v>
       </c>
       <c r="V113">
-        <v>1.000072773583189</v>
+        <v>7.277358318913407E-05</v>
       </c>
       <c r="W113">
-        <v>0.9994545950368149</v>
+        <v>-0.0005454049631851143</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9470,7 +9470,7 @@
         <v>0.9946516000993793</v>
       </c>
       <c r="K114">
-        <v>49.86593147644545</v>
+        <v>-0.00134068523554548</v>
       </c>
       <c r="L114">
         <v>0.00792773403078071</v>
@@ -9500,13 +9500,13 @@
         <v>0.1593750000000114</v>
       </c>
       <c r="U114">
-        <v>1.000054617947457</v>
+        <v>5.461794745742488E-05</v>
       </c>
       <c r="V114">
-        <v>1.00007276828758</v>
+        <v>7.276828758029374E-05</v>
       </c>
       <c r="W114">
-        <v>0.9997271487039563</v>
+        <v>-0.0002728512960437079</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9541,7 +9541,7 @@
         <v>0.9391763433756767</v>
       </c>
       <c r="K115">
-        <v>48.43171414420096</v>
+        <v>-0.0156828585579904</v>
       </c>
       <c r="L115">
         <v>0.00747521775436468</v>
@@ -9571,13 +9571,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U115">
-        <v>1.00002730748225</v>
+        <v>2.730748225010515E-05</v>
       </c>
       <c r="V115">
-        <v>1.000036381496371</v>
+        <v>3.638149637086308E-05</v>
       </c>
       <c r="W115">
-        <v>0.999727074235808</v>
+        <v>-0.0002729257641920224</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9612,7 +9612,7 @@
         <v>0.997885349696832</v>
       </c>
       <c r="K116">
-        <v>49.94707778643332</v>
+        <v>-0.000529222135666807</v>
       </c>
       <c r="L116">
         <v>0.006857064551790971</v>
@@ -9642,13 +9642,13 @@
         <v>0.078125</v>
       </c>
       <c r="U116">
-        <v>1.00004551122762</v>
+        <v>4.551122761986548E-05</v>
       </c>
       <c r="V116">
-        <v>1.000072760345612</v>
+        <v>7.276034561165545E-05</v>
       </c>
       <c r="W116">
-        <v>1.000273000273</v>
+        <v>0.0002730002730002568</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9683,7 +9683,7 @@
         <v>0.9398063031769606</v>
       </c>
       <c r="K117">
-        <v>48.44846114984636</v>
+        <v>-0.01551538850153639</v>
       </c>
       <c r="L117">
         <v>0.006053614032439268</v>
@@ -9713,13 +9713,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U117">
-        <v>1.000054610987731</v>
+        <v>5.461098773085205E-05</v>
       </c>
       <c r="V117">
-        <v>1.000054566288947</v>
+        <v>5.456628894684457E-05</v>
       </c>
       <c r="W117">
-        <v>0.999727074235808</v>
+        <v>-0.0002729257641920224</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9754,7 +9754,7 @@
         <v>1.429929449773433</v>
       </c>
       <c r="K118">
-        <v>58.84654181654368</v>
+        <v>0.08846541816543685</v>
       </c>
       <c r="L118">
         <v>0.005962345492186353</v>
@@ -9784,13 +9784,13 @@
         <v>0.00312500000003979</v>
       </c>
       <c r="U118">
-        <v>1.000154722682345</v>
+        <v>0.0001547226823452874</v>
       </c>
       <c r="V118">
-        <v>1.000145502164345</v>
+        <v>0.000145502164344613</v>
       </c>
       <c r="W118">
-        <v>1.002184002184002</v>
+        <v>0.002184002184002276</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9825,7 +9825,7 @@
         <v>1.343300172488711</v>
       </c>
       <c r="K119">
-        <v>57.32514290143433</v>
+        <v>0.07325142901434334</v>
       </c>
       <c r="L119">
         <v>0.006187117803539223</v>
@@ -9855,13 +9855,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U119">
-        <v>1.000127398968068</v>
+        <v>0.0001273989680683485</v>
       </c>
       <c r="V119">
-        <v>1.000145480996545</v>
+        <v>0.0001454809965448778</v>
       </c>
       <c r="W119">
-        <v>0.9997275946608553</v>
+        <v>-0.0002724053391447434</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9896,7 +9896,7 @@
         <v>1.343300172488711</v>
       </c>
       <c r="K120">
-        <v>57.32514290143433</v>
+        <v>0.07325142901434334</v>
       </c>
       <c r="L120">
         <v>0.006566419986025277</v>
@@ -9926,13 +9926,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U120">
-        <v>1.000109185205405</v>
+        <v>0.0001091852054047049</v>
       </c>
       <c r="V120">
-        <v>1.000163642314266</v>
+        <v>0.0001636423142659105</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9967,7 +9967,7 @@
         <v>1.343300172488711</v>
       </c>
       <c r="K121">
-        <v>57.32514290143433</v>
+        <v>0.07325142901434334</v>
       </c>
       <c r="L121">
         <v>0.006991183832546845</v>
@@ -9997,13 +9997,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U121">
-        <v>1.000090977737748</v>
+        <v>9.097773774757734E-05</v>
       </c>
       <c r="V121">
-        <v>1.00010907702656</v>
+        <v>0.0001090770265601559</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10038,7 +10038,7 @@
         <v>1.34330017248871</v>
       </c>
       <c r="K122">
-        <v>57.32514290143433</v>
+        <v>0.07325142901434334</v>
       </c>
       <c r="L122">
         <v>0.007390896376765237</v>
@@ -10068,13 +10068,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U122">
-        <v>1.000081872515397</v>
+        <v>8.187251539659712E-05</v>
       </c>
       <c r="V122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10109,7 +10109,7 @@
         <v>1.250302763154569</v>
       </c>
       <c r="K123">
-        <v>55.56153525767537</v>
+        <v>0.05561535257675376</v>
       </c>
       <c r="L123">
         <v>0.007623616522344189</v>
@@ -10139,13 +10139,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U123">
-        <v>1.00007276961141</v>
+        <v>7.276961141022831E-05</v>
       </c>
       <c r="V123">
-        <v>1.000036355043354</v>
+        <v>3.63550433535309E-05</v>
       </c>
       <c r="W123">
-        <v>0.9997275204359672</v>
+        <v>-0.0002724795640327571</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10180,7 +10180,7 @@
         <v>1.250302763154569</v>
       </c>
       <c r="K124">
-        <v>55.56153525767537</v>
+        <v>0.05561535257675376</v>
       </c>
       <c r="L124">
         <v>0.007712554699732001</v>
@@ -10210,13 +10210,13 @@
         <v>0.0625</v>
       </c>
       <c r="U124">
-        <v>1.000063668776832</v>
+        <v>6.36687768318378E-05</v>
       </c>
       <c r="V124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10251,7 +10251,7 @@
         <v>1.161225448877927</v>
       </c>
       <c r="K125">
-        <v>53.72995443306556</v>
+        <v>0.03729954433065563</v>
       </c>
       <c r="L125">
         <v>0.0075812618715601</v>
@@ -10281,13 +10281,13 @@
         <v>0.09687499999998295</v>
       </c>
       <c r="U125">
-        <v>1.000072759683859</v>
+        <v>7.275968385922482E-05</v>
       </c>
       <c r="V125">
-        <v>0.9999636462782878</v>
+        <v>-3.635372171217899E-05</v>
       </c>
       <c r="W125">
-        <v>0.9997274461706188</v>
+        <v>-0.0002725538293811836</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10322,7 +10322,7 @@
         <v>1.08021543671905</v>
       </c>
       <c r="K126">
-        <v>51.92805599129596</v>
+        <v>0.01928055991295963</v>
       </c>
       <c r="L126">
         <v>0.007197975080957685</v>
@@ -10352,13 +10352,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U126">
-        <v>1.000072754390273</v>
+        <v>7.275439027254471E-05</v>
       </c>
       <c r="V126">
-        <v>0.9999454674349699</v>
+        <v>-5.453256503007431E-05</v>
       </c>
       <c r="W126">
-        <v>0.9997273718647763</v>
+        <v>-0.0002726281352236626</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10393,7 +10393,7 @@
         <v>1.300518127531743</v>
       </c>
       <c r="K127">
-        <v>56.53153139580284</v>
+        <v>0.06531531395802836</v>
       </c>
       <c r="L127">
         <v>0.006958303635677516</v>
@@ -10423,13 +10423,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U127">
-        <v>1.000100030009003</v>
+        <v>0.0001000300090028272</v>
       </c>
       <c r="V127">
-        <v>1.000054535538993</v>
+        <v>5.453553899292807E-05</v>
       </c>
       <c r="W127">
-        <v>1.000818107444778</v>
+        <v>0.000818107444777727</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10464,7 +10464,7 @@
         <v>0.9379891291155851</v>
       </c>
       <c r="K128">
-        <v>48.40012335588502</v>
+        <v>-0.01599876644114978</v>
       </c>
       <c r="L128">
         <v>0.006298860276936844</v>
@@ -10494,13 +10494,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U128">
-        <v>1.000036370910546</v>
+        <v>3.63709105457577E-05</v>
       </c>
       <c r="V128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W128">
-        <v>0.9986376021798365</v>
+        <v>-0.001362397820163452</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10535,7 +10535,7 @@
         <v>0.9966748888814029</v>
       </c>
       <c r="K129">
-        <v>49.91673378733029</v>
+        <v>-0.0008326621266970813</v>
       </c>
       <c r="L129">
         <v>0.005503604623039783</v>
@@ -10565,13 +10565,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U129">
-        <v>1.000054554381626</v>
+        <v>5.455438162615955E-05</v>
       </c>
       <c r="V129">
-        <v>1.000036355043353</v>
+        <v>3.635504335330886E-05</v>
       </c>
       <c r="W129">
-        <v>1.000272851296044</v>
+        <v>0.0002728512960437079</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10606,7 +10606,7 @@
         <v>0.8870773925585052</v>
       </c>
       <c r="K130">
-        <v>47.00800274840891</v>
+        <v>-0.02991997251591094</v>
       </c>
       <c r="L130">
         <v>0.004458096997667761</v>
@@ -10636,13 +10636,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U130">
-        <v>1.000027275702804</v>
+        <v>2.727570280391944E-05</v>
       </c>
       <c r="V130">
-        <v>1.000018176860856</v>
+        <v>1.817686085603398E-05</v>
       </c>
       <c r="W130">
-        <v>0.9994544462629568</v>
+        <v>-0.0005455537370432362</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10677,7 +10677,7 @@
         <v>1.060703396719962</v>
       </c>
       <c r="K131">
-        <v>51.47288049353887</v>
+        <v>0.01472880493538864</v>
       </c>
       <c r="L131">
         <v>0.003609378616661612</v>
@@ -10707,13 +10707,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U131">
-        <v>1.000063641570674</v>
+        <v>6.364157067406673E-05</v>
       </c>
       <c r="V131">
-        <v>1.000054529591392</v>
+        <v>5.452959139162772E-05</v>
       </c>
       <c r="W131">
-        <v>1.000818777292577</v>
+        <v>0.0008187772925765113</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10748,7 +10748,7 @@
         <v>0.8968003794429531</v>
       </c>
       <c r="K132">
-        <v>47.27963939496485</v>
+        <v>-0.02720360605035155</v>
       </c>
       <c r="L132">
         <v>0.002622864473751021</v>
@@ -10778,13 +10778,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U132">
-        <v>1.000036364297533</v>
+        <v>3.636429753273163E-05</v>
       </c>
       <c r="V132">
-        <v>1.000018175539359</v>
+        <v>1.817553935934413E-05</v>
       </c>
       <c r="W132">
-        <v>0.9991818925552223</v>
+        <v>-0.000818107444777727</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10819,7 +10819,7 @@
         <v>0.9510189581722773</v>
       </c>
       <c r="K133">
-        <v>48.74473178175551</v>
+        <v>-0.01255268218244487</v>
       </c>
       <c r="L133">
         <v>0.001705515554277321</v>
@@ -10849,13 +10849,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U133">
-        <v>1.000018181487609</v>
+        <v>1.818148760923677E-05</v>
       </c>
       <c r="V133">
-        <v>0.9998909487459107</v>
+        <v>-0.0001090512540893318</v>
       </c>
       <c r="W133">
-        <v>1.000272925764192</v>
+        <v>0.0002729257641922445</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10890,7 +10890,7 @@
         <v>0.8996726702734933</v>
       </c>
       <c r="K134">
-        <v>47.35935218481449</v>
+        <v>-0.0264064781518551</v>
       </c>
       <c r="L134">
         <v>0.0007830004863468471</v>
@@ -10920,13 +10920,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U134">
-        <v>1.000018181157049</v>
+        <v>1.818115704876888E-05</v>
       </c>
       <c r="V134">
-        <v>0.9998909368524375</v>
+        <v>-0.0001090631475625381</v>
       </c>
       <c r="W134">
-        <v>0.9997271487039563</v>
+        <v>-0.0002728512960437079</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10961,7 +10961,7 @@
         <v>0.8996726702734934</v>
       </c>
       <c r="K135">
-        <v>47.35935218481449</v>
+        <v>-0.0264064781518551</v>
       </c>
       <c r="L135">
         <v>-8.671548426061116E-05</v>
@@ -10991,13 +10991,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U135">
-        <v>1.00002727123975</v>
+        <v>2.72712397504371E-05</v>
       </c>
       <c r="V135">
-        <v>0.9998909249563701</v>
+        <v>-0.0001090750436298915</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11032,7 +11032,7 @@
         <v>1.378261605265875</v>
       </c>
       <c r="K136">
-        <v>57.95248101445904</v>
+        <v>0.07952481014459034</v>
       </c>
       <c r="L136">
         <v>-7.423984202801074E-05</v>
@@ -11062,13 +11062,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U136">
-        <v>1.000072721322801</v>
+        <v>7.272132280089494E-05</v>
       </c>
       <c r="V136">
-        <v>1.000036362314098</v>
+        <v>3.636231409753776E-05</v>
       </c>
       <c r="W136">
-        <v>1.002183406113537</v>
+        <v>0.002183406113537067</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11103,7 +11103,7 @@
         <v>1.29661111418225</v>
       </c>
       <c r="K137">
-        <v>56.4575824864425</v>
+        <v>0.06457582486442492</v>
       </c>
       <c r="L137">
         <v>0.0003728528886280191</v>
@@ -11133,13 +11133,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U137">
-        <v>1.000009089504349</v>
+        <v>9.089504349413247E-06</v>
       </c>
       <c r="V137">
-        <v>1.000018180495964</v>
+        <v>1.818049596380433E-05</v>
       </c>
       <c r="W137">
-        <v>0.9997276688453159</v>
+        <v>-0.0002723311546840579</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11174,7 +11174,7 @@
         <v>1.092270380083691</v>
       </c>
       <c r="K138">
-        <v>52.20503002293614</v>
+        <v>0.02205030022936139</v>
       </c>
       <c r="L138">
         <v>0.0007554667634028821</v>
@@ -11204,13 +11204,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U138">
-        <v>1.000009089421731</v>
+        <v>9.089421730834601E-06</v>
       </c>
       <c r="V138">
-        <v>0.9999818198345605</v>
+        <v>-1.818016543952972E-05</v>
       </c>
       <c r="W138">
-        <v>0.999182783982566</v>
+        <v>-0.0008172160174340082</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11245,7 +11245,7 @@
         <v>0.9835013388332499</v>
       </c>
       <c r="K139">
-        <v>49.58410259565403</v>
+        <v>-0.004158974043459718</v>
       </c>
       <c r="L139">
         <v>0.0008732622375466015</v>
@@ -11275,13 +11275,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U139">
-        <v>0.9999727319826577</v>
+        <v>-2.726801734231898E-05</v>
       </c>
       <c r="V139">
-        <v>0.9999454585121083</v>
+        <v>-5.454148789174607E-05</v>
       </c>
       <c r="W139">
-        <v>0.9994547437295529</v>
+        <v>-0.0005452562704471031</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11316,7 +11316,7 @@
         <v>0.8901900332564703</v>
       </c>
       <c r="K140">
-        <v>47.09526648613351</v>
+        <v>-0.02904733513866486</v>
       </c>
       <c r="L140">
         <v>0.0006213238017812986</v>
@@ -11346,13 +11346,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U140">
-        <v>0.9999454624781848</v>
+        <v>-5.45375218151678E-05</v>
       </c>
       <c r="V140">
-        <v>0.9999272740495626</v>
+        <v>-7.272595043739116E-05</v>
       </c>
       <c r="W140">
-        <v>0.9994544462629568</v>
+        <v>-0.0005455537370432362</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11387,7 +11387,7 @@
         <v>0.9401251086064689</v>
       </c>
       <c r="K141">
-        <v>48.45693220689934</v>
+        <v>-0.01543067793100661</v>
       </c>
       <c r="L141">
         <v>0.0002584983202315409</v>
@@ -11417,13 +11417,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U141">
-        <v>0.9999545495864013</v>
+        <v>-4.545041359871327E-05</v>
       </c>
       <c r="V141">
-        <v>0.9999636343800571</v>
+        <v>-3.636561994291299E-05</v>
       </c>
       <c r="W141">
-        <v>1.000272925764192</v>
+        <v>0.0002729257641922445</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11458,7 +11458,7 @@
         <v>0.9401251086064688</v>
       </c>
       <c r="K142">
-        <v>48.45693220689934</v>
+        <v>-0.01543067793100661</v>
       </c>
       <c r="L142">
         <v>-0.0001493255151585104</v>
@@ -11488,13 +11488,13 @@
         <v>0.03125</v>
       </c>
       <c r="U142">
-        <v>0.9999818190082268</v>
+        <v>-1.818099177319787E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999090826438768</v>
+        <v>-9.091735612321017E-05</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11529,7 +11529,7 @@
         <v>0.9954548319859687</v>
       </c>
       <c r="K143">
-        <v>49.88611197955536</v>
+        <v>-0.001138880204446413</v>
       </c>
       <c r="L143">
         <v>-0.0004585741531007967</v>
@@ -11559,13 +11559,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U143">
-        <v>1.000009090661164</v>
+        <v>9.090661163835279E-06</v>
       </c>
       <c r="V143">
-        <v>1.000018185124568</v>
+        <v>1.818512456819299E-05</v>
       </c>
       <c r="W143">
-        <v>1.000272851296044</v>
+        <v>0.0002728512960437079</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11600,7 +11600,7 @@
         <v>0.9406685870260365</v>
       </c>
       <c r="K144">
-        <v>48.4713666885059</v>
+        <v>-0.01528633311494099</v>
       </c>
       <c r="L144">
         <v>-0.0007860379852619232</v>
@@ -11630,13 +11630,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U144">
-        <v>1.000009090578524</v>
+        <v>9.090578524384441E-06</v>
       </c>
       <c r="V144">
-        <v>0.9999818152061246</v>
+        <v>-1.818479387538652E-05</v>
       </c>
       <c r="W144">
-        <v>0.9997272231314784</v>
+        <v>-0.0002727768685215626</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11671,7 +11671,7 @@
         <v>0.9986016339948453</v>
       </c>
       <c r="K145">
-        <v>49.9650163899256</v>
+        <v>-0.000349836100743961</v>
       </c>
       <c r="L145">
         <v>-0.001001503744105772</v>
@@ -11701,13 +11701,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U145">
-        <v>1.00002727148766</v>
+        <v>2.727148765968579E-05</v>
       </c>
       <c r="V145">
-        <v>1.000036370249136</v>
+        <v>3.637024913616393E-05</v>
       </c>
       <c r="W145">
-        <v>1.000272851296044</v>
+        <v>0.0002728512960437079</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11742,7 +11742,7 @@
         <v>1.120565943402829</v>
       </c>
       <c r="K146">
-        <v>52.84277750894554</v>
+        <v>0.02842777508945538</v>
       </c>
       <c r="L146">
         <v>-0.0009331232624859921</v>
@@ -11772,13 +11772,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U146">
-        <v>1.000036360991928</v>
+        <v>3.636099192783071E-05</v>
       </c>
       <c r="V146">
-        <v>1.000018184463195</v>
+        <v>1.818446319457045E-05</v>
       </c>
       <c r="W146">
-        <v>1.000545553737043</v>
+        <v>0.0005455537370431252</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11813,7 +11813,7 @@
         <v>1.052973725875862</v>
       </c>
       <c r="K147">
-        <v>51.29017057569165</v>
+        <v>0.01290170575691651</v>
       </c>
       <c r="L147">
         <v>-0.0007930450078370041</v>
@@ -11843,13 +11843,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U147">
-        <v>1.000036359669854</v>
+        <v>3.635966985426897E-05</v>
       </c>
       <c r="V147">
-        <v>1.000054552397578</v>
+        <v>5.455239757790054E-05</v>
       </c>
       <c r="W147">
-        <v>0.9997273718647763</v>
+        <v>-0.0002726281352236626</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11884,7 +11884,7 @@
         <v>1.243457034097486</v>
       </c>
       <c r="K148">
-        <v>55.42593484959309</v>
+        <v>0.05425934849593095</v>
       </c>
       <c r="L148">
         <v>-0.000317632522458271</v>
@@ -11914,13 +11914,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U148">
-        <v>0.9999909104130307</v>
+        <v>-9.089586969324159E-06</v>
       </c>
       <c r="V148">
-        <v>1.00009091570296</v>
+        <v>9.091570296004825E-05</v>
       </c>
       <c r="W148">
-        <v>1.000818107444778</v>
+        <v>0.000818107444777727</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11955,7 +11955,7 @@
         <v>1.243457034097486</v>
       </c>
       <c r="K149">
-        <v>55.42593484959309</v>
+        <v>0.05425934849593095</v>
       </c>
       <c r="L149">
         <v>0.0003318007770586317</v>
@@ -11985,13 +11985,13 @@
         <v>0.009375000000034106</v>
       </c>
       <c r="U149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V149">
-        <v>1.000109088925656</v>
+        <v>0.0001090889256558647</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12026,7 +12026,7 @@
         <v>1.161725090088557</v>
       </c>
       <c r="K150">
-        <v>53.74064886488254</v>
+        <v>0.03740648864882534</v>
       </c>
       <c r="L150">
         <v>0.0009447501878186752</v>
@@ -12056,13 +12056,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U150">
-        <v>0.9999909103304095</v>
+        <v>-9.089669590456317E-06</v>
       </c>
       <c r="V150">
-        <v>1.000090897522134</v>
+        <v>9.089752213364832E-05</v>
       </c>
       <c r="W150">
-        <v>0.9997275204359672</v>
+        <v>-0.0002724795640327571</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12097,7 +12097,7 @@
         <v>0.9620376446485966</v>
       </c>
       <c r="K151">
-        <v>49.03257831329219</v>
+        <v>-0.009674216867078089</v>
       </c>
       <c r="L151">
         <v>0.001195154299052992</v>
@@ -12127,13 +12127,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U151">
-        <v>0.9999636409911467</v>
+        <v>-3.635900885334831E-05</v>
       </c>
       <c r="V151">
-        <v>0.99989093288737</v>
+        <v>-0.0001090671126300347</v>
       </c>
       <c r="W151">
-        <v>0.9991823385118562</v>
+        <v>-0.0008176614881437727</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12168,7 +12168,7 @@
         <v>0.9620376446485964</v>
       </c>
       <c r="K152">
-        <v>49.03257831329218</v>
+        <v>-0.009674216867078256</v>
       </c>
       <c r="L152">
         <v>0.001205612675945991</v>
@@ -12198,13 +12198,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U152">
-        <v>0.9999636396691208</v>
+        <v>-3.636033087917045E-05</v>
       </c>
       <c r="V152">
-        <v>0.9999091008253645</v>
+        <v>-9.089917463545039E-05</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12239,7 +12239,7 @@
         <v>1.15249606656357</v>
       </c>
       <c r="K153">
-        <v>53.54230767090385</v>
+        <v>0.03542307670903855</v>
       </c>
       <c r="L153">
         <v>0.001363579028468409</v>
@@ -12269,13 +12269,13 @@
         <v>0.0625</v>
       </c>
       <c r="U153">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V153">
-        <v>1.000018181487609</v>
+        <v>1.818148760923677E-05</v>
       </c>
       <c r="W153">
-        <v>1.000818330605564</v>
+        <v>0.0008183306055644657</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12310,7 +12310,7 @@
         <v>1.15249606656357</v>
       </c>
       <c r="K154">
-        <v>53.54230767090385</v>
+        <v>0.03542307670903855</v>
       </c>
       <c r="L154">
         <v>0.001595870272030465</v>
@@ -12340,13 +12340,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V154">
-        <v>1.000054543471147</v>
+        <v>5.454347114652869E-05</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12381,7 +12381,7 @@
         <v>1.076752197900394</v>
       </c>
       <c r="K155">
-        <v>51.84789013291982</v>
+        <v>0.01847890132919827</v>
       </c>
       <c r="L155">
         <v>0.001753262492441142</v>
@@ -12411,13 +12411,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U155">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V155">
-        <v>1.000072720661758</v>
+        <v>7.272066175811887E-05</v>
       </c>
       <c r="W155">
-        <v>0.9997274461706188</v>
+        <v>-0.0002725538293811836</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12452,7 +12452,7 @@
         <v>1.145932814112157</v>
       </c>
       <c r="K156">
-        <v>53.40021861710834</v>
+        <v>0.03400218617108342</v>
       </c>
       <c r="L156">
         <v>0.001948166423364868</v>
@@ -12482,13 +12482,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U156">
-        <v>1.000018180826501</v>
+        <v>1.818082650051345E-05</v>
       </c>
       <c r="V156">
-        <v>1.000072715373848</v>
+        <v>7.271537384778703E-05</v>
       </c>
       <c r="W156">
-        <v>1.000272628135223</v>
+        <v>0.0002726281352234405</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12523,7 +12523,7 @@
         <v>1.29157621666332</v>
       </c>
       <c r="K157">
-        <v>56.36191400798953</v>
+        <v>0.06361914007989522</v>
       </c>
       <c r="L157">
         <v>0.002344876876362668</v>
@@ -12553,13 +12553,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U157">
-        <v>1.000009090247982</v>
+        <v>9.090247981902166E-06</v>
       </c>
       <c r="V157">
-        <v>1.00010906513006</v>
+        <v>0.0001090651300601486</v>
       </c>
       <c r="W157">
-        <v>1.000545107658763</v>
+        <v>0.0005451076587628112</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12594,7 +12594,7 @@
         <v>1.598193906244631</v>
       </c>
       <c r="K158">
-        <v>61.51172560306028</v>
+        <v>0.1151172560306029</v>
       </c>
       <c r="L158">
         <v>0.003227201261203971</v>
@@ -12624,13 +12624,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U158">
-        <v>1.000090901653501</v>
+        <v>9.090165350089663E-05</v>
       </c>
       <c r="V158">
-        <v>1.000163579854232</v>
+        <v>0.0001635798542320988</v>
       </c>
       <c r="W158">
-        <v>1.001089621356579</v>
+        <v>0.00108962135657853</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12665,7 +12665,7 @@
         <v>1.478865894708756</v>
       </c>
       <c r="K159">
-        <v>59.65897138144737</v>
+        <v>0.09658971381447368</v>
       </c>
       <c r="L159">
         <v>0.004236378939171985</v>
@@ -12695,13 +12695,13 @@
         <v>0.0625</v>
       </c>
       <c r="U159">
-        <v>1.000072714712913</v>
+        <v>7.271471291314668E-05</v>
       </c>
       <c r="V159">
-        <v>1.00016355310024</v>
+        <v>0.0001635531002397439</v>
       </c>
       <c r="W159">
-        <v>0.9997278911564625</v>
+        <v>-0.0002721088435374552</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12736,7 +12736,7 @@
         <v>1.714647859659649</v>
       </c>
       <c r="K160">
-        <v>63.16280962771445</v>
+        <v>0.1316280962771444</v>
       </c>
       <c r="L160">
         <v>0.005540471160921065</v>
@@ -12766,13 +12766,13 @@
         <v>0.09375</v>
       </c>
       <c r="U160">
-        <v>1.000118152817036</v>
+        <v>0.0001181528170359769</v>
       </c>
       <c r="V160">
-        <v>1.000199865544997</v>
+        <v>0.0001998655449970688</v>
       </c>
       <c r="W160">
-        <v>1.00081654872074</v>
+        <v>0.0008165487207403288</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12807,7 +12807,7 @@
         <v>2.128300429748919</v>
       </c>
       <c r="K161">
-        <v>68.03376074463982</v>
+        <v>0.1803376074463983</v>
       </c>
       <c r="L161">
         <v>0.007416241958609281</v>
@@ -12837,13 +12837,13 @@
         <v>0.125</v>
       </c>
       <c r="U161">
-        <v>1.000136314067612</v>
+        <v>0.0001363140676118313</v>
       </c>
       <c r="V161">
-        <v>1.000254323499491</v>
+        <v>0.0002543234994911714</v>
       </c>
       <c r="W161">
-        <v>1.001359804188197</v>
+        <v>0.001359804188196811</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12878,7 +12878,7 @@
         <v>2.128300429748919</v>
       </c>
       <c r="K162">
-        <v>68.03376074463982</v>
+        <v>0.1803376074463983</v>
       </c>
       <c r="L162">
         <v>0.009491519857747521</v>
@@ -12908,13 +12908,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U162">
-        <v>1.000163554586343</v>
+        <v>0.0001635545863429844</v>
       </c>
       <c r="V162">
-        <v>1.000272420180887</v>
+        <v>0.0002724201808872451</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12949,7 +12949,7 @@
         <v>1.29641840509511</v>
       </c>
       <c r="K163">
-        <v>56.45392852708027</v>
+        <v>0.06453928527080277</v>
       </c>
       <c r="L163">
         <v>0.01082562598294777</v>
@@ -12979,13 +12979,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U163">
-        <v>1.000090848800342</v>
+        <v>9.084880034171405E-05</v>
       </c>
       <c r="V163">
-        <v>1.000090781996114</v>
+        <v>9.078199611445292E-05</v>
       </c>
       <c r="W163">
-        <v>0.9980988593155894</v>
+        <v>-0.001901140684410607</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13020,7 +13020,7 @@
         <v>1.160049970504363</v>
       </c>
       <c r="K164">
-        <v>53.70477472025779</v>
+        <v>0.03704774720257786</v>
       </c>
       <c r="L164">
         <v>0.01138768124678272</v>
@@ -13050,13 +13050,13 @@
         <v>0.1968750000000057</v>
       </c>
       <c r="U164">
-        <v>1.000081756492828</v>
+        <v>8.175649282815556E-05</v>
       </c>
       <c r="V164">
-        <v>1.000054464253295</v>
+        <v>5.446425329513893E-05</v>
       </c>
       <c r="W164">
-        <v>0.9994557823129252</v>
+        <v>-0.0005442176870747994</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13091,7 +13091,7 @@
         <v>1.099195829280175</v>
       </c>
       <c r="K165">
-        <v>52.36271023161736</v>
+        <v>0.0236271023161736</v>
       </c>
       <c r="L165">
         <v>0.01130552837552779</v>
@@ -13121,13 +13121,13 @@
         <v>0.1968749999999773</v>
       </c>
       <c r="U165">
-        <v>1.000072666497111</v>
+        <v>7.266649711135109E-05</v>
       </c>
       <c r="V165">
-        <v>1.000054461287102</v>
+        <v>5.44612871016259E-05</v>
       </c>
       <c r="W165">
-        <v>0.9997277429893819</v>
+        <v>-0.00027225701061806</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13162,7 +13162,7 @@
         <v>0.9898756189587475</v>
       </c>
       <c r="K166">
-        <v>49.74560266619704</v>
+        <v>-0.002543973338029637</v>
       </c>
       <c r="L166">
         <v>0.01059880073157389</v>
@@ -13192,13 +13192,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U166">
-        <v>0.999981834695731</v>
+        <v>-1.81653042690133E-05</v>
       </c>
       <c r="V166">
-        <v>1.000072611094976</v>
+        <v>7.261109497558316E-05</v>
       </c>
       <c r="W166">
-        <v>0.9994553376906319</v>
+        <v>-0.0005446623093681158</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13233,7 +13233,7 @@
         <v>0.9406382949640043</v>
       </c>
       <c r="K167">
-        <v>48.47056236110458</v>
+        <v>-0.01529437638895426</v>
       </c>
       <c r="L167">
         <v>0.009421075674959313</v>
@@ -13263,13 +13263,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U167">
-        <v>0.9999818343657469</v>
+        <v>-1.81656342530534E-05</v>
       </c>
       <c r="V167">
-        <v>1.00005445436724</v>
+        <v>5.44543672402753E-05</v>
       </c>
       <c r="W167">
-        <v>0.9997275204359672</v>
+        <v>-0.0002724795640327571</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13304,7 +13304,7 @@
         <v>0.9406382949640043</v>
       </c>
       <c r="K168">
-        <v>48.47056236110458</v>
+        <v>-0.01529437638895426</v>
       </c>
       <c r="L168">
         <v>0.007998910328563893</v>
@@ -13334,13 +13334,13 @@
         <v>0.0625</v>
       </c>
       <c r="U168">
-        <v>1.000009082982125</v>
+        <v>9.082982124875016E-06</v>
       </c>
       <c r="V168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13375,7 +13375,7 @@
         <v>0.9957528877865998</v>
       </c>
       <c r="K169">
-        <v>49.89359624031133</v>
+        <v>-0.001064037596886669</v>
       </c>
       <c r="L169">
         <v>0.006589465206531847</v>
@@ -13405,13 +13405,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U169">
-        <v>1.000036331598499</v>
+        <v>3.633159849947276E-05</v>
       </c>
       <c r="V169">
-        <v>1.000018150467374</v>
+        <v>1.815046737441151E-05</v>
       </c>
       <c r="W169">
-        <v>1.000272553829381</v>
+        <v>0.0002725538293812946</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13446,7 +13446,7 @@
         <v>0.8922271299498711</v>
       </c>
       <c r="K170">
-        <v>47.15222162434105</v>
+        <v>-0.02847778375658955</v>
       </c>
       <c r="L170">
         <v>0.005055176552129751</v>
@@ -13476,13 +13476,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U170">
-        <v>1.000036330278562</v>
+        <v>3.633027856242421E-05</v>
       </c>
       <c r="V170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W170">
-        <v>0.9994550408719346</v>
+        <v>-0.0005449591280654031</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13517,7 +13517,7 @@
         <v>0.8042144745941393</v>
       </c>
       <c r="K171">
-        <v>44.57421697467805</v>
+        <v>-0.05425783025321951</v>
       </c>
       <c r="L171">
         <v>0.003326270623558801</v>
@@ -13547,13 +13547,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U171">
-        <v>1.000009082239681</v>
+        <v>9.082239680546778E-06</v>
       </c>
       <c r="V171">
-        <v>0.9999455495861771</v>
+        <v>-5.445041382290405E-05</v>
       </c>
       <c r="W171">
-        <v>0.9994547437295529</v>
+        <v>-0.0005452562704471031</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13588,7 +13588,7 @@
         <v>0.6958357381580499</v>
       </c>
       <c r="K172">
-        <v>41.03202465315653</v>
+        <v>-0.08967975346843476</v>
       </c>
       <c r="L172">
         <v>0.001279970926638797</v>
@@ -13618,13 +13618,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U172">
-        <v>0.9999818356856119</v>
+        <v>-1.816431438805832E-05</v>
       </c>
       <c r="V172">
-        <v>0.9998547909897809</v>
+        <v>-0.0001452090102190828</v>
       </c>
       <c r="W172">
-        <v>0.9991816693944353</v>
+        <v>-0.0008183306055646877</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13659,7 +13659,7 @@
         <v>0.6958357381580499</v>
       </c>
       <c r="K173">
-        <v>41.03202465315653</v>
+        <v>-0.08967975346843476</v>
       </c>
       <c r="L173">
         <v>-0.0008328864863641176</v>
@@ -13689,13 +13689,13 @@
         <v>-0.2249999999999659</v>
       </c>
       <c r="U173">
-        <v>0.9999727530334956</v>
+        <v>-2.724696650435732E-05</v>
       </c>
       <c r="V173">
-        <v>0.9997821548515928</v>
+        <v>-0.0002178451484071697</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13730,7 +13730,7 @@
         <v>0.7953840107330221</v>
       </c>
       <c r="K174">
-        <v>44.30160934809047</v>
+        <v>-0.05698390651909535</v>
       </c>
       <c r="L174">
         <v>-0.002650090509804976</v>
@@ -13760,13 +13760,13 @@
         <v>-0.2249999999999659</v>
       </c>
       <c r="U174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V174">
-        <v>0.999836580538558</v>
+        <v>-0.0001634194614420492</v>
       </c>
       <c r="W174">
-        <v>1.000546000546001</v>
+        <v>0.0005460005460005135</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13801,7 +13801,7 @@
         <v>0.7557855147185788</v>
       </c>
       <c r="K175">
-        <v>43.0454351276339</v>
+        <v>-0.06954564872366098</v>
       </c>
       <c r="L175">
         <v>-0.004262026571582698</v>
@@ -13831,13 +13831,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U175">
-        <v>0.9999818348607188</v>
+        <v>-1.816513928121211E-05</v>
       </c>
       <c r="V175">
-        <v>0.9997639110852828</v>
+        <v>-0.0002360889147171585</v>
       </c>
       <c r="W175">
-        <v>0.9997271487039563</v>
+        <v>-0.0002728512960437079</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13872,7 +13872,7 @@
         <v>0.808191178927506</v>
       </c>
       <c r="K176">
-        <v>44.69611335051801</v>
+        <v>-0.05303886649481987</v>
       </c>
       <c r="L176">
         <v>-0.005532275473112308</v>
@@ -13902,13 +13902,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U176">
-        <v>0.9999727517961108</v>
+        <v>-2.724820388921856E-05</v>
       </c>
       <c r="V176">
-        <v>0.9996911954369584</v>
+        <v>-0.0003088045630416092</v>
       </c>
       <c r="W176">
-        <v>1.000272925764192</v>
+        <v>0.0002729257641922445</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13943,7 +13943,7 @@
         <v>0.7278852618437202</v>
       </c>
       <c r="K177">
-        <v>42.12578681683056</v>
+        <v>-0.07874213183169437</v>
       </c>
       <c r="L177">
         <v>-0.00669292308204909</v>
@@ -13973,13 +13973,13 @@
         <v>-0.1968750000000341</v>
       </c>
       <c r="U177">
-        <v>0.9999636680715012</v>
+        <v>-3.633192849883393E-05</v>
       </c>
       <c r="V177">
-        <v>0.9996547588763308</v>
+        <v>-0.0003452411236691821</v>
       </c>
       <c r="W177">
-        <v>0.9994542974079127</v>
+        <v>-0.0005457025920873049</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14014,7 +14014,7 @@
         <v>0.8324799994538226</v>
       </c>
       <c r="K178">
-        <v>45.4291451858654</v>
+        <v>-0.04570854814134601</v>
       </c>
       <c r="L178">
         <v>-0.00749052593214445</v>
@@ -14044,13 +14044,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U178">
-        <v>0.9999545834393053</v>
+        <v>-4.54165606946777E-05</v>
       </c>
       <c r="V178">
-        <v>0.9998182313914387</v>
+        <v>-0.000181768608561339</v>
       </c>
       <c r="W178">
-        <v>1.000546000546001</v>
+        <v>0.0005460005460005135</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14085,7 +14085,7 @@
         <v>0.8324799994538226</v>
       </c>
       <c r="K179">
-        <v>45.4291451858654</v>
+        <v>-0.04570854814134601</v>
       </c>
       <c r="L179">
         <v>-0.007990131505344755</v>
@@ -14115,13 +14115,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U179">
-        <v>0.9999545813765476</v>
+        <v>-4.541862345242009E-05</v>
       </c>
       <c r="V179">
-        <v>0.9998545586764841</v>
+        <v>-0.0001454413235159047</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14156,7 +14156,7 @@
         <v>0.8324799994538227</v>
       </c>
       <c r="K180">
-        <v>45.4291451858654</v>
+        <v>-0.04570854814134601</v>
       </c>
       <c r="L180">
         <v>-0.008248300313520798</v>
@@ -14186,13 +14186,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U180">
-        <v>0.9999636634508821</v>
+        <v>-3.633654911794348E-05</v>
       </c>
       <c r="V180">
-        <v>0.9998727203301998</v>
+        <v>-0.0001272796698001954</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14227,7 +14227,7 @@
         <v>0.669202430902604</v>
       </c>
       <c r="K181">
-        <v>40.09114883332273</v>
+        <v>-0.09908851166677268</v>
       </c>
       <c r="L181">
         <v>-0.008710673691076235</v>
@@ -14257,13 +14257,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U181">
-        <v>0.9999545776631117</v>
+        <v>-4.542233688831221E-05</v>
       </c>
       <c r="V181">
-        <v>0.9998363338788869</v>
+        <v>-0.0001636661211130708</v>
       </c>
       <c r="W181">
-        <v>0.9989085948158254</v>
+        <v>-0.00109140518417461</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14298,7 +14298,7 @@
         <v>0.6692024309026041</v>
       </c>
       <c r="K182">
-        <v>40.09114883332273</v>
+        <v>-0.09908851166677268</v>
       </c>
       <c r="L182">
         <v>-0.009235706342091176</v>
@@ -14328,13 +14328,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U182">
-        <v>0.9999545755998294</v>
+        <v>-4.542440017063498E-05</v>
       </c>
       <c r="V182">
-        <v>0.9998544951892473</v>
+        <v>-0.0001455048107527057</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14369,7 +14369,7 @@
         <v>0.5497328827698041</v>
       </c>
       <c r="K183">
-        <v>35.47275074832757</v>
+        <v>-0.1452724925167243</v>
       </c>
       <c r="L183">
         <v>-0.01012874274269251</v>
@@ -14399,13 +14399,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U183">
-        <v>0.9998909764872622</v>
+        <v>-0.0001090235127377825</v>
       </c>
       <c r="V183">
-        <v>0.9997817110217744</v>
+        <v>-0.0002182889782256225</v>
       </c>
       <c r="W183">
-        <v>0.9989074023490848</v>
+        <v>-0.001092597650915184</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14440,7 +14440,7 @@
         <v>0.737654225072072</v>
       </c>
       <c r="K184">
-        <v>42.45115135270808</v>
+        <v>-0.07548848647291917</v>
       </c>
       <c r="L184">
         <v>-0.01075412656618523</v>
@@ -14470,13 +14470,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U184">
-        <v>0.9999273097332267</v>
+        <v>-7.269026677325652E-05</v>
       </c>
       <c r="V184">
-        <v>0.9998362475209694</v>
+        <v>-0.0001637524790305545</v>
       </c>
       <c r="W184">
-        <v>1.001093792726278</v>
+        <v>0.001093792726278409</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14511,7 +14511,7 @@
         <v>0.671262369535192</v>
       </c>
       <c r="K185">
-        <v>40.1649903552775</v>
+        <v>-0.09835009644722503</v>
       </c>
       <c r="L185">
         <v>-0.01133697464432191</v>
@@ -14541,13 +14541,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U185">
-        <v>0.9999182175050888</v>
+        <v>-8.178249491119782E-05</v>
       </c>
       <c r="V185">
-        <v>0.9998362207017033</v>
+        <v>-0.0001637792982966957</v>
       </c>
       <c r="W185">
-        <v>0.9994537011745424</v>
+        <v>-0.0005462988254576473</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14582,7 +14582,7 @@
         <v>0.671262369535192</v>
       </c>
       <c r="K186">
-        <v>40.1649903552775</v>
+        <v>-0.09835009644722503</v>
       </c>
       <c r="L186">
         <v>-0.01181576762630959</v>
@@ -14612,13 +14612,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U186">
-        <v>0.9999091231290725</v>
+        <v>-9.087687092745877E-05</v>
       </c>
       <c r="V186">
-        <v>0.9998725952350616</v>
+        <v>-0.0001274047649384435</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14653,7 +14653,7 @@
         <v>0.7211260999701133</v>
       </c>
       <c r="K187">
-        <v>41.89850470471835</v>
+        <v>-0.08101495295281652</v>
       </c>
       <c r="L187">
         <v>-0.01205880391116398</v>
@@ -14683,13 +14683,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U187">
-        <v>0.9999000263566877</v>
+        <v>-9.997364331226777E-05</v>
       </c>
       <c r="V187">
-        <v>0.9999453910004369</v>
+        <v>-5.460899956311049E-05</v>
       </c>
       <c r="W187">
-        <v>1.000273298715496</v>
+        <v>0.0002732987154960842</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14724,7 +14724,7 @@
         <v>0.8785905118698348</v>
       </c>
       <c r="K188">
-        <v>46.76860158286114</v>
+        <v>-0.03231398417138853</v>
       </c>
       <c r="L188">
         <v>-0.01180173852911519</v>
@@ -14754,13 +14754,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U188">
-        <v>0.9998909269392281</v>
+        <v>-0.0001090730607719026</v>
       </c>
       <c r="V188">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W188">
-        <v>1.000819672131148</v>
+        <v>0.0008196721311475308</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14795,7 +14795,7 @@
         <v>0.8785905118698349</v>
       </c>
       <c r="K189">
-        <v>46.76860158286114</v>
+        <v>-0.03231398417138853</v>
       </c>
       <c r="L189">
         <v>-0.01121501462558796</v>
@@ -14825,13 +14825,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U189">
-        <v>0.9999000054542478</v>
+        <v>-9.999454575215783E-05</v>
       </c>
       <c r="V189">
-        <v>0.9999635920120875</v>
+        <v>-3.640798791249011E-05</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14866,7 +14866,7 @@
         <v>0.787043781529741</v>
       </c>
       <c r="K190">
-        <v>44.04166197069988</v>
+        <v>-0.05958338029300114</v>
       </c>
       <c r="L190">
         <v>-0.01062370995998184</v>
@@ -14896,13 +14896,13 @@
         <v>-0.08125000000003979</v>
       </c>
       <c r="U190">
-        <v>0.9998545388426746</v>
+        <v>-0.0001454611573253883</v>
       </c>
       <c r="V190">
-        <v>0.9999453860297463</v>
+        <v>-5.461397025374737E-05</v>
       </c>
       <c r="W190">
-        <v>0.9994539994539995</v>
+        <v>-0.0005460005460005135</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14937,7 +14937,7 @@
         <v>1.006406449356134</v>
       </c>
       <c r="K191">
-        <v>50.15964983959732</v>
+        <v>0.0015964983959732</v>
       </c>
       <c r="L191">
         <v>-0.009631264885224304</v>
@@ -14967,13 +14967,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U191">
-        <v>0.9998454250356886</v>
+        <v>-0.0001545749643113714</v>
       </c>
       <c r="V191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W191">
-        <v>1.001092597650915</v>
+        <v>0.001092597650915073</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15008,7 +15008,7 @@
         <v>0.8578441036984159</v>
       </c>
       <c r="K192">
-        <v>46.17417048021968</v>
+        <v>-0.03825829519780322</v>
       </c>
       <c r="L192">
         <v>-0.008721896908395015</v>
@@ -15038,13 +15038,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U192">
-        <v>0.9998181189865591</v>
+        <v>-0.0001818810134408544</v>
       </c>
       <c r="V192">
-        <v>0.9999817943489659</v>
+        <v>-1.820565103405336E-05</v>
       </c>
       <c r="W192">
-        <v>0.999181446111869</v>
+        <v>-0.0008185538881310128</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15079,7 +15079,7 @@
         <v>0.8578441036984158</v>
       </c>
       <c r="K193">
-        <v>46.17417048021968</v>
+        <v>-0.03825829519780322</v>
       </c>
       <c r="L193">
         <v>-0.007889047071718799</v>
@@ -15109,13 +15109,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U193">
-        <v>0.9998817558348947</v>
+        <v>-0.0001182441651053079</v>
       </c>
       <c r="V193">
-        <v>0.9999453820525425</v>
+        <v>-5.46179474575359E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15150,7 +15150,7 @@
         <v>0.8134914253453024</v>
       </c>
       <c r="K194">
-        <v>44.85774864859962</v>
+        <v>-0.05142251351400373</v>
       </c>
       <c r="L194">
         <v>-0.007226266997252236</v>
@@ -15180,13 +15180,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U194">
-        <v>0.999890838632208</v>
+        <v>-0.0001091613677920433</v>
       </c>
       <c r="V194">
-        <v>0.9999271720923457</v>
+        <v>-7.28279076542826E-05</v>
       </c>
       <c r="W194">
-        <v>0.9997269251774987</v>
+        <v>-0.0002730748225012736</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15221,7 +15221,7 @@
         <v>0.8134914253453024</v>
       </c>
       <c r="K195">
-        <v>44.85774864859962</v>
+        <v>-0.05142251351400373</v>
       </c>
       <c r="L195">
         <v>-0.00668246472151183</v>
@@ -15251,13 +15251,13 @@
         <v>0.046875</v>
       </c>
       <c r="U195">
-        <v>0.9998999244884778</v>
+        <v>-0.0001000755115222463</v>
       </c>
       <c r="V195">
-        <v>0.9999271667880553</v>
+        <v>-7.283321194473391E-05</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15292,7 +15292,7 @@
         <v>0.769413219029326</v>
       </c>
       <c r="K196">
-        <v>43.48408900502137</v>
+        <v>-0.06515910994978624</v>
       </c>
       <c r="L196">
         <v>-0.006320461056819547</v>
@@ -15322,13 +15322,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U196">
-        <v>0.9999090131566974</v>
+        <v>-9.098684330255402E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999817903707482</v>
+        <v>-1.820962925180858E-05</v>
       </c>
       <c r="W196">
-        <v>0.9997268505872712</v>
+        <v>-0.0002731494127288236</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15363,7 +15363,7 @@
         <v>0.997556309249835</v>
       </c>
       <c r="K197">
-        <v>49.93883299462325</v>
+        <v>-0.0006116700537674991</v>
       </c>
       <c r="L197">
         <v>-0.00567112735419348</v>
@@ -15393,13 +15393,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U197">
-        <v>0.9999545024386693</v>
+        <v>-4.549756133065408E-05</v>
       </c>
       <c r="V197">
-        <v>1.000054629882546</v>
+        <v>5.462988254567591E-05</v>
       </c>
       <c r="W197">
-        <v>1.001092896174863</v>
+        <v>0.0010928961748633</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15434,7 +15434,7 @@
         <v>1.057593964571038</v>
       </c>
       <c r="K198">
-        <v>51.39954640134857</v>
+        <v>0.01399546401348561</v>
       </c>
       <c r="L198">
         <v>-0.004768998914562927</v>
@@ -15464,13 +15464,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U198">
-        <v>0.9999636002948374</v>
+        <v>-3.639970516255975E-05</v>
       </c>
       <c r="V198">
-        <v>1.000145671728759</v>
+        <v>0.0001456717287593445</v>
       </c>
       <c r="W198">
-        <v>1.000272925764192</v>
+        <v>0.0002729257641922445</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15505,7 +15505,7 @@
         <v>1.057593964571038</v>
       </c>
       <c r="K199">
-        <v>51.39954640134857</v>
+        <v>0.01399546401348561</v>
       </c>
       <c r="L199">
         <v>-0.003753789268494459</v>
@@ -15535,13 +15535,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U199">
-        <v>0.9999544987123136</v>
+        <v>-4.550128768643358E-05</v>
       </c>
       <c r="V199">
-        <v>1.000072825255799</v>
+        <v>7.282525579865862E-05</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15576,7 +15576,7 @@
         <v>1.190641400185856</v>
       </c>
       <c r="K200">
-        <v>54.35126899751101</v>
+        <v>0.04351268997511004</v>
       </c>
       <c r="L200">
         <v>-0.002522262436910035</v>
@@ -15606,13 +15606,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U200">
-        <v>0.9999908993283706</v>
+        <v>-9.100671629402868E-06</v>
       </c>
       <c r="V200">
-        <v>1.000145639905334</v>
+        <v>0.0001456399053341162</v>
       </c>
       <c r="W200">
-        <v>1.000545702592087</v>
+        <v>0.0005457025920871938</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15647,7 +15647,7 @@
         <v>1.04437653696531</v>
       </c>
       <c r="K201">
-        <v>51.08533179096213</v>
+        <v>0.0108533179096213</v>
       </c>
       <c r="L201">
         <v>-0.001427762762148447</v>
@@ -15677,13 +15677,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U201">
-        <v>0.9999908992455473</v>
+        <v>-9.100754452706639E-06</v>
       </c>
       <c r="V201">
-        <v>1.000109214023081</v>
+        <v>0.0001092140230807281</v>
       </c>
       <c r="W201">
-        <v>0.9994545950368149</v>
+        <v>-0.0005454049631851143</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15718,7 +15718,7 @@
         <v>1.173687523373418</v>
       </c>
       <c r="K202">
-        <v>53.99522749948592</v>
+        <v>0.0399522749948592</v>
       </c>
       <c r="L202">
         <v>-0.0002820232944148866</v>
@@ -15748,13 +15748,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U202">
-        <v>1.000036403349108</v>
+        <v>3.640334910803844E-05</v>
       </c>
       <c r="V202">
-        <v>1.000127402446127</v>
+        <v>0.0001274024461270784</v>
       </c>
       <c r="W202">
-        <v>1.000545702592087</v>
+        <v>0.0005457025920871938</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15789,7 +15789,7 @@
         <v>1.241745937272442</v>
       </c>
       <c r="K203">
-        <v>55.39191201940076</v>
+        <v>0.05391912019400757</v>
       </c>
       <c r="L203">
         <v>0.0009221680445439231</v>
@@ -15819,13 +15819,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U203">
-        <v>1.000045502529941</v>
+        <v>4.550252994084403E-05</v>
       </c>
       <c r="V203">
-        <v>1.000090990154865</v>
+        <v>9.099015486513373E-05</v>
       </c>
       <c r="W203">
-        <v>1.000272702481593</v>
+        <v>0.0002727024815927237</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15860,7 +15860,7 @@
         <v>1.313386372955584</v>
       </c>
       <c r="K204">
-        <v>56.77332538609193</v>
+        <v>0.06773325386091933</v>
       </c>
       <c r="L204">
         <v>0.002181051978971742</v>
@@ -15890,13 +15890,13 @@
         <v>0.109375</v>
       </c>
       <c r="U204">
-        <v>1.000036400367644</v>
+        <v>3.640036764362975E-05</v>
       </c>
       <c r="V204">
-        <v>1.000109178251692</v>
+        <v>0.0001091782516922102</v>
       </c>
       <c r="W204">
-        <v>1.000272628135223</v>
+        <v>0.0002726281352234405</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15931,7 +15931,7 @@
         <v>1.141259384469495</v>
       </c>
       <c r="K205">
-        <v>53.2985117425298</v>
+        <v>0.03298511742529797</v>
       </c>
       <c r="L205">
         <v>0.003186045639784646</v>
@@ -15961,13 +15961,13 @@
         <v>0.1156250000000227</v>
       </c>
       <c r="U205">
-        <v>1.000027299282029</v>
+        <v>2.729928202893639E-05</v>
       </c>
       <c r="V205">
-        <v>1.000109166333103</v>
+        <v>0.0001091663331027615</v>
       </c>
       <c r="W205">
-        <v>0.9994548923412374</v>
+        <v>-0.0005451076587625892</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16002,7 +16002,7 @@
         <v>1.067618506611588</v>
       </c>
       <c r="K206">
-        <v>51.63517850114432</v>
+        <v>0.01635178501144319</v>
       </c>
       <c r="L206">
         <v>0.003862140868121059</v>
@@ -16032,13 +16032,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U206">
-        <v>1.000009099512266</v>
+        <v>9.099512266130816E-06</v>
       </c>
       <c r="V206">
-        <v>1.000018192402853</v>
+        <v>1.819240285261259E-05</v>
       </c>
       <c r="W206">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16073,7 +16073,7 @@
         <v>0.9997157326099827</v>
       </c>
       <c r="K207">
-        <v>49.99289230500661</v>
+        <v>-7.107694993385705E-05</v>
       </c>
       <c r="L207">
         <v>0.0041824193161812</v>
@@ -16103,13 +16103,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U207">
-        <v>1.000018198858932</v>
+        <v>1.819885893161732E-05</v>
       </c>
       <c r="V207">
-        <v>1.000054576215685</v>
+        <v>5.45762156851648E-05</v>
       </c>
       <c r="W207">
-        <v>0.9997272231314784</v>
+        <v>-0.0002727768685215626</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16144,7 +16144,7 @@
         <v>0.9997157326099828</v>
       </c>
       <c r="K208">
-        <v>49.99289230500662</v>
+        <v>-7.107694993380154E-05</v>
       </c>
       <c r="L208">
         <v>0.004251502434625599</v>
@@ -16174,13 +16174,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V208">
-        <v>1.000054573237285</v>
+        <v>5.457323728452756E-05</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16215,7 +16215,7 @@
         <v>0.9339007265068546</v>
       </c>
       <c r="K209">
-        <v>48.29103757532222</v>
+        <v>-0.01708962424677779</v>
       </c>
       <c r="L209">
         <v>0.004049144103513333</v>
@@ -16245,13 +16245,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U209">
-        <v>0.9999909007361306</v>
+        <v>-9.099263869383201E-06</v>
       </c>
       <c r="V209">
-        <v>1.000054570259209</v>
+        <v>5.457025920851954E-05</v>
       </c>
       <c r="W209">
-        <v>0.9997271487039563</v>
+        <v>-0.0002728512960437079</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16286,7 +16286,7 @@
         <v>0.9339007265068546</v>
       </c>
       <c r="K210">
-        <v>48.29103757532222</v>
+        <v>-0.01708962424677779</v>
       </c>
       <c r="L210">
         <v>0.003680515627911652</v>
@@ -16316,13 +16316,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U210">
-        <v>0.9999909006533331</v>
+        <v>-9.099346666929797E-06</v>
       </c>
       <c r="V210">
-        <v>1.000054567281458</v>
+        <v>5.456728145825096E-05</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16357,7 +16357,7 @@
         <v>0.9339007265068547</v>
       </c>
       <c r="K211">
-        <v>48.29103757532222</v>
+        <v>-0.01708962424677779</v>
       </c>
       <c r="L211">
         <v>0.003221264401658234</v>
@@ -16387,13 +16387,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U211">
-        <v>1.000027298288397</v>
+        <v>2.729828839709292E-05</v>
       </c>
       <c r="V211">
-        <v>1.000072752405376</v>
+        <v>7.275240537629735E-05</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16428,7 +16428,7 @@
         <v>0.9339007265068546</v>
       </c>
       <c r="K212">
-        <v>48.29103757532222</v>
+        <v>-0.01708962424677779</v>
       </c>
       <c r="L212">
         <v>0.002724660426371674</v>
@@ -16458,13 +16458,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U212">
-        <v>1.000027297543221</v>
+        <v>2.729754322117195E-05</v>
       </c>
       <c r="V212">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16499,7 +16499,7 @@
         <v>0.9339007265068546</v>
       </c>
       <c r="K213">
-        <v>48.29103757532222</v>
+        <v>-0.01708962424677779</v>
       </c>
       <c r="L213">
         <v>0.002227159324773155</v>
@@ -16529,13 +16529,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U213">
-        <v>1.000063692528866</v>
+        <v>6.36925288663992E-05</v>
       </c>
       <c r="V213">
-        <v>0.9999818132217879</v>
+        <v>-1.818677821208148E-05</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16570,7 +16570,7 @@
         <v>1.018981292972768</v>
       </c>
       <c r="K214">
-        <v>50.47007104619625</v>
+        <v>0.004700710461962521</v>
       </c>
       <c r="L214">
         <v>0.001852084434011795</v>
@@ -16600,13 +16600,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U214">
-        <v>1.000036393412792</v>
+        <v>3.639341279226826E-05</v>
       </c>
       <c r="V214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W214">
-        <v>1.000272925764192</v>
+        <v>0.0002729257641922445</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16641,7 +16641,7 @@
         <v>1.198098275006218</v>
       </c>
       <c r="K215">
-        <v>54.50612871268591</v>
+        <v>0.04506128712685908</v>
       </c>
       <c r="L215">
         <v>0.001767073074323111</v>
@@ -16671,13 +16671,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U215">
-        <v>1.00007278417672</v>
+        <v>7.278417672007542E-05</v>
       </c>
       <c r="V215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W215">
-        <v>1.000545702592087</v>
+        <v>0.0005457025920871938</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16712,7 +16712,7 @@
         <v>1.480914562427481</v>
       </c>
       <c r="K216">
-        <v>59.69228383981358</v>
+        <v>0.09692283839813576</v>
       </c>
       <c r="L216">
         <v>0.00215486579281088</v>
@@ -16742,13 +16742,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U216">
-        <v>1.000100070959407</v>
+        <v>0.00010007095940745</v>
       </c>
       <c r="V216">
-        <v>1.000090935544886</v>
+        <v>9.093554488570632E-05</v>
       </c>
       <c r="W216">
-        <v>1.000818107444778</v>
+        <v>0.000818107444777727</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16783,7 +16783,7 @@
         <v>1.347224387163917</v>
       </c>
       <c r="K217">
-        <v>57.39648899915056</v>
+        <v>0.07396488999150563</v>
       </c>
       <c r="L217">
         <v>0.002697136765896818</v>
@@ -16813,13 +16813,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U217">
-        <v>1.000081868046901</v>
+        <v>8.186804690124561E-05</v>
       </c>
       <c r="V217">
-        <v>1.000036370910546</v>
+        <v>3.63709105457577E-05</v>
       </c>
       <c r="W217">
-        <v>0.9997275204359672</v>
+        <v>-0.0002724795640327571</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16854,7 +16854,7 @@
         <v>1.442251138772571</v>
       </c>
       <c r="K218">
-        <v>59.05416997767966</v>
+        <v>0.0905416997767966</v>
       </c>
       <c r="L218">
         <v>0.00338795165688965</v>
@@ -16884,13 +16884,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U218">
-        <v>1.000063669935057</v>
+        <v>6.366993505668717E-05</v>
       </c>
       <c r="V218">
-        <v>1.000036369587751</v>
+        <v>3.636958775077304E-05</v>
       </c>
       <c r="W218">
-        <v>1.000272553829381</v>
+        <v>0.0002725538293812946</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16925,7 +16925,7 @@
         <v>1.442251138772572</v>
       </c>
       <c r="K219">
-        <v>59.05416997767966</v>
+        <v>0.0905416997767966</v>
       </c>
       <c r="L219">
         <v>0.004112354295167304</v>
@@ -16955,13 +16955,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U219">
-        <v>1.000063665881454</v>
+        <v>6.366588145412244E-05</v>
       </c>
       <c r="V219">
-        <v>1.000018184132526</v>
+        <v>1.818413252618889E-05</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16996,7 +16996,7 @@
         <v>1.096036792000263</v>
       </c>
       <c r="K220">
-        <v>52.29091379423292</v>
+        <v>0.02290913794232918</v>
       </c>
       <c r="L220">
         <v>0.004497848763329568</v>
@@ -17026,13 +17026,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U220">
-        <v>1.000054567281458</v>
+        <v>5.456728145802892E-05</v>
       </c>
       <c r="V220">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W220">
-        <v>0.9991825613079018</v>
+        <v>-0.0008174386920981602</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17067,7 +17067,7 @@
         <v>1.010890918520999</v>
       </c>
       <c r="K221">
-        <v>50.2707983416875</v>
+        <v>0.002707983416874948</v>
       </c>
       <c r="L221">
         <v>0.004537729005527714</v>
@@ -17097,13 +17097,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U221">
-        <v>1.000009094050672</v>
+        <v>9.094050672064924E-06</v>
       </c>
       <c r="V221">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W221">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17138,7 +17138,7 @@
         <v>0.934475208778636</v>
       </c>
       <c r="K222">
-        <v>48.30639361714193</v>
+        <v>-0.01693606382858071</v>
       </c>
       <c r="L222">
         <v>0.0042498372151147</v>
@@ -17168,13 +17168,13 @@
         <v>0.09062499999998863</v>
       </c>
       <c r="U222">
-        <v>1.000027281903913</v>
+        <v>2.728190391310115E-05</v>
       </c>
       <c r="V222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W222">
-        <v>0.9997272231314784</v>
+        <v>-0.0002727768685215626</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17209,7 +17209,7 @@
         <v>0.8655986675431813</v>
       </c>
       <c r="K223">
-        <v>46.39790339704164</v>
+        <v>-0.0360209660295836</v>
       </c>
       <c r="L223">
         <v>0.003666935227893518</v>
@@ -17239,13 +17239,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U223">
-        <v>1.000018187439754</v>
+        <v>1.818743975423587E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999818161981308</v>
+        <v>-1.818380186924262E-05</v>
       </c>
       <c r="W223">
-        <v>0.9997271487039563</v>
+        <v>-0.0002728512960437079</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17280,7 +17280,7 @@
         <v>0.9431840562961589</v>
       </c>
       <c r="K224">
-        <v>48.53807096863135</v>
+        <v>-0.01461929031368653</v>
       </c>
       <c r="L224">
         <v>0.003028479249530747</v>
@@ -17310,13 +17310,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U224">
-        <v>1.000036374217954</v>
+        <v>3.637421795432694E-05</v>
       </c>
       <c r="V224">
-        <v>1.000018184132526</v>
+        <v>1.818413252618889E-05</v>
       </c>
       <c r="W224">
-        <v>1.000272925764192</v>
+        <v>0.0002729257641922445</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17351,7 +17351,7 @@
         <v>1.106521716828697</v>
       </c>
       <c r="K225">
-        <v>52.52837927037994</v>
+        <v>0.02528379270379932</v>
       </c>
       <c r="L225">
         <v>0.002584710819960128</v>
@@ -17381,13 +17381,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U225">
-        <v>1.000054559342378</v>
+        <v>5.455934237774684E-05</v>
       </c>
       <c r="V225">
-        <v>1.000054551405608</v>
+        <v>5.455140560761684E-05</v>
       </c>
       <c r="W225">
-        <v>1.000545702592087</v>
+        <v>0.0005457025920871938</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17422,7 +17422,7 @@
         <v>1.106521716828696</v>
       </c>
       <c r="K226">
-        <v>52.52837927037994</v>
+        <v>0.02528379270379932</v>
       </c>
       <c r="L226">
         <v>0.002277745171245307</v>
@@ -17452,13 +17452,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U226">
-        <v>1.000063649093455</v>
+        <v>6.364909345513148E-05</v>
       </c>
       <c r="V226">
-        <v>1.000054548429914</v>
+        <v>5.454842991436948E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17493,7 +17493,7 @@
         <v>1.28750527420547</v>
       </c>
       <c r="K227">
-        <v>56.28425379926895</v>
+        <v>0.06284253799268946</v>
       </c>
       <c r="L227">
         <v>0.002263582942319071</v>
@@ -17523,13 +17523,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U227">
-        <v>1.000045460744647</v>
+        <v>4.546074464695238E-05</v>
       </c>
       <c r="V227">
-        <v>1.000090909090909</v>
+        <v>9.090909090891941E-05</v>
       </c>
       <c r="W227">
-        <v>1.000545404963185</v>
+        <v>0.0005454049631852254</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17564,7 +17564,7 @@
         <v>1.382759778088009</v>
       </c>
       <c r="K228">
-        <v>58.03185830161917</v>
+        <v>0.08031858301619177</v>
       </c>
       <c r="L228">
         <v>0.002518779176104858</v>
@@ -17594,13 +17594,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U228">
-        <v>1.000045458678062</v>
+        <v>4.545867806160508E-05</v>
       </c>
       <c r="V228">
-        <v>1.000109080992637</v>
+        <v>0.0001090809926369563</v>
       </c>
       <c r="W228">
-        <v>1.000272553829381</v>
+        <v>0.0002725538293812946</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17635,7 +17635,7 @@
         <v>1.583295575735403</v>
       </c>
       <c r="K229">
-        <v>61.28975679775537</v>
+        <v>0.1128975679775537</v>
       </c>
       <c r="L229">
         <v>0.003110355125203398</v>
@@ -17665,13 +17665,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U229">
-        <v>1.00006363925633</v>
+        <v>6.363925633001699E-05</v>
       </c>
       <c r="V229">
-        <v>1.000127247277817</v>
+        <v>0.0001272472778170997</v>
       </c>
       <c r="W229">
-        <v>1.000544959128065</v>
+        <v>0.0005449591280652921</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17706,7 +17706,7 @@
         <v>1.202531461325404</v>
       </c>
       <c r="K230">
-        <v>54.59769735147229</v>
+        <v>0.04597697351472296</v>
       </c>
       <c r="L230">
         <v>0.003558673352608143</v>
@@ -17736,13 +17736,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U230">
-        <v>1.000018181487609</v>
+        <v>1.818148760923677E-05</v>
       </c>
       <c r="V230">
-        <v>1.000036351739431</v>
+        <v>3.635173943083991E-05</v>
       </c>
       <c r="W230">
-        <v>0.9991830065359477</v>
+        <v>-0.0008169934640522847</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17777,7 +17777,7 @@
         <v>1.028891825865476</v>
       </c>
       <c r="K231">
-        <v>50.71201001199637</v>
+        <v>0.007120100119963668</v>
       </c>
       <c r="L231">
         <v>0.00368001791487219</v>
@@ -17807,13 +17807,13 @@
         <v>0.015625</v>
       </c>
       <c r="U231">
-        <v>1.000018181157049</v>
+        <v>1.818115704876888E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999454743729552</v>
+        <v>-5.452562704477693E-05</v>
       </c>
       <c r="W231">
-        <v>0.9994548923412374</v>
+        <v>-0.0005451076587625892</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17848,7 +17848,7 @@
         <v>1.104889240286811</v>
       </c>
       <c r="K232">
-        <v>52.49156198528809</v>
+        <v>0.02491561985288082</v>
       </c>
       <c r="L232">
         <v>0.003681472360678211</v>
@@ -17878,13 +17878,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U232">
-        <v>1.00000909041325</v>
+        <v>9.090413250145701E-06</v>
       </c>
       <c r="V232">
-        <v>0.9999818237999165</v>
+        <v>-1.817620008348619E-05</v>
       </c>
       <c r="W232">
-        <v>1.000272702481593</v>
+        <v>0.0002727024815927237</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17919,7 +17919,7 @@
         <v>1.104889240286811</v>
       </c>
       <c r="K233">
-        <v>52.49156198528809</v>
+        <v>0.02491561985288082</v>
       </c>
       <c r="L233">
         <v>0.003596798512158037</v>
@@ -17949,13 +17949,13 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="U233">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V233">
-        <v>0.9999636469390722</v>
+        <v>-3.635306092775181E-05</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17990,7 +17990,7 @@
         <v>1.104889240286811</v>
       </c>
       <c r="K234">
-        <v>52.4915619852881</v>
+        <v>0.02491561985288104</v>
       </c>
       <c r="L234">
         <v>0.003452247280345047</v>
@@ -18020,13 +18020,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U234">
-        <v>0.9999909096693849</v>
+        <v>-9.090330615135755E-06</v>
       </c>
       <c r="V234">
-        <v>0.9999636456174792</v>
+        <v>-3.635438252080903E-05</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18061,7 +18061,7 @@
         <v>1.014926515669747</v>
       </c>
       <c r="K235">
-        <v>50.37039851214588</v>
+        <v>0.003703985121458753</v>
       </c>
       <c r="L235">
         <v>0.003168757476405634</v>
@@ -18091,13 +18091,13 @@
         <v>0.05937499999996021</v>
       </c>
       <c r="U235">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V235">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W235">
-        <v>0.9997273718647763</v>
+        <v>-0.0002726281352236626</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18132,7 +18132,7 @@
         <v>0.8073404425319913</v>
       </c>
       <c r="K236">
-        <v>44.67008116085472</v>
+        <v>-0.05329918839145281</v>
       </c>
       <c r="L236">
         <v>0.002509724761257425</v>
@@ -18162,13 +18162,13 @@
         <v>0.03125</v>
       </c>
       <c r="U236">
-        <v>0.9999818191734999</v>
+        <v>-1.818082650006936E-05</v>
       </c>
       <c r="V236">
-        <v>0.99996364429579</v>
+        <v>-3.635570421001155E-05</v>
       </c>
       <c r="W236">
-        <v>0.9991818925552223</v>
+        <v>-0.000818107444777727</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18203,7 +18203,7 @@
         <v>0.8073404425319913</v>
       </c>
       <c r="K237">
-        <v>44.67008116085472</v>
+        <v>-0.05329918839145281</v>
       </c>
       <c r="L237">
         <v>0.001656070952973225</v>
@@ -18233,13 +18233,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U237">
-        <v>0.9999909094214754</v>
+        <v>-9.090578524606485E-06</v>
       </c>
       <c r="V237">
-        <v>0.9999818214870022</v>
+        <v>-1.817851299779072E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18274,7 +18274,7 @@
         <v>0.750635095206349</v>
       </c>
       <c r="K238">
-        <v>42.8778731365414</v>
+        <v>-0.07122126863458605</v>
       </c>
       <c r="L238">
         <v>0.0006335928133685566</v>
@@ -18304,13 +18304,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U238">
-        <v>0.9999818186776724</v>
+        <v>-1.818132232755953E-05</v>
       </c>
       <c r="V238">
-        <v>0.999981821156538</v>
+        <v>-1.817884346200227E-05</v>
       </c>
       <c r="W238">
-        <v>0.999727074235808</v>
+        <v>-0.0002729257641920224</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18345,7 +18345,7 @@
         <v>0.9724368388535737</v>
       </c>
       <c r="K239">
-        <v>49.30129166613906</v>
+        <v>-0.006987083338609368</v>
       </c>
       <c r="L239">
         <v>-0.0001304208897265353</v>
@@ -18375,13 +18375,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U239">
-        <v>1.000018181652894</v>
+        <v>1.81816528939116E-05</v>
       </c>
       <c r="V239">
-        <v>1.000018179173938</v>
+        <v>1.817917393842627E-05</v>
       </c>
       <c r="W239">
-        <v>1.000819000819001</v>
+        <v>0.0008190008190007703</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18416,7 +18416,7 @@
         <v>1.283737531691755</v>
       </c>
       <c r="K240">
-        <v>56.21213094224464</v>
+        <v>0.06212130942244642</v>
       </c>
       <c r="L240">
         <v>-0.000291510033448409</v>
@@ -18446,13 +18446,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U240">
-        <v>1.000054543966983</v>
+        <v>5.454396698278963E-05</v>
       </c>
       <c r="V240">
-        <v>1.000054536530386</v>
+        <v>5.453653038611783E-05</v>
       </c>
       <c r="W240">
-        <v>1.001091107474086</v>
+        <v>0.001091107474086028</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18487,7 +18487,7 @@
         <v>1.283737531691755</v>
       </c>
       <c r="K241">
-        <v>56.21213094224463</v>
+        <v>0.06212130942244631</v>
       </c>
       <c r="L241">
         <v>-7.600690523154008E-05</v>
@@ -18517,13 +18517,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U241">
-        <v>1.000054540992101</v>
+        <v>5.45409921006712E-05</v>
       </c>
       <c r="V241">
-        <v>1.000054533556315</v>
+        <v>5.453355631490631E-05</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18558,7 +18558,7 @@
         <v>1.181825331036497</v>
       </c>
       <c r="K242">
-        <v>54.16681684940653</v>
+        <v>0.04166816849406529</v>
       </c>
       <c r="L242">
         <v>0.0002548925236698086</v>
@@ -18588,13 +18588,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U242">
-        <v>1.000045448347953</v>
+        <v>4.544834795261465E-05</v>
       </c>
       <c r="V242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W242">
-        <v>0.9997275204359672</v>
+        <v>-0.0002724795640327571</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18629,7 +18629,7 @@
         <v>0.9449340443935748</v>
       </c>
       <c r="K243">
-        <v>48.58437473072269</v>
+        <v>-0.01415625269277315</v>
       </c>
       <c r="L243">
         <v>0.0003357892209042737</v>
@@ -18659,13 +18659,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U243">
-        <v>1.000018178512998</v>
+        <v>1.817851299756867E-05</v>
       </c>
       <c r="V243">
-        <v>0.9999272925565755</v>
+        <v>-7.2707443424469E-05</v>
       </c>
       <c r="W243">
-        <v>0.9991823385118562</v>
+        <v>-0.0008176614881437727</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18700,7 +18700,7 @@
         <v>0.9449340443935745</v>
       </c>
       <c r="K244">
-        <v>48.58437473072269</v>
+        <v>-0.01415625269277315</v>
       </c>
       <c r="L244">
         <v>0.0002588506200350502</v>
@@ -18730,13 +18730,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U244">
-        <v>1.000009089091273</v>
+        <v>9.089091272729277E-06</v>
       </c>
       <c r="V244">
-        <v>0.9998909309047281</v>
+        <v>-0.0001090690952718631</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18771,7 +18771,7 @@
         <v>1.093000719002633</v>
       </c>
       <c r="K245">
-        <v>52.22170776527374</v>
+        <v>0.02221707765273739</v>
       </c>
       <c r="L245">
         <v>0.0002888492836681758</v>
@@ -18801,13 +18801,13 @@
         <v>0.009375000000034106</v>
       </c>
       <c r="U245">
-        <v>1.000009089008662</v>
+        <v>9.089008661700149E-06</v>
       </c>
       <c r="V245">
-        <v>0.9999818198345605</v>
+        <v>-1.818016543952972E-05</v>
       </c>
       <c r="W245">
-        <v>1.000545553737043</v>
+        <v>0.0005455537370431252</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18842,7 +18842,7 @@
         <v>1.248860376485853</v>
       </c>
       <c r="K246">
-        <v>55.53303306616862</v>
+        <v>0.05533033066168624</v>
       </c>
       <c r="L246">
         <v>0.0005792650020207711</v>
@@ -18872,13 +18872,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V246">
-        <v>1.000054541487892</v>
+        <v>5.454148789163504E-05</v>
       </c>
       <c r="W246">
-        <v>1.000545256270447</v>
+        <v>0.0005452562704471031</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18913,7 +18913,7 @@
         <v>1.154181272386993</v>
       </c>
       <c r="K247">
-        <v>53.57865130393944</v>
+        <v>0.0357865130393944</v>
       </c>
       <c r="L247">
         <v>0.000907530349616547</v>
@@ -18943,13 +18943,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V247">
-        <v>1.000018179504427</v>
+        <v>1.817950442695171E-05</v>
       </c>
       <c r="W247">
-        <v>0.9997275204359672</v>
+        <v>-0.0002724795640327571</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18984,7 +18984,7 @@
         <v>1.154181272386993</v>
       </c>
       <c r="K248">
-        <v>53.57865130393944</v>
+        <v>0.0357865130393944</v>
       </c>
       <c r="L248">
         <v>0.001234497721790889</v>
@@ -19014,13 +19014,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U248">
-        <v>0.9999909110739477</v>
+        <v>-9.088926052336355E-06</v>
       </c>
       <c r="V248">
-        <v>1.000018179173938</v>
+        <v>1.817917393820423E-05</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19055,7 +19055,7 @@
         <v>1.064740257699154</v>
       </c>
       <c r="K249">
-        <v>51.56775791671</v>
+        <v>0.0156775791671</v>
       </c>
       <c r="L249">
         <v>0.001436046356789542</v>
@@ -19085,13 +19085,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U249">
-        <v>0.9999818219826762</v>
+        <v>-1.817801732384439E-05</v>
       </c>
       <c r="V249">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W249">
-        <v>0.9997274461706188</v>
+        <v>-0.0002725538293811836</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19126,7 +19126,7 @@
         <v>0.9153990845890614</v>
       </c>
       <c r="K250">
-        <v>47.79155905180227</v>
+        <v>-0.02208440948197732</v>
       </c>
       <c r="L250">
         <v>0.001344951693942661</v>
@@ -19156,13 +19156,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U250">
-        <v>0.999990910826115</v>
+        <v>-9.089173884979651E-06</v>
       </c>
       <c r="V250">
-        <v>0.9999818211565379</v>
+        <v>-1.817884346211329E-05</v>
       </c>
       <c r="W250">
-        <v>0.9994547437295529</v>
+        <v>-0.0005452562704471031</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19197,7 +19197,7 @@
         <v>0.9892204854969165</v>
       </c>
       <c r="K251">
-        <v>49.72905179235597</v>
+        <v>-0.002709482076440339</v>
       </c>
       <c r="L251">
         <v>0.001176775851639089</v>
@@ -19227,13 +19227,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U251">
-        <v>1.000009089256499</v>
+        <v>9.089256498562293E-06</v>
       </c>
       <c r="V251">
-        <v>1.000054537521815</v>
+        <v>5.453752181505678E-05</v>
       </c>
       <c r="W251">
-        <v>1.000272776868522</v>
+        <v>0.0002727768685215626</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19268,7 +19268,7 @@
         <v>1.300047436688018</v>
       </c>
       <c r="K252">
-        <v>56.52263583572162</v>
+        <v>0.06522635835721613</v>
       </c>
       <c r="L252">
         <v>0.00136550252583631</v>
@@ -19298,13 +19298,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U252">
-        <v>1.00005453504331</v>
+        <v>5.453504330987791E-05</v>
       </c>
       <c r="V252">
-        <v>1.000127247277817</v>
+        <v>0.0001272472778170997</v>
       </c>
       <c r="W252">
-        <v>1.00109080992637</v>
+        <v>0.001090809926370451</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19339,7 +19339,7 @@
         <v>1.300047436688018</v>
       </c>
       <c r="K253">
-        <v>56.52263583572162</v>
+        <v>0.06522635835721613</v>
       </c>
       <c r="L253">
         <v>0.001753436800530338</v>
@@ -19369,13 +19369,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U253">
-        <v>1.000063620747635</v>
+        <v>6.362074763477388E-05</v>
       </c>
       <c r="V253">
-        <v>1.000145406957723</v>
+        <v>0.0001454069577229156</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19410,7 +19410,7 @@
         <v>1.55835238227613</v>
       </c>
       <c r="K254">
-        <v>60.91234315773522</v>
+        <v>0.1091234315773522</v>
       </c>
       <c r="L254">
         <v>0.002528798504924079</v>
@@ -19440,13 +19440,13 @@
         <v>0.03125</v>
       </c>
       <c r="U254">
-        <v>1.000081792900376</v>
+        <v>8.179290037624298E-05</v>
       </c>
       <c r="V254">
-        <v>1.000145385817613</v>
+        <v>0.0001453858176132528</v>
       </c>
       <c r="W254">
-        <v>1.000817216017434</v>
+        <v>0.0008172160174337861</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19481,7 +19481,7 @@
         <v>1.739619010759085</v>
       </c>
       <c r="K255">
-        <v>63.49857421514522</v>
+        <v>0.1349857421514522</v>
       </c>
       <c r="L255">
         <v>0.003678780800460744</v>
@@ -19511,13 +19511,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U255">
-        <v>1.000081786210845</v>
+        <v>8.17862108448697E-05</v>
       </c>
       <c r="V255">
-        <v>1.000109023512738</v>
+        <v>0.0001090235127376715</v>
       </c>
       <c r="W255">
-        <v>1.000544365813827</v>
+        <v>0.0005443658138271079</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19552,7 +19552,7 @@
         <v>1.352515048438717</v>
       </c>
       <c r="K256">
-        <v>57.49230166822247</v>
+        <v>0.07492301668222479</v>
       </c>
       <c r="L256">
         <v>0.004671104594163994</v>
@@ -19582,13 +19582,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U256">
-        <v>1.000054519681605</v>
+        <v>5.451968160485876E-05</v>
       </c>
       <c r="V256">
-        <v>1.000054505813953</v>
+        <v>5.450581395338716E-05</v>
       </c>
       <c r="W256">
-        <v>0.999183895538629</v>
+        <v>-0.0008161044613710366</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19623,7 +19623,7 @@
         <v>1.169837874181024</v>
       </c>
       <c r="K257">
-        <v>53.91360746814153</v>
+        <v>0.03913607468141533</v>
       </c>
       <c r="L257">
         <v>0.005289055976899419</v>
@@ -19653,13 +19653,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U257">
-        <v>1.000018172236457</v>
+        <v>1.817223645717014E-05</v>
       </c>
       <c r="V257">
-        <v>1.000036335228821</v>
+        <v>3.633522882107165E-05</v>
       </c>
       <c r="W257">
-        <v>0.999455485978764</v>
+        <v>-0.0005445140212360089</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19694,7 +19694,7 @@
         <v>1.092197143379009</v>
       </c>
       <c r="K258">
-        <v>52.20335697500538</v>
+        <v>0.02203356975005377</v>
       </c>
       <c r="L258">
         <v>0.005522278740538906</v>
@@ -19724,13 +19724,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V258">
-        <v>1.00007266781724</v>
+        <v>7.266781724046822E-05</v>
       </c>
       <c r="W258">
-        <v>0.9997275946608553</v>
+        <v>-0.0002724053391447434</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19765,7 +19765,7 @@
         <v>0.9582998637609192</v>
       </c>
       <c r="K259">
-        <v>48.93529747382519</v>
+        <v>-0.0106470252617481</v>
       </c>
       <c r="L259">
         <v>0.005288935245116378</v>
@@ -19795,13 +19795,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U259">
-        <v>0.9999636561875341</v>
+        <v>-3.63438124658666E-05</v>
       </c>
       <c r="V259">
-        <v>1.000036331268506</v>
+        <v>3.63312685061068E-05</v>
       </c>
       <c r="W259">
-        <v>0.9994550408719346</v>
+        <v>-0.0005449591280654031</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19836,7 +19836,7 @@
         <v>0.9582998637609192</v>
       </c>
       <c r="K260">
-        <v>48.93529747382519</v>
+        <v>-0.0106470252617481</v>
       </c>
       <c r="L260">
         <v>0.004768600759214836</v>
@@ -19866,13 +19866,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U260">
-        <v>0.9999909137166534</v>
+        <v>-9.086283346615431E-06</v>
       </c>
       <c r="V260">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19907,7 +19907,7 @@
         <v>1.094138560643923</v>
       </c>
       <c r="K261">
-        <v>52.24766790538867</v>
+        <v>0.02247667905388662</v>
       </c>
       <c r="L261">
         <v>0.00428875054619957</v>
@@ -19937,13 +19937,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U261">
-        <v>1.000027259097724</v>
+        <v>2.725909772371971E-05</v>
       </c>
       <c r="V261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W261">
-        <v>1.000545256270447</v>
+        <v>0.0005452562704471031</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19978,7 +19978,7 @@
         <v>0.9572615486954991</v>
       </c>
       <c r="K262">
-        <v>48.90820796707048</v>
+        <v>-0.01091792032929517</v>
       </c>
       <c r="L262">
         <v>0.003649883810861443</v>
@@ -20008,13 +20008,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V262">
-        <v>0.9999818350257033</v>
+        <v>-1.816497429674158E-05</v>
       </c>
       <c r="W262">
-        <v>0.9994550408719346</v>
+        <v>-0.0005449591280654031</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20049,7 +20049,7 @@
         <v>0.8981268650015076</v>
       </c>
       <c r="K263">
-        <v>47.31648245233568</v>
+        <v>-0.02683517547664321</v>
       </c>
       <c r="L263">
         <v>0.002842878137480837</v>
@@ -20079,13 +20079,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U263">
-        <v>0.9999909138817716</v>
+        <v>-9.086118228363027E-06</v>
       </c>
       <c r="V263">
-        <v>0.9999636693914623</v>
+        <v>-3.633060853769354E-05</v>
       </c>
       <c r="W263">
-        <v>0.9997273718647763</v>
+        <v>-0.0002726281352236626</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20120,7 +20120,7 @@
         <v>0.843290902177504</v>
       </c>
       <c r="K264">
-        <v>45.74920329619776</v>
+        <v>-0.04250796703802245</v>
       </c>
       <c r="L264">
         <v>0.001875860379467226</v>
@@ -20150,13 +20150,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U264">
-        <v>0.9999818275984262</v>
+        <v>-1.817240157375721E-05</v>
       </c>
       <c r="V264">
-        <v>0.9999636680715013</v>
+        <v>-3.633192849872291E-05</v>
       </c>
       <c r="W264">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20191,7 +20191,7 @@
         <v>0.9075602925942281</v>
       </c>
       <c r="K265">
-        <v>47.57701741421613</v>
+        <v>-0.02422982585783873</v>
       </c>
       <c r="L265">
         <v>0.0009659519542114987</v>
@@ -20221,13 +20221,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V265">
-        <v>1.000018166624278</v>
+        <v>1.816662427778226E-05</v>
       </c>
       <c r="W265">
-        <v>1.000272776868522</v>
+        <v>0.0002727768685215626</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20262,7 +20262,7 @@
         <v>0.8500525463065384</v>
       </c>
       <c r="K266">
-        <v>45.94748122174103</v>
+        <v>-0.04052518778258973</v>
       </c>
       <c r="L266">
         <v>4.585654153980035E-05</v>
@@ -20292,13 +20292,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U266">
-        <v>1.000018172731816</v>
+        <v>1.817273181581314E-05</v>
       </c>
       <c r="V266">
-        <v>0.9999818337057423</v>
+        <v>-1.816629425765992E-05</v>
       </c>
       <c r="W266">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20333,7 +20333,7 @@
         <v>0.7968991958567769</v>
       </c>
       <c r="K267">
-        <v>44.34857546234298</v>
+        <v>-0.05651424537657024</v>
       </c>
       <c r="L267">
         <v>-0.0009212009524011229</v>
@@ -20363,13 +20363,13 @@
         <v>-0.1156249999999659</v>
       </c>
       <c r="U267">
-        <v>1.000009086200787</v>
+        <v>9.086200786878607E-06</v>
       </c>
       <c r="V267">
-        <v>0.9998910002543329</v>
+        <v>-0.0001089997456671377</v>
       </c>
       <c r="W267">
-        <v>0.9997272231314784</v>
+        <v>-0.0002727768685215626</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20404,7 +20404,7 @@
         <v>0.7968991958567768</v>
       </c>
       <c r="K268">
-        <v>44.34857546234298</v>
+        <v>-0.05651424537657024</v>
       </c>
       <c r="L268">
         <v>-0.001851753785411161</v>
@@ -20434,13 +20434,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U268">
-        <v>1.000018172236457</v>
+        <v>1.817223645717014E-05</v>
       </c>
       <c r="V268">
-        <v>0.999890988372093</v>
+        <v>-0.0001090116279069964</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20475,7 +20475,7 @@
         <v>0.7968991958567769</v>
       </c>
       <c r="K269">
-        <v>44.34857546234298</v>
+        <v>-0.05651424537657024</v>
       </c>
       <c r="L269">
         <v>-0.002694181855660208</v>
@@ -20505,13 +20505,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U269">
-        <v>0.9999909140468836</v>
+        <v>-9.085953116438894E-06</v>
       </c>
       <c r="V269">
-        <v>0.9998364647308936</v>
+        <v>-0.0001635352691063963</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20546,7 +20546,7 @@
         <v>0.7427308562995582</v>
       </c>
       <c r="K270">
-        <v>42.61879300608941</v>
+        <v>-0.07381206993910588</v>
       </c>
       <c r="L270">
         <v>-0.003519011521221368</v>
@@ -20576,13 +20576,13 @@
         <v>-0.1218750000000171</v>
       </c>
       <c r="U270">
-        <v>0.9999454837859693</v>
+        <v>-5.451621403074203E-05</v>
       </c>
       <c r="V270">
-        <v>0.9997819173103135</v>
+        <v>-0.0002180826896864829</v>
       </c>
       <c r="W270">
-        <v>0.9997271487039563</v>
+        <v>-0.0002728512960437079</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20617,7 +20617,7 @@
         <v>0.8858337859888495</v>
       </c>
       <c r="K271">
-        <v>46.97305735904803</v>
+        <v>-0.03026942640951963</v>
       </c>
       <c r="L271">
         <v>-0.004069346012596768</v>
@@ -20647,13 +20647,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U271">
-        <v>0.9999636538758598</v>
+        <v>-3.634612414016303E-05</v>
       </c>
       <c r="V271">
-        <v>0.9998727573482631</v>
+        <v>-0.0001272426517369141</v>
       </c>
       <c r="W271">
-        <v>1.000545851528384</v>
+        <v>0.0005458515283844889</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20688,7 +20688,7 @@
         <v>0.9611511174042234</v>
       </c>
       <c r="K272">
-        <v>49.00953877926559</v>
+        <v>-0.009904612207344121</v>
       </c>
       <c r="L272">
         <v>-0.004304255715866989</v>
@@ -20718,13 +20718,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U272">
-        <v>0.9999818262773857</v>
+        <v>-1.817372261425643E-05</v>
       </c>
       <c r="V272">
-        <v>0.9999272806602918</v>
+        <v>-7.271933970820488E-05</v>
       </c>
       <c r="W272">
-        <v>1.000272776868522</v>
+        <v>0.0002727768685215626</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20759,7 +20759,7 @@
         <v>0.9611511174042235</v>
       </c>
       <c r="K273">
-        <v>49.0095387792656</v>
+        <v>-0.00990461220734401</v>
       </c>
       <c r="L273">
         <v>-0.004317422334760034</v>
@@ -20789,13 +20789,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U273">
-        <v>1.000009087026452</v>
+        <v>9.087026452192504E-06</v>
       </c>
       <c r="V273">
-        <v>0.9999454565288534</v>
+        <v>-5.454347114663971E-05</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20830,7 +20830,7 @@
         <v>0.8871175173400832</v>
       </c>
       <c r="K274">
-        <v>47.00912948921628</v>
+        <v>-0.02990870510783722</v>
       </c>
       <c r="L274">
         <v>-0.004278944648641509</v>
@@ -20860,13 +20860,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V274">
-        <v>0.9999636357024672</v>
+        <v>-3.636429753284265E-05</v>
       </c>
       <c r="W274">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20901,7 +20901,7 @@
         <v>0.8871175173400832</v>
       </c>
       <c r="K275">
-        <v>47.00912948921628</v>
+        <v>-0.02990870510783722</v>
       </c>
       <c r="L275">
         <v>-0.004196054359940508</v>
@@ -20931,13 +20931,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U275">
-        <v>0.999981826112242</v>
+        <v>-1.817388775804396E-05</v>
       </c>
       <c r="V275">
-        <v>0.9999636343800571</v>
+        <v>-3.636561994291299E-05</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20972,7 +20972,7 @@
         <v>0.9724648558973171</v>
       </c>
       <c r="K276">
-        <v>49.30201179452303</v>
+        <v>-0.006979882054769682</v>
       </c>
       <c r="L276">
         <v>-0.003976990105631319</v>
@@ -21002,13 +21002,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U276">
-        <v>0.9999727386729188</v>
+        <v>-2.726132708119611E-05</v>
       </c>
       <c r="V276">
-        <v>0.999945449586326</v>
+        <v>-5.455041367397051E-05</v>
       </c>
       <c r="W276">
-        <v>1.000272776868522</v>
+        <v>0.0002727768685215626</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21043,7 +21043,7 @@
         <v>0.8923011425226948</v>
       </c>
       <c r="K277">
-        <v>47.15428863151961</v>
+        <v>-0.02845711368480386</v>
       </c>
       <c r="L277">
         <v>-0.003774170764210464</v>
@@ -21073,13 +21073,13 @@
         <v>0</v>
       </c>
       <c r="U277">
-        <v>0.9999727379297183</v>
+        <v>-2.726207028169725E-05</v>
       </c>
       <c r="V277">
-        <v>0.9999636310736107</v>
+        <v>-3.636892638925193E-05</v>
       </c>
       <c r="W277">
-        <v>0.9997272975184075</v>
+        <v>-0.0002727024815925017</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21114,7 +21114,7 @@
         <v>0.7603472305333677</v>
       </c>
       <c r="K278">
-        <v>43.19302563409551</v>
+        <v>-0.06806974365904495</v>
       </c>
       <c r="L278">
         <v>-0.003778939065679022</v>
@@ -21144,13 +21144,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U278">
-        <v>0.9999545619774628</v>
+        <v>-4.543802253720308E-05</v>
       </c>
       <c r="V278">
-        <v>0.9999454446262955</v>
+        <v>-5.455537370446795E-05</v>
       </c>
       <c r="W278">
-        <v>0.9994544462629568</v>
+        <v>-0.0005455537370432362</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21185,7 +21185,7 @@
         <v>0.6164167148487451</v>
       </c>
       <c r="K279">
-        <v>38.13476495177333</v>
+        <v>-0.1186523504822666</v>
       </c>
       <c r="L279">
         <v>-0.00419328678415159</v>
@@ -21215,13 +21215,13 @@
         <v>0</v>
       </c>
       <c r="U279">
-        <v>0.999936383877857</v>
+        <v>-6.361612214300649E-05</v>
       </c>
       <c r="V279">
-        <v>0.9999090694164076</v>
+        <v>-9.093058359244122E-05</v>
       </c>
       <c r="W279">
-        <v>0.9991812227074237</v>
+        <v>-0.0008187772925762893</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21256,7 +21256,7 @@
         <v>0.7492558528107957</v>
       </c>
       <c r="K280">
-        <v>42.83283383656268</v>
+        <v>-0.07167166163437316</v>
       </c>
       <c r="L280">
         <v>-0.004615586127553807</v>
@@ -21286,13 +21286,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U280">
-        <v>0.9999727342131094</v>
+        <v>-2.726578689060677E-05</v>
       </c>
       <c r="V280">
-        <v>0.9999272489178277</v>
+        <v>-7.275108217230652E-05</v>
       </c>
       <c r="W280">
-        <v>1.000546298825457</v>
+        <v>0.0005462988254574253</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21327,7 +21327,7 @@
         <v>0.5855110470154303</v>
       </c>
       <c r="K281">
-        <v>36.92885319957863</v>
+        <v>-0.1307114680042137</v>
       </c>
       <c r="L281">
         <v>-0.005396194308566245</v>
@@ -21357,13 +21357,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U281">
-        <v>0.9999272892524427</v>
+        <v>-7.271074755732521E-05</v>
       </c>
       <c r="V281">
-        <v>0.9998726763432645</v>
+        <v>-0.0001273236567355118</v>
       </c>
       <c r="W281">
-        <v>0.9989079989079989</v>
+        <v>-0.001092001092001138</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21398,7 +21398,7 @@
         <v>0.7005338078135069</v>
       </c>
       <c r="K282">
-        <v>41.19493564872028</v>
+        <v>-0.08805064351279718</v>
       </c>
       <c r="L282">
         <v>-0.006125993318966131</v>
@@ -21428,13 +21428,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U282">
-        <v>0.9999091049565066</v>
+        <v>-9.089504349335531E-05</v>
       </c>
       <c r="V282">
-        <v>0.9999272343599354</v>
+        <v>-7.276564006464259E-05</v>
       </c>
       <c r="W282">
-        <v>1.000546597430992</v>
+        <v>0.0005465974309921684</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21469,7 +21469,7 @@
         <v>0.6248759575092393</v>
       </c>
       <c r="K283">
-        <v>38.45684063582965</v>
+        <v>-0.1154315936417035</v>
       </c>
       <c r="L283">
         <v>-0.006954876704054883</v>
@@ -21499,13 +21499,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U283">
-        <v>0.999890916032616</v>
+        <v>-0.0001090839673839605</v>
       </c>
       <c r="V283">
-        <v>0.9998908435970673</v>
+        <v>-0.0001091564029327419</v>
       </c>
       <c r="W283">
-        <v>0.9994537011745424</v>
+        <v>-0.0005462988254576473</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21540,7 +21540,7 @@
         <v>0.6817182123278293</v>
       </c>
       <c r="K284">
-        <v>40.5370059817689</v>
+        <v>-0.09462994018231102</v>
       </c>
       <c r="L284">
         <v>-0.007666442903922112</v>
@@ -21570,13 +21570,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U284">
-        <v>0.9998727214873404</v>
+        <v>-0.0001272785126595899</v>
       </c>
       <c r="V284">
-        <v>0.9999090264005385</v>
+        <v>-9.097359946153016E-05</v>
       </c>
       <c r="W284">
-        <v>1.000273298715496</v>
+        <v>0.0002732987154960842</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21611,7 +21611,7 @@
         <v>0.6817182123278291</v>
       </c>
       <c r="K285">
-        <v>40.5370059817689</v>
+        <v>-0.09462994018231102</v>
       </c>
       <c r="L285">
         <v>-0.008233753649277174</v>
@@ -21641,13 +21641,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U285">
-        <v>0.9998545203262381</v>
+        <v>-0.0001454796737618835</v>
       </c>
       <c r="V285">
-        <v>0.9999272144988718</v>
+        <v>-7.278550112821414E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21682,7 +21682,7 @@
         <v>0.6817182123278291</v>
       </c>
       <c r="K286">
-        <v>40.5370059817689</v>
+        <v>-0.09462994018231102</v>
       </c>
       <c r="L286">
         <v>-0.008647603598565368</v>
@@ -21712,13 +21712,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U286">
-        <v>0.999881780566544</v>
+        <v>-0.0001182194334560238</v>
       </c>
       <c r="V286">
-        <v>0.9998908138011356</v>
+        <v>-0.0001091861988643528</v>
       </c>
       <c r="W286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21753,7 +21753,7 @@
         <v>0.6019076549829332</v>
       </c>
       <c r="K287">
-        <v>37.57442903219948</v>
+        <v>-0.1242557096780052</v>
       </c>
       <c r="L287">
         <v>-0.009109347216295076</v>
@@ -21783,13 +21783,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U287">
-        <v>0.9998817665890568</v>
+        <v>-0.0001182334109431915</v>
       </c>
       <c r="V287">
-        <v>0.9998362028173116</v>
+        <v>-0.000163797182688441</v>
       </c>
       <c r="W287">
-        <v>0.9994535519125683</v>
+        <v>-0.0005464480874316502</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21824,7 +21824,7 @@
         <v>0.7251420229012535</v>
       </c>
       <c r="K288">
-        <v>42.03375799064634</v>
+        <v>-0.07966242009353663</v>
       </c>
       <c r="L288">
         <v>-0.009338926619121186</v>
@@ -21854,13 +21854,13 @@
         <v>-0.1343749999999773</v>
       </c>
       <c r="U288">
-        <v>0.999909040467896</v>
+        <v>-9.095953210402907E-05</v>
       </c>
       <c r="V288">
-        <v>0.9998725813204216</v>
+        <v>-0.0001274186795784393</v>
       </c>
       <c r="W288">
-        <v>1.000546746856205</v>
+        <v>0.0005467468562054822</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21895,7 +21895,7 @@
         <v>0.7900022165424933</v>
       </c>
       <c r="K289">
-        <v>44.13414739052303</v>
+        <v>-0.05865852609476968</v>
       </c>
       <c r="L289">
         <v>-0.009279888681475201</v>
@@ -21925,13 +21925,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U289">
-        <v>0.9999363225354546</v>
+        <v>-6.367746454538636E-05</v>
       </c>
       <c r="V289">
-        <v>0.9999089750591663</v>
+        <v>-9.102494083368384E-05</v>
       </c>
       <c r="W289">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21966,7 +21966,7 @@
         <v>0.6557005406379599</v>
       </c>
       <c r="K290">
-        <v>39.60260473100475</v>
+        <v>-0.1039739526899525</v>
       </c>
       <c r="L290">
         <v>-0.009314041882080354</v>
@@ -21996,13 +21996,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U290">
-        <v>0.9999090264005387</v>
+        <v>-9.097359946130812E-05</v>
       </c>
       <c r="V290">
-        <v>0.9998543468365954</v>
+        <v>-0.0001456531634046465</v>
       </c>
       <c r="W290">
-        <v>0.9991805517618136</v>
+        <v>-0.0008194482381863599</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22037,7 +22037,7 @@
         <v>0.65570054063796</v>
       </c>
       <c r="K291">
-        <v>39.60260473100475</v>
+        <v>-0.1039739526899525</v>
       </c>
       <c r="L291">
         <v>-0.00936863712962188</v>
@@ -22067,13 +22067,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U291">
-        <v>0.9998908217483077</v>
+        <v>-0.0001091782516923212</v>
       </c>
       <c r="V291">
-        <v>0.9998361163209935</v>
+        <v>-0.000163883679006549</v>
       </c>
       <c r="W291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22108,7 +22108,7 @@
         <v>0.7184896983169875</v>
       </c>
       <c r="K292">
-        <v>41.80936894883015</v>
+        <v>-0.0819063105116985</v>
       </c>
       <c r="L292">
         <v>-0.009298703732002974</v>
@@ -22138,13 +22138,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U292">
-        <v>0.9999181073703367</v>
+        <v>-8.18926296632938E-05</v>
       </c>
       <c r="V292">
-        <v>0.9998725140234576</v>
+        <v>-0.0001274859765424408</v>
       </c>
       <c r="W292">
-        <v>1.000273373428103</v>
+        <v>0.0002733734281026301</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22179,7 +22179,7 @@
         <v>0.9167712488824125</v>
       </c>
       <c r="K293">
-        <v>47.82893365167819</v>
+        <v>-0.0217106634832181</v>
       </c>
       <c r="L293">
         <v>-0.008825767571296543</v>
@@ -22209,13 +22209,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U293">
-        <v>0.9999545003685471</v>
+        <v>-4.549963145294988E-05</v>
       </c>
       <c r="V293">
-        <v>0.9999635707910604</v>
+        <v>-3.642920893964785E-05</v>
       </c>
       <c r="W293">
-        <v>1.000819896146488</v>
+        <v>0.0008198961464882526</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22250,7 +22250,7 @@
         <v>0.8571380353072348</v>
       </c>
       <c r="K294">
-        <v>46.1537063487817</v>
+        <v>-0.03846293651218302</v>
       </c>
       <c r="L294">
         <v>-0.008205999196314127</v>
@@ -22280,13 +22280,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U294">
-        <v>0.9999544982982363</v>
+        <v>-4.550170176365054E-05</v>
       </c>
       <c r="V294">
-        <v>0.9999999999999997</v>
+        <v>-3.33066907387547E-16</v>
       </c>
       <c r="W294">
-        <v>0.9997269251774987</v>
+        <v>-0.0002730748225012736</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22321,7 +22321,7 @@
         <v>0.9256085549050805</v>
       </c>
       <c r="K295">
-        <v>48.06836532520011</v>
+        <v>-0.01931634674799892</v>
       </c>
       <c r="L295">
         <v>-0.007407444559194657</v>
@@ -22351,13 +22351,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U295">
-        <v>0.9999544962277371</v>
+        <v>-4.550377226286706E-05</v>
       </c>
       <c r="V295">
-        <v>0.9999817847319623</v>
+        <v>-1.821526803769125E-05</v>
       </c>
       <c r="W295">
-        <v>1.000273149412729</v>
+        <v>0.0002731494127286016</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22392,7 +22392,7 @@
         <v>0.8089934002404354</v>
       </c>
       <c r="K296">
-        <v>44.7206385679965</v>
+        <v>-0.05279361432003499</v>
       </c>
       <c r="L296">
         <v>-0.006723269007107562</v>
@@ -22422,13 +22422,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U296">
-        <v>0.9999453929884597</v>
+        <v>-5.460701154025305E-05</v>
       </c>
       <c r="V296">
-        <v>1.00001821559984</v>
+        <v>1.821559983961052E-05</v>
       </c>
       <c r="W296">
-        <v>0.9994538503549973</v>
+        <v>-0.0005461496450026582</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22463,7 +22463,7 @@
         <v>0.8753026374084409</v>
       </c>
       <c r="K297">
-        <v>46.67527363039697</v>
+        <v>-0.03324726369603026</v>
       </c>
       <c r="L297">
         <v>-0.006028090809552317</v>
@@ -22493,13 +22493,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U297">
-        <v>0.9999635933375808</v>
+        <v>-3.640666241921942E-05</v>
       </c>
       <c r="V297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W297">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22534,7 +22534,7 @@
         <v>0.818193395403094</v>
       </c>
       <c r="K298">
-        <v>45.00035020871365</v>
+        <v>-0.04999649791286354</v>
       </c>
       <c r="L298">
         <v>-0.005448009663422712</v>
@@ -22564,13 +22564,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U298">
-        <v>0.9999544900151092</v>
+        <v>-4.550998489083469E-05</v>
       </c>
       <c r="V298">
-        <v>1.000018215268038</v>
+        <v>1.821526803791329E-05</v>
       </c>
       <c r="W298">
-        <v>0.9997268505872712</v>
+        <v>-0.0002731494127288236</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22605,7 +22605,7 @@
         <v>0.8181933954030939</v>
       </c>
       <c r="K299">
-        <v>45.00035020871364</v>
+        <v>-0.04999649791286359</v>
       </c>
       <c r="L299">
         <v>-0.00495479279134628</v>
@@ -22635,13 +22635,13 @@
         <v>0.03125</v>
       </c>
       <c r="U299">
-        <v>0.9999544879438563</v>
+        <v>-4.55120561436706E-05</v>
       </c>
       <c r="V299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22676,7 +22676,7 @@
         <v>0.8181933954030939</v>
       </c>
       <c r="K300">
-        <v>45.00035020871364</v>
+        <v>-0.04999649791286359</v>
       </c>
       <c r="L300">
         <v>-0.004527593837203654</v>
@@ -22706,13 +22706,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U300">
-        <v>0.9999635886979319</v>
+        <v>-3.641130206810672E-05</v>
       </c>
       <c r="V300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22747,7 +22747,7 @@
         <v>0.8181933954030938</v>
       </c>
       <c r="K301">
-        <v>45.00035020871364</v>
+        <v>-0.04999649791286359</v>
       </c>
       <c r="L301">
         <v>-0.004151130293388048</v>
@@ -22777,13 +22777,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U301">
-        <v>0.999945381058151</v>
+        <v>-5.461894184899396E-05</v>
       </c>
       <c r="V301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22818,7 +22818,7 @@
         <v>0.8181933954030938</v>
       </c>
       <c r="K302">
-        <v>45.00035020871364</v>
+        <v>-0.04999649791286359</v>
       </c>
       <c r="L302">
         <v>-0.003814280105836875</v>
@@ -22848,13 +22848,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U302">
-        <v>0.9999362744205523</v>
+        <v>-6.372557944767099E-05</v>
       </c>
       <c r="V302">
-        <v>1.000036429872495</v>
+        <v>3.642987249530272E-05</v>
       </c>
       <c r="W302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22889,7 +22889,7 @@
         <v>0.902513305037022</v>
       </c>
       <c r="K303">
-        <v>47.43794971880418</v>
+        <v>-0.02562050281195821</v>
       </c>
       <c r="L303">
         <v>-0.003409555520334489</v>
@@ -22919,13 +22919,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U303">
-        <v>0.9999453745937236</v>
+        <v>-5.462540627643175E-05</v>
       </c>
       <c r="V303">
-        <v>1.000018214272704</v>
+        <v>1.821427270431997E-05</v>
       </c>
       <c r="W303">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22960,7 +22960,7 @@
         <v>1.080028904266294</v>
       </c>
       <c r="K304">
-        <v>51.92374500426771</v>
+        <v>0.01923745004267707</v>
       </c>
       <c r="L304">
         <v>-0.002778166226241826</v>
@@ -22990,13 +22990,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U304">
-        <v>0.9999726858048128</v>
+        <v>-2.731419518720024E-05</v>
       </c>
       <c r="V304">
-        <v>1.000036427881901</v>
+        <v>3.64278819009467E-05</v>
       </c>
       <c r="W304">
-        <v>1.000546298825457</v>
+        <v>0.0005462988254574253</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23031,7 +23031,7 @@
         <v>1.173458167018517</v>
       </c>
       <c r="K305">
-        <v>53.99037279968588</v>
+        <v>0.03990372799685882</v>
       </c>
       <c r="L305">
         <v>-0.001940092120402365</v>
@@ -23061,13 +23061,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U305">
-        <v>0.9999817900391513</v>
+        <v>-1.820996084866966E-05</v>
       </c>
       <c r="V305">
-        <v>1.000109279664876</v>
+        <v>0.0001092796648756167</v>
       </c>
       <c r="W305">
-        <v>1.000273000273</v>
+        <v>0.0002730002730002568</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23102,7 +23102,7 @@
         <v>1.173458167018517</v>
       </c>
       <c r="K306">
-        <v>53.99037279968589</v>
+        <v>0.03990372799685893</v>
       </c>
       <c r="L306">
         <v>-0.001023125137833924</v>
@@ -23132,13 +23132,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U306">
-        <v>0.9999726845613141</v>
+        <v>-2.731543868594866E-05</v>
       </c>
       <c r="V306">
-        <v>1.000109267724135</v>
+        <v>0.0001092677241352202</v>
       </c>
       <c r="W306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23173,7 +23173,7 @@
         <v>0.9721739637955761</v>
       </c>
       <c r="K307">
-        <v>49.2945339327249</v>
+        <v>-0.007054660672750956</v>
       </c>
       <c r="L307">
         <v>-0.0003119895311260789</v>
@@ -23203,13 +23203,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U307">
-        <v>0.999963578420214</v>
+        <v>-3.642157978600569E-05</v>
       </c>
       <c r="V307">
-        <v>1.000054627893002</v>
+        <v>5.462789300203497E-05</v>
       </c>
       <c r="W307">
-        <v>0.9994541484716157</v>
+        <v>-0.0005458515283842669</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23244,7 +23244,7 @@
         <v>1.152732687242923</v>
       </c>
       <c r="K308">
-        <v>53.54741413432368</v>
+        <v>0.03547414134323679</v>
       </c>
       <c r="L308">
         <v>0.0004291776519984869</v>
@@ -23274,13 +23274,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U308">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V308">
-        <v>1.000036416605972</v>
+        <v>3.641660597231144E-05</v>
       </c>
       <c r="W308">
-        <v>1.000546149645003</v>
+        <v>0.0005461496450027692</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23315,7 +23315,7 @@
         <v>1.152732687242923</v>
       </c>
       <c r="K309">
-        <v>53.54741413432369</v>
+        <v>0.0354741413432369</v>
       </c>
       <c r="L309">
         <v>0.001139735306972022</v>
@@ -23345,13 +23345,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U309">
-        <v>1.000027317179775</v>
+        <v>2.73171797746663E-05</v>
       </c>
       <c r="V309">
-        <v>1.000054622919777</v>
+        <v>5.462291977731404E-05</v>
       </c>
       <c r="W309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23386,7 +23386,7 @@
         <v>1.152732687242923</v>
       </c>
       <c r="K310">
-        <v>53.54741413432369</v>
+        <v>0.0354741413432369</v>
       </c>
       <c r="L310">
         <v>0.00178230357355206</v>
@@ -23416,13 +23416,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U310">
-        <v>1.000009105477855</v>
+        <v>9.10547785526461E-06</v>
       </c>
       <c r="V310">
-        <v>1.000036413290851</v>
+        <v>3.641329085102285E-05</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23457,7 +23457,7 @@
         <v>1.152732687242923</v>
       </c>
       <c r="K311">
-        <v>53.54741413432369</v>
+        <v>0.0354741413432369</v>
       </c>
       <c r="L311">
         <v>0.002336227777695279</v>
@@ -23487,13 +23487,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U311">
-        <v>1.000045526974733</v>
+        <v>4.552697473259038E-05</v>
       </c>
       <c r="V311">
-        <v>1.000072823929943</v>
+        <v>7.282392994345521E-05</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23528,7 +23528,7 @@
         <v>1.37441143243045</v>
       </c>
       <c r="K312">
-        <v>57.88429981671715</v>
+        <v>0.07884299816717155</v>
       </c>
       <c r="L312">
         <v>0.002991536812190866</v>
@@ -23558,13 +23558,13 @@
         <v>0.08437499999996589</v>
       </c>
       <c r="U312">
-        <v>1.000045524902121</v>
+        <v>4.552490212139659E-05</v>
       </c>
       <c r="V312">
-        <v>1.000091023283756</v>
+        <v>9.102328375587554E-05</v>
       </c>
       <c r="W312">
-        <v>1.000545851528384</v>
+        <v>0.0005458515283844889</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23599,7 +23599,7 @@
         <v>1.018068160368595</v>
       </c>
       <c r="K313">
-        <v>50.4476598145549</v>
+        <v>0.004476598145549016</v>
       </c>
       <c r="L313">
         <v>0.003357223551898601</v>
@@ -23629,13 +23629,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U313">
-        <v>1.000036418263759</v>
+        <v>3.641826375933022E-05</v>
       </c>
       <c r="V313">
-        <v>1.000054608999563</v>
+        <v>5.460899956299947E-05</v>
       </c>
       <c r="W313">
-        <v>0.9991816693944353</v>
+        <v>-0.0008183306055646877</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23670,7 +23670,7 @@
         <v>1.018068160368595</v>
       </c>
       <c r="K314">
-        <v>50.4476598145549</v>
+        <v>0.004476598145549016</v>
       </c>
       <c r="L314">
         <v>0.003511920944257719</v>
@@ -23700,13 +23700,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U314">
-        <v>1.000027312703138</v>
+        <v>2.731270313827139E-05</v>
       </c>
       <c r="V314">
-        <v>1.000054606017583</v>
+        <v>5.460601758300321E-05</v>
       </c>
       <c r="W314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23741,7 +23741,7 @@
         <v>1.018068160368595</v>
       </c>
       <c r="K315">
-        <v>50.4476598145549</v>
+        <v>0.004476598145549016</v>
       </c>
       <c r="L315">
         <v>0.003516153138769919</v>
@@ -23771,13 +23771,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U315">
-        <v>1.000027311957175</v>
+        <v>2.731195717475821E-05</v>
       </c>
       <c r="V315">
-        <v>1.000054603035929</v>
+        <v>5.460303592896842E-05</v>
       </c>
       <c r="W315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23812,7 +23812,7 @@
         <v>0.847260714287323</v>
       </c>
       <c r="K316">
-        <v>45.86578969250683</v>
+        <v>-0.04134210307493169</v>
       </c>
       <c r="L316">
         <v>0.003217278380205879</v>
@@ -23842,13 +23842,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U316">
-        <v>1.000009103737084</v>
+        <v>9.103737084181773E-06</v>
       </c>
       <c r="V316">
-        <v>1.0000182000182</v>
+        <v>1.820001820007633E-05</v>
       </c>
       <c r="W316">
-        <v>0.9994539994539995</v>
+        <v>-0.0005460005460005135</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23883,7 +23883,7 @@
         <v>0.778515334696357</v>
       </c>
       <c r="K317">
-        <v>43.77332708403505</v>
+        <v>-0.06226672915964954</v>
       </c>
       <c r="L317">
         <v>0.002642693050176976</v>
@@ -23913,13 +23913,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U317">
-        <v>1.000018207308414</v>
+        <v>1.820730841362028E-05</v>
       </c>
       <c r="V317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W317">
-        <v>0.9997268505872712</v>
+        <v>-0.0002731494127288236</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -23954,7 +23954,7 @@
         <v>0.8639241778586929</v>
       </c>
       <c r="K318">
-        <v>46.34974899307242</v>
+        <v>-0.03650251006927574</v>
       </c>
       <c r="L318">
         <v>0.002027530267879506</v>
@@ -23984,13 +23984,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U318">
-        <v>1.000009103488457</v>
+        <v>9.103488456840836E-06</v>
       </c>
       <c r="V318">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W318">
-        <v>1.000273224043716</v>
+        <v>0.0002732240437159916</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24025,7 +24025,7 @@
         <v>1.043732268726718</v>
       </c>
       <c r="K319">
-        <v>51.06991188121631</v>
+        <v>0.01069911881216312</v>
       </c>
       <c r="L319">
         <v>0.001618476330701971</v>
@@ -24055,13 +24055,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U319">
-        <v>1.000018206811168</v>
+        <v>1.820681116804224E-05</v>
       </c>
       <c r="V319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W319">
-        <v>1.000546298825457</v>
+        <v>0.0005462988254574253</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24096,7 +24096,7 @@
         <v>1.043732268726717</v>
       </c>
       <c r="K320">
-        <v>51.06991188121631</v>
+        <v>0.01069911881216312</v>
       </c>
       <c r="L320">
         <v>0.001354452969080529</v>
@@ -24126,13 +24126,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U320">
-        <v>1.000045516199215</v>
+        <v>4.551619921500105E-05</v>
       </c>
       <c r="V320">
-        <v>0.9999818003130347</v>
+        <v>-1.819968696525898E-05</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24167,7 +24167,7 @@
         <v>1.342582281249778</v>
       </c>
       <c r="K321">
-        <v>57.31206506580015</v>
+        <v>0.07312065065800144</v>
       </c>
       <c r="L321">
         <v>0.001488472998048385</v>
@@ -24197,13 +24197,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U321">
-        <v>1.000072822604136</v>
+        <v>7.282260413643549E-05</v>
       </c>
       <c r="V321">
-        <v>1.0000364000364</v>
+        <v>3.640003640015266E-05</v>
       </c>
       <c r="W321">
-        <v>1.000819000819001</v>
+        <v>0.0008190008190007703</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24238,7 +24238,7 @@
         <v>1.215160927432004</v>
       </c>
       <c r="K322">
-        <v>54.85655296568986</v>
+        <v>0.04856552965689864</v>
       </c>
       <c r="L322">
         <v>0.001750231336011334</v>
@@ -24268,13 +24268,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U322">
-        <v>1.000054612976043</v>
+        <v>5.461297604325566E-05</v>
       </c>
       <c r="V322">
-        <v>1.000054598067228</v>
+        <v>5.459806722818428E-05</v>
       </c>
       <c r="W322">
-        <v>0.9997272231314784</v>
+        <v>-0.0002727768685215626</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24309,7 +24309,7 @@
         <v>1.215160927432004</v>
       </c>
       <c r="K323">
-        <v>54.85655296568986</v>
+        <v>0.04856552965689864</v>
       </c>
       <c r="L323">
         <v>0.002066311711326328</v>
@@ -24339,13 +24339,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U323">
-        <v>1.000027304996814</v>
+        <v>2.730499681424803E-05</v>
       </c>
       <c r="V323">
-        <v>1.000018198362147</v>
+        <v>1.819836214744797E-05</v>
       </c>
       <c r="W323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24380,7 +24380,7 @@
         <v>0.9237377750211795</v>
       </c>
       <c r="K324">
-        <v>48.01786329797519</v>
+        <v>-0.01982136702024812</v>
       </c>
       <c r="L324">
         <v>0.002089346784208614</v>
@@ -24410,13 +24410,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U324">
-        <v>1.000009101417091</v>
+        <v>9.101417090873198E-06</v>
       </c>
       <c r="V324">
-        <v>0.9999636039380539</v>
+        <v>-3.639606194605349E-05</v>
       </c>
       <c r="W324">
-        <v>0.999181446111869</v>
+        <v>-0.0008185538881310128</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Mowi 14.01.2021.xlsx
+++ b/data_clean/Mowi 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1409,13 +1412,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W324"/>
+  <dimension ref="A1:X324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,10 +1488,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>183.25</v>
@@ -1545,7 +1551,7 @@
         <v>183.25</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>183.25</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1556,10 +1562,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>183.3</v>
@@ -1616,7 +1625,7 @@
         <v>183.275</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>183.275</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1627,10 +1636,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>183.1</v>
@@ -1687,21 +1699,24 @@
         <v>183.2166666666667</v>
       </c>
       <c r="T4">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>-0.0003182830900740896</v>
       </c>
       <c r="V4">
         <v>-0.0003182830900740896</v>
       </c>
       <c r="W4">
+        <v>-0.0003182830900740896</v>
+      </c>
+      <c r="X4">
         <v>-0.00109110747408625</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>183.1</v>
@@ -1758,21 +1773,24 @@
         <v>183.1875</v>
       </c>
       <c r="T5">
+        <v>183.1666666666667</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>-0.0001591922132265777</v>
       </c>
       <c r="V5">
         <v>-0.0001591922132265777</v>
       </c>
       <c r="W5">
+        <v>-0.0001591922132265777</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>183.4</v>
@@ -1829,21 +1847,24 @@
         <v>183.23</v>
       </c>
       <c r="T6">
+        <v>183.2</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0002320027294437921</v>
       </c>
       <c r="V6">
         <v>0.0002320027294437921</v>
       </c>
       <c r="W6">
+        <v>0.0002320027294437921</v>
+      </c>
+      <c r="X6">
         <v>0.001638448935008308</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>183.7</v>
@@ -1900,21 +1921,24 @@
         <v>183.3083333333333</v>
       </c>
       <c r="T7">
+        <v>183.4</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.0004275136895339759</v>
       </c>
       <c r="V7">
         <v>0.0004275136895339759</v>
       </c>
       <c r="W7">
+        <v>0.0004275136895339759</v>
+      </c>
+      <c r="X7">
         <v>0.001635768811341309</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>183.6</v>
@@ -1971,21 +1995,24 @@
         <v>183.35</v>
       </c>
       <c r="T8">
+        <v>183.5666666666667</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.0002273037232349839</v>
       </c>
       <c r="V8">
         <v>0.0002273037232349839</v>
       </c>
       <c r="W8">
+        <v>0.0002273037232349839</v>
+      </c>
+      <c r="X8">
         <v>-0.0005443658138268859</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>183.15</v>
@@ -2042,21 +2069,24 @@
         <v>183.325</v>
       </c>
       <c r="T9">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-0.0001363512407963619</v>
       </c>
       <c r="V9">
         <v>-0.0001363512407963619</v>
       </c>
       <c r="W9">
+        <v>-0.0001363512407963619</v>
+      </c>
+      <c r="X9">
         <v>-0.002450980392156854</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>183.3</v>
@@ -2113,21 +2143,24 @@
         <v>183.3222222222222</v>
       </c>
       <c r="T10">
+        <v>183.35</v>
+      </c>
+      <c r="U10">
         <v>0.009027777777788515</v>
-      </c>
-      <c r="U10">
-        <v>-1.515220388803584E-05</v>
       </c>
       <c r="V10">
         <v>-1.515220388803584E-05</v>
       </c>
       <c r="W10">
+        <v>-1.515220388803584E-05</v>
+      </c>
+      <c r="X10">
         <v>0.0008190008190007703</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>183</v>
@@ -2184,21 +2217,24 @@
         <v>183.29</v>
       </c>
       <c r="T11">
+        <v>183.15</v>
+      </c>
+      <c r="U11">
         <v>0.003749999999996589</v>
-      </c>
-      <c r="U11">
-        <v>-0.0001757682283773931</v>
       </c>
       <c r="V11">
         <v>-0.0001757682283773931</v>
       </c>
       <c r="W11">
+        <v>-0.0001757682283773931</v>
+      </c>
+      <c r="X11">
         <v>-0.001636661211129375</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>183.2</v>
@@ -2255,21 +2291,24 @@
         <v>183.2818181818182</v>
       </c>
       <c r="T12">
+        <v>183.1666666666667</v>
+      </c>
+      <c r="U12">
         <v>0.02443181818179596</v>
-      </c>
-      <c r="U12">
-        <v>-4.463865012738211E-05</v>
       </c>
       <c r="V12">
         <v>-4.463865012738211E-05</v>
       </c>
       <c r="W12">
+        <v>-4.463865012738211E-05</v>
+      </c>
+      <c r="X12">
         <v>0.0010928961748633</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>183.1</v>
@@ -2326,21 +2365,24 @@
         <v>183.2666666666667</v>
       </c>
       <c r="T13">
+        <v>183.1</v>
+      </c>
+      <c r="U13">
         <v>0.03958333333335418</v>
-      </c>
-      <c r="U13">
-        <v>-8.266785708388458E-05</v>
       </c>
       <c r="V13">
         <v>-8.266785708388458E-05</v>
       </c>
       <c r="W13">
+        <v>-8.266785708388458E-05</v>
+      </c>
+      <c r="X13">
         <v>-0.0005458515283842669</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>182.9</v>
@@ -2397,21 +2439,24 @@
         <v>183.2384615384615</v>
       </c>
       <c r="T14">
+        <v>183.0666666666666</v>
+      </c>
+      <c r="U14">
         <v>0.005288461538441425</v>
-      </c>
-      <c r="U14">
-        <v>-0.0001539021182527245</v>
       </c>
       <c r="V14">
         <v>-0.0001539021182527245</v>
       </c>
       <c r="W14">
+        <v>-0.0001539021182527245</v>
+      </c>
+      <c r="X14">
         <v>-0.001092299290005427</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>183.15</v>
@@ -2468,21 +2513,24 @@
         <v>183.2321428571429</v>
       </c>
       <c r="T15">
+        <v>183.05</v>
+      </c>
+      <c r="U15">
         <v>-0.05714285714284983</v>
-      </c>
-      <c r="U15">
-        <v>-3.448337901124088E-05</v>
       </c>
       <c r="V15">
         <v>-3.448337901124088E-05</v>
       </c>
       <c r="W15">
+        <v>-3.448337901124088E-05</v>
+      </c>
+      <c r="X15">
         <v>0.001366867140514039</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>183.1</v>
@@ -2539,21 +2587,24 @@
         <v>183.2233333333333</v>
       </c>
       <c r="T16">
+        <v>183.05</v>
+      </c>
+      <c r="U16">
         <v>-0.1108333333333462</v>
-      </c>
-      <c r="U16">
-        <v>-4.807848487808908E-05</v>
       </c>
       <c r="V16">
         <v>-4.807848487808908E-05</v>
       </c>
       <c r="W16">
+        <v>-4.807848487808908E-05</v>
+      </c>
+      <c r="X16">
         <v>-0.0002730002730003678</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>183.05</v>
@@ -2610,21 +2661,24 @@
         <v>183.21</v>
       </c>
       <c r="T17">
+        <v>183.1</v>
+      </c>
+      <c r="U17">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-5.912638492178157E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-7.277093528834655E-05</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.0002730748225012736</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>183</v>
@@ -2681,21 +2735,24 @@
         <v>183.19</v>
       </c>
       <c r="T18">
+        <v>183.05</v>
+      </c>
+      <c r="U18">
         <v>-0.1343750000000057</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-6.822678583606745E-05</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-0.0001091643469243175</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.0002731494127288236</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>183.3</v>
@@ -2752,21 +2809,24 @@
         <v>183.2033333333333</v>
       </c>
       <c r="T19">
+        <v>183.1166666666667</v>
+      </c>
+      <c r="U19">
         <v>-0.09687499999998295</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>3.032508491007668E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>7.278417671985338E-05</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.001639344262295062</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>183.25</v>
@@ -2823,21 +2883,24 @@
         <v>183.2133333333333</v>
       </c>
       <c r="T20">
+        <v>183.1833333333334</v>
+      </c>
+      <c r="U20">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1.27680696115906E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>5.458415967685148E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-0.0002727768685215626</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>183.4</v>
@@ -2894,21 +2957,24 @@
         <v>183.2133333333333</v>
       </c>
       <c r="T21">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U21">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>5.242821643514084E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0008185538881309018</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>183.3</v>
@@ -2965,21 +3031,24 @@
         <v>183.1866666666667</v>
       </c>
       <c r="T22">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U22">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2.14421189492775E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-0.0001455498144238287</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.0005452562704471031</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>183.4</v>
@@ -3036,21 +3105,24 @@
         <v>183.1733333333333</v>
       </c>
       <c r="T23">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="U23">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>4.430094874918744E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-7.278550112810311E-05</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0005455537370431252</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>183.55</v>
@@ -3107,21 +3179,24 @@
         <v>183.2</v>
       </c>
       <c r="T24">
+        <v>183.4166666666667</v>
+      </c>
+      <c r="U24">
         <v>0.08437500000002274</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>7.604017294005061E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0001455815984858777</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0008178844056707657</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>183.75</v>
@@ -3178,21 +3253,24 @@
         <v>183.23</v>
       </c>
       <c r="T25">
+        <v>183.5666666666667</v>
+      </c>
+      <c r="U25">
         <v>0.1343750000000057</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001151750264951623</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0001637554585152134</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.00108962135657853</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>184</v>
@@ -3249,21 +3327,24 @@
         <v>183.2966666666667</v>
       </c>
       <c r="T26">
+        <v>183.7666666666667</v>
+      </c>
+      <c r="U26">
         <v>0.2156250000000171</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001605147384815542</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0003638414379012467</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.001360544217687165</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>184.1</v>
@@ -3320,21 +3401,24 @@
         <v>183.3566666666667</v>
       </c>
       <c r="T27">
+        <v>183.95</v>
+      </c>
+      <c r="U27">
         <v>0.2468749999999886</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001691271945616357</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0003273381949118193</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0005434782608695343</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>183.75</v>
@@ -3391,21 +3475,24 @@
         <v>183.4</v>
       </c>
       <c r="T28">
+        <v>183.95</v>
+      </c>
+      <c r="U28">
         <v>0.2749999999999773</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>8.58624886990178E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0002363335575472636</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.001901140684410607</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>183.5</v>
@@ -3462,21 +3549,24 @@
         <v>183.44</v>
       </c>
       <c r="T29">
+        <v>183.7833333333333</v>
+      </c>
+      <c r="U29">
         <v>0.2624999999999886</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>3.102327755888368E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0002181025081788857</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.001360544217687054</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>183.55</v>
@@ -3533,21 +3623,24 @@
         <v>183.4666666666667</v>
       </c>
       <c r="T30">
+        <v>183.6</v>
+      </c>
+      <c r="U30">
         <v>0.2531249999999829</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3.828656215554282E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.000145369966564779</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.0002724795640327571</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>183.45</v>
@@ -3604,21 +3697,24 @@
         <v>183.49</v>
       </c>
       <c r="T31">
+        <v>183.5</v>
+      </c>
+      <c r="U31">
         <v>0.2406250000000227</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.755293306371364E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0001271802325584215</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.0005448106782893758</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>183.15</v>
@@ -3675,21 +3771,24 @@
         <v>183.4966666666666</v>
       </c>
       <c r="T32">
+        <v>183.3833333333333</v>
+      </c>
+      <c r="U32">
         <v>0.1875</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-1.817950442650762E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3.633258851487575E-05</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.001635322976287767</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>183</v>
@@ -3746,21 +3845,24 @@
         <v>183.4966666666666</v>
       </c>
       <c r="T33">
+        <v>183.2</v>
+      </c>
+      <c r="U33">
         <v>0.09687500000001137</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-5.453950478140346E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0008190008190008813</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>183.05</v>
@@ -3817,21 +3919,24 @@
         <v>183.48</v>
       </c>
       <c r="T34">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="U34">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-9.090413250145701E-06</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-9.082817126537801E-05</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>183</v>
@@ -3888,21 +3993,24 @@
         <v>183.4633333333333</v>
       </c>
       <c r="T35">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U35">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-1.818099177319787E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-9.083642177176721E-05</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0002731494127288236</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>183.25</v>
@@ -3959,21 +4067,24 @@
         <v>183.4533333333333</v>
       </c>
       <c r="T36">
+        <v>183.1</v>
+      </c>
+      <c r="U36">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-2.727198349117277E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-5.450680426599686E-05</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.001366120218579292</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>183.2</v>
@@ -4030,21 +4141,24 @@
         <v>183.4466666666667</v>
       </c>
       <c r="T37">
+        <v>183.15</v>
+      </c>
+      <c r="U37">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-9.090909090914145E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-3.63398502799539E-05</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-0.0002728512960437079</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>183.3</v>
@@ -4101,21 +4215,24 @@
         <v>183.44</v>
       </c>
       <c r="T38">
+        <v>183.25</v>
+      </c>
+      <c r="U38">
         <v>-0.2624999999999886</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-5.455041367397051E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-3.634117091244615E-05</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.0005458515283844889</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>183.35</v>
@@ -4172,21 +4289,24 @@
         <v>183.4266666666667</v>
       </c>
       <c r="T39">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U39">
         <v>-0.2718749999999943</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>3.636892638936295E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-7.268498328238948E-05</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.0002727768685215626</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>183.3</v>
@@ -4243,21 +4363,24 @@
         <v>183.3966666666667</v>
       </c>
       <c r="T40">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U40">
         <v>-0.2375000000000398</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0001635531002398549</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.0002727024815925017</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>183.3</v>
@@ -4314,21 +4437,24 @@
         <v>183.35</v>
       </c>
       <c r="T41">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U41">
         <v>-0.171875</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>5.455140560783889E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0002544575510279312</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>183.5</v>
@@ -4385,21 +4511,24 @@
         <v>183.31</v>
       </c>
       <c r="T42">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="U42">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>5.454842991436948E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0002181619852741346</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.001091107474086028</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>183.65</v>
@@ -4456,21 +4585,24 @@
         <v>183.3033333333333</v>
       </c>
       <c r="T43">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U43">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>9.999999999998899E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-3.636826505193369E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0008174386920980492</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>183.7</v>
@@ -4527,21 +4659,24 @@
         <v>183.3166666666667</v>
       </c>
       <c r="T44">
+        <v>183.6166666666667</v>
+      </c>
+      <c r="U44">
         <v>0.08437499999996589</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.0001454400014542223</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>7.273917550176812E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.0002722570106179489</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>183.7</v>
@@ -4598,21 +4733,24 @@
         <v>183.3266666666667</v>
       </c>
       <c r="T45">
+        <v>183.6833333333333</v>
+      </c>
+      <c r="U45">
         <v>0.1343750000000057</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>9.997546056883522E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>5.455041367397051E-05</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>183.45</v>
@@ -4669,21 +4807,24 @@
         <v>183.3266666666667</v>
       </c>
       <c r="T46">
+        <v>183.6166666666667</v>
+      </c>
+      <c r="U46">
         <v>0.1593750000000114</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>6.361438775703832E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.001360914534567215</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>183.5</v>
@@ -4740,21 +4881,24 @@
         <v>183.35</v>
       </c>
       <c r="T47">
+        <v>183.55</v>
+      </c>
+      <c r="U47">
         <v>0.1750000000000398</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>8.178472443098883E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.0001272773555403006</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0002725538293812946</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>183.35</v>
@@ -4811,21 +4955,24 @@
         <v>183.3733333333334</v>
       </c>
       <c r="T48">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U48">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>6.360513929526412E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.000127261158076708</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0008174386920981602</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>183.25</v>
@@ -4882,21 +5029,24 @@
         <v>183.3866666666667</v>
       </c>
       <c r="T49">
+        <v>183.3666666666666</v>
+      </c>
+      <c r="U49">
         <v>0.1468749999999659</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-9.085870562697274E-06</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>7.27114084200231E-05</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.0005454049631851143</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>182.85</v>
@@ -4953,21 +5103,24 @@
         <v>183.3766666666667</v>
       </c>
       <c r="T50">
+        <v>183.15</v>
+      </c>
+      <c r="U50">
         <v>0.07812499999997158</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-7.268762493184422E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-5.452959139173874E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.002182810368349331</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>182.9</v>
@@ -5024,21 +5177,24 @@
         <v>183.3533333333334</v>
       </c>
       <c r="T51">
+        <v>183</v>
+      </c>
+      <c r="U51">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-9.086613600861604E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-0.000127242651736692</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0002734481815696022</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>183.1</v>
@@ -5095,21 +5251,24 @@
         <v>183.3466666666667</v>
       </c>
       <c r="T52">
+        <v>182.95</v>
+      </c>
+      <c r="U52">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-3.634975736521717E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-3.635966985415795E-05</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.001093493712411187</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>183.4</v>
@@ -5166,21 +5325,24 @@
         <v>183.3533333333334</v>
       </c>
       <c r="T53">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="U53">
         <v>-0.1250000000000284</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>3.636099192783071E-05</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.001638448935008308</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>183.45</v>
@@ -5237,21 +5399,24 @@
         <v>183.36</v>
       </c>
       <c r="T54">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U54">
         <v>-0.1343750000000057</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-1.817553935912208E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>3.635966985426897E-05</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.0002726281352234405</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>183.55</v>
@@ -5308,21 +5473,24 @@
         <v>183.3766666666666</v>
       </c>
       <c r="T55">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U55">
         <v>-0.140625</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-3.635173943072889E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>9.089586969146524E-05</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0005451076587628112</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>183.45</v>
@@ -5379,21 +5547,24 @@
         <v>183.3866666666667</v>
       </c>
       <c r="T56">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U56">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-9.997091755131748E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>5.453256503029635E-05</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0005448106782893758</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>183.45</v>
@@ -5450,21 +5621,24 @@
         <v>183.3833333333333</v>
       </c>
       <c r="T57">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U57">
         <v>-0.1218749999999886</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0001181592605045134</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-1.817653046398693E-05</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>183.45</v>
@@ -5521,21 +5695,24 @@
         <v>183.37</v>
       </c>
       <c r="T58">
+        <v>183.45</v>
+      </c>
+      <c r="U58">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-5.454148789185709E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-7.2707443424469E-05</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>183.7</v>
@@ -5592,21 +5769,24 @@
         <v>183.37</v>
       </c>
       <c r="T59">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="U59">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>3.636297521869558E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.001362769146906473</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>183.7</v>
@@ -5663,21 +5843,24 @@
         <v>183.37</v>
       </c>
       <c r="T60">
+        <v>183.6166666666666</v>
+      </c>
+      <c r="U60">
         <v>0.1281250000000398</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>2.72712397504371E-05</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>183.7</v>
@@ -5734,21 +5917,24 @@
         <v>183.3866666666667</v>
       </c>
       <c r="T61">
+        <v>183.7</v>
+      </c>
+      <c r="U61">
         <v>0.1656249999999773</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>4.545082675044831E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>9.089091272684868E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>183.65</v>
@@ -5805,21 +5991,24 @@
         <v>183.3966666666667</v>
       </c>
       <c r="T62">
+        <v>183.6833333333333</v>
+      </c>
+      <c r="U62">
         <v>0.1781249999999659</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>9.089752213364832E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>5.452959139162772E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.0002721829069133319</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>183.65</v>
@@ -5876,21 +6065,24 @@
         <v>183.4166666666667</v>
       </c>
       <c r="T63">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="U63">
         <v>0.1812500000000057</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>0.00011815603868226</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0001090532361547325</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>183.6</v>
@@ -5947,21 +6139,24 @@
         <v>183.44</v>
       </c>
       <c r="T64">
+        <v>183.6333333333333</v>
+      </c>
+      <c r="U64">
         <v>0.1843749999999602</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>9.996637494680272E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0001272149023172631</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.00027225701061806</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>183.6</v>
@@ -6018,21 +6213,24 @@
         <v>183.49</v>
       </c>
       <c r="T65">
+        <v>183.6166666666667</v>
+      </c>
+      <c r="U65">
         <v>0.1812499999999488</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0001090433265482638</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0002725686873088495</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>183.5</v>
@@ -6089,21 +6287,24 @@
         <v>183.53</v>
       </c>
       <c r="T66">
+        <v>183.5666666666667</v>
+      </c>
+      <c r="U66">
         <v>0.1468749999999943</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>4.542976558230549E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.000217995531091697</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>-0.0005446623093681158</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>183.25</v>
@@ -6160,21 +6361,24 @@
         <v>183.54</v>
       </c>
       <c r="T67">
+        <v>183.45</v>
+      </c>
+      <c r="U67">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>9.085540362274713E-06</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>5.448700484933511E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>-0.001362397820163452</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>183.35</v>
@@ -6231,21 +6435,24 @@
         <v>183.5366666666667</v>
       </c>
       <c r="T68">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="U68">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>9.085457816526699E-06</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-1.81613453924534E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0005457025920871938</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>183.5</v>
@@ -6302,21 +6509,24 @@
         <v>183.54</v>
       </c>
       <c r="T69">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="U69">
         <v>-0.02187500000002274</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>2.725612581411241E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>1.816167523283063E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.000818107444777727</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>183.45</v>
@@ -6373,21 +6583,24 @@
         <v>183.5333333333333</v>
       </c>
       <c r="T70">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U70">
         <v>-0.04687499999997158</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>2.725538293812946E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-3.63226907849068E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.0002724795640327571</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>183.4</v>
@@ -6444,21 +6657,24 @@
         <v>183.53</v>
       </c>
       <c r="T71">
+        <v>183.45</v>
+      </c>
+      <c r="U71">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>1.816976006852045E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-1.81620050853093E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.0002725538293811836</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>183.6</v>
@@ -6515,21 +6731,24 @@
         <v>183.54</v>
       </c>
       <c r="T72">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U72">
         <v>-0.07812499999997158</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>1.816942993393411E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>5.448700484933511E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.001090512540894206</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>183.6</v>
@@ -6586,21 +6805,24 @@
         <v>183.55</v>
       </c>
       <c r="T73">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="U73">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-9.084549905780115E-06</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>5.448403617758224E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>183.6</v>
@@ -6657,21 +6879,24 @@
         <v>183.5433333333334</v>
       </c>
       <c r="T74">
+        <v>183.6</v>
+      </c>
+      <c r="U74">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-1.816926487163695E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-3.632071188597319E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>183.5</v>
@@ -6728,21 +6953,24 @@
         <v>183.53</v>
       </c>
       <c r="T75">
+        <v>183.5666666666666</v>
+      </c>
+      <c r="U75">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-3.633918999945696E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-7.264406225593323E-05</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.0005446623093681158</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>183.3</v>
@@ -6799,21 +7027,24 @@
         <v>183.5033333333333</v>
       </c>
       <c r="T76">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U76">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-2.725538293812946E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-0.00014529867959856</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>-0.001089918256130695</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>183.2</v>
@@ -6870,21 +7101,24 @@
         <v>183.4733333333333</v>
       </c>
       <c r="T77">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="U77">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-5.451225162866891E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-0.0001634847686688978</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.0005455537370432362</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>183.2</v>
@@ -6941,21 +7175,24 @@
         <v>183.4433333333333</v>
       </c>
       <c r="T78">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U78">
         <v>-0.03125</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-2.725761168786978E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-0.0001635115003089105</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>183.15</v>
@@ -7012,21 +7249,24 @@
         <v>183.4133333333333</v>
       </c>
       <c r="T79">
+        <v>183.1833333333333</v>
+      </c>
+      <c r="U79">
         <v>-0.03125</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-1.817223645717014E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-0.0001635382406919295</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0002729257641920224</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>182.95</v>
@@ -7083,21 +7323,24 @@
         <v>183.37</v>
       </c>
       <c r="T80">
+        <v>183.1</v>
+      </c>
+      <c r="U80">
         <v>-0.07187499999997726</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>1.817256669323086E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-0.0002362605408550156</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.001092001092001138</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>183</v>
@@ -7154,21 +7397,24 @@
         <v>183.3366666666666</v>
       </c>
       <c r="T81">
+        <v>183.0333333333333</v>
+      </c>
+      <c r="U81">
         <v>-0.1093749999999716</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>1.817223645717014E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-0.0001817818254530312</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.0002732987154960842</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>183.05</v>
@@ -7225,21 +7471,24 @@
         <v>183.3233333333333</v>
       </c>
       <c r="T82">
+        <v>183</v>
+      </c>
+      <c r="U82">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-9.085953116438894E-06</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-7.272595043716912E-05</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>183.1</v>
@@ -7296,21 +7545,24 @@
         <v>183.3066666666667</v>
       </c>
       <c r="T83">
+        <v>183.05</v>
+      </c>
+      <c r="U83">
         <v>-0.1906249999999829</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-5.451621403063101E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-9.091404985717144E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0002731494127286016</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>182.9</v>
@@ -7367,21 +7619,24 @@
         <v>183.2666666666667</v>
       </c>
       <c r="T84">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U84">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-9.995184138555935E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0002182135583357336</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.001092299290005427</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>183</v>
@@ -7438,21 +7693,24 @@
         <v>183.2366666666667</v>
       </c>
       <c r="T85">
+        <v>183</v>
+      </c>
+      <c r="U85">
         <v>-0.2062499999999829</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-9.996183275462478E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0001636958894143392</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0005467468562054822</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>182.95</v>
@@ -7509,21 +7767,24 @@
         <v>183.2066666666666</v>
       </c>
       <c r="T86">
+        <v>182.95</v>
+      </c>
+      <c r="U86">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-9.088347829255827E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0001637226901458622</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>-0.0002732240437158806</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>182.85</v>
@@ -7580,21 +7841,24 @@
         <v>183.1566666666667</v>
       </c>
       <c r="T87">
+        <v>182.9333333333333</v>
+      </c>
+      <c r="U87">
         <v>-0.2093749999999943</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-0.0001090700866198668</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0002729158327571257</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0005465974309920574</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>182.7</v>
@@ -7651,21 +7915,24 @@
         <v>183.0966666666667</v>
       </c>
       <c r="T88">
+        <v>182.8333333333333</v>
+      </c>
+      <c r="U88">
         <v>-0.1843750000000171</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-0.000136352480251678</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0003275884033703269</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.0008203445447088065</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>182.8</v>
@@ -7722,21 +7989,24 @@
         <v>183.0433333333333</v>
       </c>
       <c r="T89">
+        <v>182.7833333333333</v>
+      </c>
+      <c r="U89">
         <v>-0.1593749999999545</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-0.0001636452897428864</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0002912851135103978</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0005473453749316182</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>182.9</v>
@@ -7793,21 +8063,24 @@
         <v>183.0033333333333</v>
       </c>
       <c r="T90">
+        <v>182.8</v>
+      </c>
+      <c r="U90">
         <v>-0.1343750000000057</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-0.0001454862879174401</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-0.0002185274889371369</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.000547045951859948</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>183</v>
@@ -7864,21 +8137,24 @@
         <v>182.9833333333333</v>
       </c>
       <c r="T91">
+        <v>182.9</v>
+      </c>
+      <c r="U91">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-0.0001273190251001033</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-0.0001092876268190546</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0005467468562054822</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>183.05</v>
@@ -7935,21 +8211,24 @@
         <v>182.9733333333333</v>
       </c>
       <c r="T92">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U92">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-0.0001091444891129223</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-5.464978595492997E-05</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>183.05</v>
@@ -8006,21 +8285,24 @@
         <v>182.9633333333333</v>
       </c>
       <c r="T93">
+        <v>183.0333333333333</v>
+      </c>
+      <c r="U93">
         <v>-0.06562499999998295</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-0.0001091564029325198</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-5.465277271743396E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>183.1</v>
@@ -8077,21 +8359,24 @@
         <v>182.96</v>
       </c>
       <c r="T94">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="U94">
         <v>-0.04062500000003411</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-9.097359946164119E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-1.821858660189246E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0002731494127286016</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>183</v>
@@ -8148,21 +8433,24 @@
         <v>182.9633333333333</v>
       </c>
       <c r="T95">
+        <v>183.05</v>
+      </c>
+      <c r="U95">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-0.0001091782516922102</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>1.821891852493707E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>-0.0005461496450026582</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>182.95</v>
@@ -8219,21 +8507,24 @@
         <v>182.96</v>
       </c>
       <c r="T96">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U96">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-0.0001000909918105197</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-1.821858660200348E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.0002732240437158806</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>182.95</v>
@@ -8290,21 +8581,24 @@
         <v>182.9533333333333</v>
       </c>
       <c r="T97">
+        <v>182.9666666666667</v>
+      </c>
+      <c r="U97">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-5.460055146566667E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-3.643783705009618E-05</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>183.05</v>
@@ -8361,21 +8655,24 @@
         <v>182.95</v>
       </c>
       <c r="T98">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U98">
         <v>0.05937499999998863</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-5.460353284847397E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-1.821958240710853E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.0005465974309921684</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>183</v>
@@ -8432,21 +8729,24 @@
         <v>182.9566666666666</v>
       </c>
       <c r="T99">
+        <v>183</v>
+      </c>
+      <c r="U99">
         <v>0.06562500000001137</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-9.101085759533056E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>3.64398287326928E-05</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.0002731494127288236</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>183.05</v>
@@ -8503,21 +8803,24 @@
         <v>182.96</v>
       </c>
       <c r="T100">
+        <v>183.0333333333333</v>
+      </c>
+      <c r="U100">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-7.281531306047029E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>1.82192504600831E-05</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>183</v>
@@ -8574,21 +8877,24 @@
         <v>182.9633333333333</v>
       </c>
       <c r="T101">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U101">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-7.282061551638908E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>1.821891852493707E-05</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0002731494127288236</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>183</v>
@@ -8645,21 +8951,24 @@
         <v>182.9733333333334</v>
       </c>
       <c r="T102">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U102">
         <v>0.03437499999998295</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-0.0001092388781166465</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>5.46557598062325E-05</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>183.15</v>
@@ -8716,21 +9025,24 @@
         <v>183.0033333333334</v>
       </c>
       <c r="T103">
+        <v>183.05</v>
+      </c>
+      <c r="U103">
         <v>0.03437500000001137</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-8.193810941459212E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0.0001639583181520798</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0008196721311475308</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>183.1</v>
@@ -8787,21 +9099,24 @@
         <v>183.0233333333334</v>
       </c>
       <c r="T104">
+        <v>183.0833333333333</v>
+      </c>
+      <c r="U104">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-9.104980424301523E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0.0001092876268191656</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.0002730002730003678</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>183.05</v>
@@ -8858,21 +9173,24 @@
         <v>183.0333333333333</v>
       </c>
       <c r="T105">
+        <v>183.1</v>
+      </c>
+      <c r="U105">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-8.195228555807343E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>5.463784216930279E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.0002730748225012736</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>183.2</v>
@@ -8929,21 +9247,24 @@
         <v>183.0466666666667</v>
       </c>
       <c r="T106">
+        <v>183.1166666666667</v>
+      </c>
+      <c r="U106">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-1.821311161920303E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>7.284647605176886E-05</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>0.0008194482381862489</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>183.5</v>
@@ -9000,21 +9321,24 @@
         <v>183.0766666666667</v>
       </c>
       <c r="T107">
+        <v>183.25</v>
+      </c>
+      <c r="U107">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>5.464033002766655E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>0.0001638926321156919</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.001637554585152801</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>183.35</v>
@@ -9071,21 +9395,24 @@
         <v>183.0966666666667</v>
       </c>
       <c r="T108">
+        <v>183.35</v>
+      </c>
+      <c r="U108">
         <v>0.07500000000001705</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>2.731867231253737E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>0.0001092438504817217</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0008174386920981602</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>183.45</v>
@@ -9142,21 +9469,24 @@
         <v>183.12</v>
       </c>
       <c r="T109">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U109">
         <v>0.1062500000000455</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>5.463585204612542E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>0.000127437237160466</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>0.0005454049631852254</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>183.5</v>
@@ -9213,21 +9543,24 @@
         <v>183.1533333333333</v>
       </c>
       <c r="T110">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U110">
         <v>0.1437500000000398</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>0.0001001602564103532</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>0.0001820299985437757</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.0002725538293812946</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>183.5</v>
@@ -9284,21 +9617,24 @@
         <v>183.19</v>
       </c>
       <c r="T111">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U111">
         <v>0.1562500000000284</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>9.10456593981035E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0.0002001965566194031</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>183.35</v>
@@ -9355,21 +9691,24 @@
         <v>183.2166666666667</v>
       </c>
       <c r="T112">
+        <v>183.45</v>
+      </c>
+      <c r="U112">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>5.462242250464655E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>0.0001455683534399288</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>-0.0008174386920981602</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>183.25</v>
@@ -9426,21 +9765,24 @@
         <v>183.23</v>
       </c>
       <c r="T113">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="U113">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>2.730971952913386E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>7.277358318913407E-05</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>-0.0005454049631851143</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>183.2</v>
@@ -9497,21 +9839,24 @@
         <v>183.2433333333333</v>
       </c>
       <c r="T114">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U114">
         <v>0.1593750000000114</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>5.461794745742488E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>7.276828758029374E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0002728512960437079</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>183.15</v>
@@ -9568,21 +9913,24 @@
         <v>183.25</v>
       </c>
       <c r="T115">
+        <v>183.2</v>
+      </c>
+      <c r="U115">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>2.730748225010515E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>3.638149637086308E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0002729257641920224</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>183.2</v>
@@ -9639,21 +9987,24 @@
         <v>183.2633333333333</v>
       </c>
       <c r="T116">
+        <v>183.1833333333333</v>
+      </c>
+      <c r="U116">
         <v>0.078125</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>4.551122761986548E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>7.276034561165545E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.0002730002730002568</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>183.15</v>
@@ -9710,21 +10061,24 @@
         <v>183.2733333333333</v>
       </c>
       <c r="T117">
+        <v>183.1666666666667</v>
+      </c>
+      <c r="U117">
         <v>0.03125000000002842</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>5.461098773085205E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>5.456628894684457E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.0002729257641920224</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>183.55</v>
@@ -9781,21 +10135,24 @@
         <v>183.3</v>
       </c>
       <c r="T118">
+        <v>183.3</v>
+      </c>
+      <c r="U118">
         <v>0.00312500000003979</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>0.0001547226823452874</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>0.000145502164344613</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0.002184002184002276</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>183.5</v>
@@ -9852,21 +10209,24 @@
         <v>183.3266666666667</v>
       </c>
       <c r="T119">
+        <v>183.4</v>
+      </c>
+      <c r="U119">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>0.0001273989680683485</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0001454809965448778</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>-0.0002724053391447434</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>183.5</v>
@@ -9923,21 +10283,24 @@
         <v>183.3566666666667</v>
       </c>
       <c r="T120">
+        <v>183.5166666666667</v>
+      </c>
+      <c r="U120">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>0.0001091852054047049</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>0.0001636423142659105</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>183.5</v>
@@ -9994,21 +10357,24 @@
         <v>183.3766666666666</v>
       </c>
       <c r="T121">
+        <v>183.5</v>
+      </c>
+      <c r="U121">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>9.097773774757734E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>0.0001090770265601559</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>183.5</v>
@@ -10065,21 +10431,24 @@
         <v>183.3766666666666</v>
       </c>
       <c r="T122">
+        <v>183.5</v>
+      </c>
+      <c r="U122">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>8.187251539659712E-05</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
       </c>
       <c r="W122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>183.45</v>
@@ -10136,21 +10505,24 @@
         <v>183.3833333333333</v>
       </c>
       <c r="T123">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U123">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>7.276961141022831E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>3.63550433535309E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.0002724795640327571</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>183.45</v>
@@ -10207,21 +10579,24 @@
         <v>183.3833333333333</v>
       </c>
       <c r="T124">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U124">
         <v>0.0625</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>6.36687768318378E-05</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
       </c>
       <c r="W124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>183.4</v>
@@ -10278,21 +10653,24 @@
         <v>183.3766666666667</v>
       </c>
       <c r="T125">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U125">
         <v>0.09687499999998295</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>7.275968385922482E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-3.635372171217899E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>-0.0002725538293811836</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>183.35</v>
@@ -10349,21 +10727,24 @@
         <v>183.3666666666667</v>
       </c>
       <c r="T126">
+        <v>183.4</v>
+      </c>
+      <c r="U126">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>7.275439027254471E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-5.453256503007431E-05</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>-0.0002726281352236626</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>183.5</v>
@@ -10420,21 +10801,24 @@
         <v>183.3766666666667</v>
       </c>
       <c r="T127">
+        <v>183.4166666666667</v>
+      </c>
+      <c r="U127">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>0.0001000300090028272</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>5.453553899292807E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0.000818107444777727</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>183.25</v>
@@ -10491,21 +10875,24 @@
         <v>183.3766666666667</v>
       </c>
       <c r="T128">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="U128">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>3.63709105457577E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>0</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.001362397820163452</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>183.3</v>
@@ -10562,21 +10949,24 @@
         <v>183.3833333333333</v>
       </c>
       <c r="T129">
+        <v>183.35</v>
+      </c>
+      <c r="U129">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>5.455438162615955E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>3.635504335330886E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.0002728512960437079</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>183.2</v>
@@ -10633,21 +11023,24 @@
         <v>183.3866666666667</v>
       </c>
       <c r="T130">
+        <v>183.25</v>
+      </c>
+      <c r="U130">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>2.727570280391944E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>1.817686085603398E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0005455537370432362</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>183.35</v>
@@ -10704,21 +11097,24 @@
         <v>183.3966666666666</v>
       </c>
       <c r="T131">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U131">
         <v>-0.03437499999998295</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>6.364157067406673E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>5.452959139162772E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.0008187772925765113</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>183.2</v>
@@ -10775,21 +11171,24 @@
         <v>183.4</v>
       </c>
       <c r="T132">
+        <v>183.25</v>
+      </c>
+      <c r="U132">
         <v>-0.06562499999998295</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>3.636429753273163E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>1.817553935934413E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.000818107444777727</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>183.25</v>
@@ -10846,21 +11245,24 @@
         <v>183.38</v>
       </c>
       <c r="T133">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U133">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>1.818148760923677E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001090512540893318</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.0002729257641922445</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>183.2</v>
@@ -10917,21 +11319,24 @@
         <v>183.36</v>
       </c>
       <c r="T134">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U134">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>1.818115704876888E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001090631475625381</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>-0.0002728512960437079</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>183.2</v>
@@ -10988,21 +11393,24 @@
         <v>183.34</v>
       </c>
       <c r="T135">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U135">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>2.72712397504371E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-0.0001090750436298915</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>183.6</v>
@@ -11059,21 +11467,24 @@
         <v>183.3466666666667</v>
       </c>
       <c r="T136">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="U136">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>7.272132280089494E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>3.636231409753776E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.002183406113537067</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>183.55</v>
@@ -11130,21 +11541,24 @@
         <v>183.35</v>
       </c>
       <c r="T137">
+        <v>183.45</v>
+      </c>
+      <c r="U137">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>9.089504349413247E-06</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>1.818049596380433E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.0002723311546840579</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>183.4</v>
@@ -11201,21 +11615,24 @@
         <v>183.3466666666667</v>
       </c>
       <c r="T138">
+        <v>183.5166666666667</v>
+      </c>
+      <c r="U138">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>9.089421730834601E-06</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>-1.818016543952972E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0008172160174340082</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>183.3</v>
@@ -11272,21 +11689,24 @@
         <v>183.3366666666667</v>
       </c>
       <c r="T139">
+        <v>183.4166666666667</v>
+      </c>
+      <c r="U139">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-2.726801734231898E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>-5.454148789174607E-05</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>-0.0005452562704471031</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>183.2</v>
@@ -11343,21 +11763,24 @@
         <v>183.3233333333333</v>
       </c>
       <c r="T140">
+        <v>183.3</v>
+      </c>
+      <c r="U140">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-5.45375218151678E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>-7.272595043739116E-05</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>-0.0005455537370432362</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>183.25</v>
@@ -11414,21 +11837,24 @@
         <v>183.3166666666667</v>
       </c>
       <c r="T141">
+        <v>183.25</v>
+      </c>
+      <c r="U141">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-4.545041359871327E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-3.636561994291299E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0002729257641922445</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>183.25</v>
@@ -11485,21 +11911,24 @@
         <v>183.3</v>
       </c>
       <c r="T142">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U142">
         <v>0.03125</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-1.818099177319787E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-9.091735612321017E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>183.3</v>
@@ -11556,21 +11985,24 @@
         <v>183.3033333333333</v>
       </c>
       <c r="T143">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U143">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>9.090661163835279E-06</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>1.818512456819299E-05</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.0002728512960437079</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>183.25</v>
@@ -11627,21 +12059,24 @@
         <v>183.3</v>
       </c>
       <c r="T144">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U144">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>9.090578524384441E-06</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-1.818479387538652E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.0002727768685215626</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>183.3</v>
@@ -11698,21 +12133,24 @@
         <v>183.3066666666667</v>
       </c>
       <c r="T145">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U145">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>2.727148765968579E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>3.637024913616393E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.0002728512960437079</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>183.4</v>
@@ -11769,21 +12207,24 @@
         <v>183.31</v>
       </c>
       <c r="T146">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U146">
         <v>-0.03125</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>3.636099192783071E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>1.818446319457045E-05</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0005455537370431252</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>183.35</v>
@@ -11840,21 +12281,24 @@
         <v>183.32</v>
       </c>
       <c r="T147">
+        <v>183.35</v>
+      </c>
+      <c r="U147">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>3.635966985426897E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>5.455239757790054E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>-0.0002726281352236626</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>183.5</v>
@@ -11911,21 +12355,24 @@
         <v>183.3366666666666</v>
       </c>
       <c r="T148">
+        <v>183.4166666666667</v>
+      </c>
+      <c r="U148">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-9.089586969324159E-06</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>9.091570296004825E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.000818107444777727</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>183.5</v>
@@ -11982,21 +12429,24 @@
         <v>183.3566666666667</v>
       </c>
       <c r="T149">
+        <v>183.45</v>
+      </c>
+      <c r="U149">
         <v>0.009375000000034106</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>0</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>0.0001090889256558647</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>183.45</v>
@@ -12053,21 +12503,24 @@
         <v>183.3733333333333</v>
       </c>
       <c r="T150">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U150">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-9.089669590456317E-06</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>9.089752213364832E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.0002724795640327571</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>183.3</v>
@@ -12124,21 +12577,24 @@
         <v>183.3533333333333</v>
       </c>
       <c r="T151">
+        <v>183.4166666666667</v>
+      </c>
+      <c r="U151">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-3.635900885334831E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-0.0001090671126300347</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>-0.0008176614881437727</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>183.3</v>
@@ -12195,21 +12651,24 @@
         <v>183.3366666666667</v>
       </c>
       <c r="T152">
+        <v>183.35</v>
+      </c>
+      <c r="U152">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-3.636033087917045E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-9.089917463545039E-05</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>183.45</v>
@@ -12266,21 +12725,24 @@
         <v>183.34</v>
       </c>
       <c r="T153">
+        <v>183.35</v>
+      </c>
+      <c r="U153">
         <v>0.0625</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>1.818148760923677E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.0008183306055644657</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>183.45</v>
@@ -12337,21 +12799,24 @@
         <v>183.35</v>
       </c>
       <c r="T154">
+        <v>183.4</v>
+      </c>
+      <c r="U154">
         <v>0.06562500000001137</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>0</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>5.454347114652869E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>183.4</v>
@@ -12408,21 +12873,24 @@
         <v>183.3633333333333</v>
       </c>
       <c r="T155">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U155">
         <v>0.06562499999998295</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>7.272066175811887E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0002725538293811836</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>183.45</v>
@@ -12479,21 +12947,24 @@
         <v>183.3766666666667</v>
       </c>
       <c r="T156">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U156">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>1.818082650051345E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>7.271537384778703E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0002726281352234405</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>183.55</v>
@@ -12550,21 +13021,24 @@
         <v>183.3966666666667</v>
       </c>
       <c r="T157">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U157">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>9.090247981902166E-06</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>0.0001090651300601486</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0.0005451076587628112</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>183.75</v>
@@ -12621,21 +13095,24 @@
         <v>183.4266666666667</v>
       </c>
       <c r="T158">
+        <v>183.5833333333333</v>
+      </c>
+      <c r="U158">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>9.090165350089663E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>0.0001635798542320988</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0.00108962135657853</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>183.7</v>
@@ -12692,21 +13169,24 @@
         <v>183.4566666666666</v>
       </c>
       <c r="T159">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="U159">
         <v>0.0625</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>7.271471291314668E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0.0001635531002397439</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.0002721088435374552</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>183.85</v>
@@ -12763,21 +13243,24 @@
         <v>183.4933333333333</v>
       </c>
       <c r="T160">
+        <v>183.7666666666667</v>
+      </c>
+      <c r="U160">
         <v>0.09375</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>0.0001181528170359769</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>0.0001998655449970688</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0008165487207403288</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>184.1</v>
@@ -12834,21 +13317,24 @@
         <v>183.54</v>
       </c>
       <c r="T161">
+        <v>183.8833333333333</v>
+      </c>
+      <c r="U161">
         <v>0.125</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>0.0001363140676118313</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>0.0002543234994911714</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.001359804188196811</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>184.1</v>
@@ -12905,21 +13391,24 @@
         <v>183.59</v>
       </c>
       <c r="T162">
+        <v>184.0166666666667</v>
+      </c>
+      <c r="U162">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>0.0001635545863429844</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>0.0002724201808872451</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>183.75</v>
@@ -12976,21 +13465,24 @@
         <v>183.6066666666667</v>
       </c>
       <c r="T163">
+        <v>183.9833333333333</v>
+      </c>
+      <c r="U163">
         <v>0.1812499999999773</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>9.084880034171405E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>9.078199611445292E-05</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.001901140684410607</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>183.65</v>
@@ -13047,21 +13539,24 @@
         <v>183.6166666666667</v>
       </c>
       <c r="T164">
+        <v>183.8333333333333</v>
+      </c>
+      <c r="U164">
         <v>0.1968750000000057</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>8.175649282815556E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>5.446425329513893E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0005442176870747994</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>183.6</v>
@@ -13118,21 +13613,24 @@
         <v>183.6266666666666</v>
       </c>
       <c r="T165">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="U165">
         <v>0.1968749999999773</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>7.266649711135109E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>5.44612871016259E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.00027225701061806</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>183.5</v>
@@ -13189,21 +13687,24 @@
         <v>183.64</v>
       </c>
       <c r="T166">
+        <v>183.5833333333333</v>
+      </c>
+      <c r="U166">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-1.81653042690133E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>7.261109497558316E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0005446623093681158</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>183.45</v>
@@ -13260,21 +13761,24 @@
         <v>183.65</v>
       </c>
       <c r="T167">
+        <v>183.5166666666667</v>
+      </c>
+      <c r="U167">
         <v>0.1218749999999886</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-1.81656342530534E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>5.44543672402753E-05</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>-0.0002724795640327571</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>183.45</v>
@@ -13331,21 +13835,24 @@
         <v>183.65</v>
       </c>
       <c r="T168">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U168">
         <v>0.0625</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>9.082982124875016E-06</v>
-      </c>
-      <c r="V168">
-        <v>0</v>
       </c>
       <c r="W168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>183.5</v>
@@ -13402,21 +13909,24 @@
         <v>183.6533333333333</v>
       </c>
       <c r="T169">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U169">
         <v>-0.015625</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>3.633159849947276E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>1.815046737441151E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.0002725538293812946</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>183.4</v>
@@ -13473,21 +13983,24 @@
         <v>183.6533333333333</v>
       </c>
       <c r="T170">
+        <v>183.45</v>
+      </c>
+      <c r="U170">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>3.633027856242421E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>0</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0005449591280654031</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>183.3</v>
@@ -13544,21 +14057,24 @@
         <v>183.6433333333333</v>
       </c>
       <c r="T171">
+        <v>183.4</v>
+      </c>
+      <c r="U171">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>9.082239680546778E-06</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-5.445041382290405E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>-0.0005452562704471031</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>183.15</v>
@@ -13615,21 +14131,24 @@
         <v>183.6166666666667</v>
       </c>
       <c r="T172">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U172">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-1.816431438805832E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-0.0001452090102190828</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>-0.0008183306055646877</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>183.15</v>
@@ -13686,21 +14205,24 @@
         <v>183.5766666666667</v>
       </c>
       <c r="T173">
+        <v>183.2</v>
+      </c>
+      <c r="U173">
         <v>-0.2249999999999659</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-2.724696650435732E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-0.0002178451484071697</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>183.25</v>
@@ -13757,21 +14279,24 @@
         <v>183.5466666666667</v>
       </c>
       <c r="T174">
+        <v>183.1833333333333</v>
+      </c>
+      <c r="U174">
         <v>-0.2249999999999659</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>0</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-0.0001634194614420492</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0005460005460005135</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>183.2</v>
@@ -13828,21 +14353,24 @@
         <v>183.5033333333334</v>
       </c>
       <c r="T175">
+        <v>183.2</v>
+      </c>
+      <c r="U175">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-1.816513928121211E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-0.0002360889147171585</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.0002728512960437079</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>183.25</v>
@@ -13899,21 +14427,24 @@
         <v>183.4466666666667</v>
       </c>
       <c r="T176">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U176">
         <v>-0.2125000000000341</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-2.724820388921856E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-0.0003088045630416092</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0.0002729257641922445</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>183.15</v>
@@ -13970,21 +14501,24 @@
         <v>183.3833333333333</v>
       </c>
       <c r="T177">
+        <v>183.2</v>
+      </c>
+      <c r="U177">
         <v>-0.1968750000000341</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-3.633192849883393E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-0.0003452411236691821</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>-0.0005457025920873049</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>183.25</v>
@@ -14041,21 +14575,24 @@
         <v>183.35</v>
       </c>
       <c r="T178">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U178">
         <v>-0.1624999999999943</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-4.54165606946777E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-0.000181768608561339</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.0005460005460005135</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>183.25</v>
@@ -14112,21 +14649,24 @@
         <v>183.3233333333334</v>
       </c>
       <c r="T179">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U179">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-4.541862345242009E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-0.0001454413235159047</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>183.25</v>
@@ -14183,21 +14723,24 @@
         <v>183.3</v>
       </c>
       <c r="T180">
+        <v>183.25</v>
+      </c>
+      <c r="U180">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-3.633654911794348E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-0.0001272796698001954</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>183.05</v>
@@ -14254,21 +14797,24 @@
         <v>183.27</v>
       </c>
       <c r="T181">
+        <v>183.1833333333333</v>
+      </c>
+      <c r="U181">
         <v>-0.078125</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-4.542233688831221E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-0.0001636661211130708</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.00109140518417461</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>183.05</v>
@@ -14325,21 +14871,24 @@
         <v>183.2433333333333</v>
       </c>
       <c r="T182">
+        <v>183.1166666666667</v>
+      </c>
+      <c r="U182">
         <v>-0.07500000000004547</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-4.542440017063498E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-0.0001455048107527057</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>182.85</v>
@@ -14396,21 +14945,24 @@
         <v>183.2033333333333</v>
       </c>
       <c r="T183">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U183">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-0.0001090235127377825</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.0002182889782256225</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.001092597650915184</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>183.05</v>
@@ -14467,21 +15019,24 @@
         <v>183.1733333333333</v>
       </c>
       <c r="T184">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U184">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-7.269026677325652E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0001637524790305545</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>0.001093792726278409</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>182.95</v>
@@ -14538,21 +15093,24 @@
         <v>183.1433333333333</v>
       </c>
       <c r="T185">
+        <v>182.95</v>
+      </c>
+      <c r="U185">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-8.178249491119782E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001637792982966957</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0005462988254576473</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>182.95</v>
@@ -14609,21 +15167,24 @@
         <v>183.12</v>
       </c>
       <c r="T186">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U186">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-9.087687092745877E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0001274047649384435</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>183</v>
@@ -14680,21 +15241,24 @@
         <v>183.11</v>
       </c>
       <c r="T187">
+        <v>182.9666666666667</v>
+      </c>
+      <c r="U187">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-9.997364331226777E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-5.460899956311049E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0002732987154960842</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>183.15</v>
@@ -14751,21 +15315,24 @@
         <v>183.11</v>
       </c>
       <c r="T188">
+        <v>183.0333333333333</v>
+      </c>
+      <c r="U188">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-0.0001090730607719026</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0.0008196721311475308</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>183.15</v>
@@ -14822,21 +15389,24 @@
         <v>183.1033333333334</v>
       </c>
       <c r="T189">
+        <v>183.1</v>
+      </c>
+      <c r="U189">
         <v>-0.09375</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-9.999454575215783E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-3.640798791249011E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>183.05</v>
@@ -14893,21 +15463,24 @@
         <v>183.0933333333333</v>
       </c>
       <c r="T190">
+        <v>183.1166666666667</v>
+      </c>
+      <c r="U190">
         <v>-0.08125000000003979</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-0.0001454611573253883</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-5.461397025374737E-05</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0005460005460005135</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>183.25</v>
@@ -14964,21 +15537,24 @@
         <v>183.0933333333333</v>
       </c>
       <c r="T191">
+        <v>183.15</v>
+      </c>
+      <c r="U191">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-0.0001545749643113714</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>0</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.001092597650915073</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>183.1</v>
@@ -15035,21 +15611,24 @@
         <v>183.09</v>
       </c>
       <c r="T192">
+        <v>183.1333333333334</v>
+      </c>
+      <c r="U192">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-0.0001818810134408544</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-1.820565103405336E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.0008185538881310128</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>183.1</v>
@@ -15106,21 +15685,24 @@
         <v>183.08</v>
       </c>
       <c r="T193">
+        <v>183.15</v>
+      </c>
+      <c r="U193">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-0.0001182441651053079</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-5.46179474575359E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>183.05</v>
@@ -15177,21 +15759,24 @@
         <v>183.0666666666667</v>
       </c>
       <c r="T194">
+        <v>183.0833333333333</v>
+      </c>
+      <c r="U194">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-0.0001091613677920433</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-7.28279076542826E-05</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>-0.0002730748225012736</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>183.05</v>
@@ -15248,21 +15833,24 @@
         <v>183.0533333333333</v>
       </c>
       <c r="T195">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="U195">
         <v>0.046875</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-0.0001000755115222463</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-7.283321194473391E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>183</v>
@@ -15319,21 +15907,24 @@
         <v>183.05</v>
       </c>
       <c r="T196">
+        <v>183.0333333333333</v>
+      </c>
+      <c r="U196">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-9.098684330255402E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-1.820962925180858E-05</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>-0.0002731494127288236</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>183.2</v>
@@ -15390,21 +15981,24 @@
         <v>183.06</v>
       </c>
       <c r="T197">
+        <v>183.0833333333333</v>
+      </c>
+      <c r="U197">
         <v>0.04062499999997726</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-4.549756133065408E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>5.462988254567591E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.0010928961748633</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>183.25</v>
@@ -15461,21 +16055,24 @@
         <v>183.0866666666667</v>
       </c>
       <c r="T198">
+        <v>183.15</v>
+      </c>
+      <c r="U198">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-3.639970516255975E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>0.0001456717287593445</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0.0002729257641922445</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>183.25</v>
@@ -15532,21 +16129,24 @@
         <v>183.1</v>
       </c>
       <c r="T199">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U199">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-4.550128768643358E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>7.282525579865862E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>183.35</v>
@@ -15603,21 +16203,24 @@
         <v>183.1266666666667</v>
       </c>
       <c r="T200">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U200">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-9.100671629402868E-06</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>0.0001456399053341162</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0.0005457025920871938</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>183.25</v>
@@ -15674,21 +16277,24 @@
         <v>183.1466666666667</v>
       </c>
       <c r="T201">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U201">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-9.100754452706639E-06</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>0.0001092140230807281</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.0005454049631851143</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>183.35</v>
@@ -15745,21 +16351,24 @@
         <v>183.17</v>
       </c>
       <c r="T202">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U202">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>3.640334910803844E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>0.0001274024461270784</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.0005457025920871938</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>183.4</v>
@@ -15816,21 +16425,24 @@
         <v>183.1866666666667</v>
       </c>
       <c r="T203">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="U203">
         <v>0.07187500000000568</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>4.550252994084403E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>9.099015486513373E-05</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0.0002727024815927237</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>183.45</v>
@@ -15887,21 +16499,24 @@
         <v>183.2066666666666</v>
       </c>
       <c r="T204">
+        <v>183.4</v>
+      </c>
+      <c r="U204">
         <v>0.109375</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>3.640036764362975E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>0.0001091782516922102</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0002726281352234405</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>183.35</v>
@@ -15958,21 +16573,24 @@
         <v>183.2266666666666</v>
       </c>
       <c r="T205">
+        <v>183.4</v>
+      </c>
+      <c r="U205">
         <v>0.1156250000000227</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>2.729928202893639E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>0.0001091663331027615</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.0005451076587625892</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>183.3</v>
@@ -16029,21 +16647,24 @@
         <v>183.23</v>
       </c>
       <c r="T206">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="U206">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>9.099512266130816E-06</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>1.819240285261259E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0002727024815925017</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>183.25</v>
@@ -16100,21 +16721,24 @@
         <v>183.24</v>
       </c>
       <c r="T207">
+        <v>183.3</v>
+      </c>
+      <c r="U207">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>1.819885893161732E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>5.45762156851648E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>-0.0002727768685215626</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>183.25</v>
@@ -16171,21 +16795,24 @@
         <v>183.25</v>
       </c>
       <c r="T208">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U208">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>0</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>5.457323728452756E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>183.2</v>
@@ -16242,21 +16869,24 @@
         <v>183.26</v>
       </c>
       <c r="T209">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U209">
         <v>0.07187500000000568</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-9.099263869383201E-06</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>5.457025920851954E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0002728512960437079</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>183.2</v>
@@ -16313,21 +16943,24 @@
         <v>183.27</v>
       </c>
       <c r="T210">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U210">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-9.099346666929797E-06</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>5.456728145825096E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>183.2</v>
@@ -16384,21 +17017,24 @@
         <v>183.2833333333333</v>
       </c>
       <c r="T211">
+        <v>183.2</v>
+      </c>
+      <c r="U211">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>2.729828839709292E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>7.275240537629735E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>183.2</v>
@@ -16455,21 +17091,24 @@
         <v>183.2833333333333</v>
       </c>
       <c r="T212">
+        <v>183.2</v>
+      </c>
+      <c r="U212">
         <v>-0.03437499999998295</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>2.729754322117195E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>183.2</v>
@@ -16526,21 +17165,24 @@
         <v>183.28</v>
       </c>
       <c r="T213">
+        <v>183.2</v>
+      </c>
+      <c r="U213">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>6.36925288663992E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-1.818677821208148E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>183.25</v>
@@ -16597,21 +17239,24 @@
         <v>183.28</v>
       </c>
       <c r="T214">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U214">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>3.639341279226826E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>0</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0.0002729257641922445</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>183.35</v>
@@ -16668,21 +17313,24 @@
         <v>183.28</v>
       </c>
       <c r="T215">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U215">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>7.278417672007542E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0005457025920871938</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>183.5</v>
@@ -16739,21 +17387,24 @@
         <v>183.2966666666667</v>
       </c>
       <c r="T216">
+        <v>183.3666666666666</v>
+      </c>
+      <c r="U216">
         <v>-0.03125</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>0.00010007095940745</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>9.093554488570632E-05</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0.000818107444777727</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>183.45</v>
@@ -16810,21 +17461,24 @@
         <v>183.3033333333333</v>
       </c>
       <c r="T217">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U217">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>8.186804690124561E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>3.63709105457577E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>-0.0002724795640327571</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>183.5</v>
@@ -16881,21 +17535,24 @@
         <v>183.31</v>
       </c>
       <c r="T218">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U218">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>6.366993505668717E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>3.636958775077304E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0002725538293812946</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>183.5</v>
@@ -16952,21 +17609,24 @@
         <v>183.3133333333333</v>
       </c>
       <c r="T219">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U219">
         <v>0.04687500000002842</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>6.366588145412244E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>1.818413252618889E-05</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>183.35</v>
@@ -17023,21 +17683,24 @@
         <v>183.3133333333334</v>
       </c>
       <c r="T220">
+        <v>183.45</v>
+      </c>
+      <c r="U220">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>5.456728145802892E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0008174386920981602</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>183.3</v>
@@ -17094,21 +17757,24 @@
         <v>183.3133333333333</v>
       </c>
       <c r="T221">
+        <v>183.3833333333333</v>
+      </c>
+      <c r="U221">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>9.094050672064924E-06</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>-0.0002727024815925017</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>183.25</v>
@@ -17165,21 +17831,24 @@
         <v>183.3133333333333</v>
       </c>
       <c r="T222">
+        <v>183.3</v>
+      </c>
+      <c r="U222">
         <v>0.09062499999998863</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>2.728190391310115E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>-0.0002727768685215626</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>183.2</v>
@@ -17236,21 +17905,24 @@
         <v>183.31</v>
       </c>
       <c r="T223">
+        <v>183.25</v>
+      </c>
+      <c r="U223">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>1.818743975423587E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-1.818380186924262E-05</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0002728512960437079</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>183.25</v>
@@ -17307,21 +17979,24 @@
         <v>183.3133333333334</v>
       </c>
       <c r="T224">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U224">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>3.637421795432694E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>1.818413252618889E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>0.0002729257641922445</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>183.35</v>
@@ -17378,21 +18053,24 @@
         <v>183.3233333333333</v>
       </c>
       <c r="T225">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U225">
         <v>0.02187499999996589</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>5.455934237774684E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>5.455140560761684E-05</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0005457025920871938</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>183.35</v>
@@ -17449,21 +18127,24 @@
         <v>183.3333333333333</v>
       </c>
       <c r="T226">
+        <v>183.3166666666666</v>
+      </c>
+      <c r="U226">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>6.364909345513148E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>5.454842991436948E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>183.45</v>
@@ -17520,21 +18201,24 @@
         <v>183.35</v>
       </c>
       <c r="T227">
+        <v>183.3833333333333</v>
+      </c>
+      <c r="U227">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>4.546074464695238E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>9.090909090891941E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0.0005454049631852254</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>183.5</v>
@@ -17591,21 +18275,24 @@
         <v>183.37</v>
       </c>
       <c r="T228">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U228">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>4.545867806160508E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>0.0001090809926369563</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0.0002725538293812946</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>183.6</v>
@@ -17662,21 +18349,24 @@
         <v>183.3933333333333</v>
       </c>
       <c r="T229">
+        <v>183.5166666666667</v>
+      </c>
+      <c r="U229">
         <v>-0.01562499999997158</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>6.363925633001699E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>0.0001272472778170997</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0.0005449591280652921</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>183.45</v>
@@ -17733,21 +18423,24 @@
         <v>183.4</v>
       </c>
       <c r="T230">
+        <v>183.5166666666667</v>
+      </c>
+      <c r="U230">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>1.818148760923677E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>3.635173943083991E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0008169934640522847</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>183.35</v>
@@ -17804,21 +18497,24 @@
         <v>183.39</v>
       </c>
       <c r="T231">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U231">
         <v>0.015625</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>1.818115704876888E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-5.452562704477693E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>-0.0005451076587625892</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>183.4</v>
@@ -17875,21 +18571,24 @@
         <v>183.3866666666667</v>
       </c>
       <c r="T232">
+        <v>183.4</v>
+      </c>
+      <c r="U232">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>9.090413250145701E-06</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-1.817620008348619E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0.0002727024815927237</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>183.4</v>
@@ -17946,21 +18645,24 @@
         <v>183.38</v>
       </c>
       <c r="T233">
+        <v>183.3833333333333</v>
+      </c>
+      <c r="U233">
         <v>0.04999999999995453</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-3.635306092775181E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>183.4</v>
@@ -18017,21 +18719,24 @@
         <v>183.3733333333334</v>
       </c>
       <c r="T234">
+        <v>183.4</v>
+      </c>
+      <c r="U234">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-9.090330615135755E-06</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-3.635438252080903E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>183.35</v>
@@ -18088,21 +18793,24 @@
         <v>183.3733333333333</v>
       </c>
       <c r="T235">
+        <v>183.3833333333333</v>
+      </c>
+      <c r="U235">
         <v>0.05937499999996021</v>
-      </c>
-      <c r="U235">
-        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V235">
         <v>-1.110223024625157E-16</v>
       </c>
       <c r="W235">
+        <v>-1.110223024625157E-16</v>
+      </c>
+      <c r="X235">
         <v>-0.0002726281352236626</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>183.2</v>
@@ -18159,21 +18867,24 @@
         <v>183.3666666666667</v>
       </c>
       <c r="T236">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U236">
         <v>0.03125</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-1.818082650006936E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-3.635570421001155E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.000818107444777727</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>183.2</v>
@@ -18230,21 +18941,24 @@
         <v>183.3633333333333</v>
       </c>
       <c r="T237">
+        <v>183.25</v>
+      </c>
+      <c r="U237">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-9.090578524606485E-06</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-1.817851299779072E-05</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>183.15</v>
@@ -18301,21 +19015,24 @@
         <v>183.36</v>
       </c>
       <c r="T238">
+        <v>183.1833333333333</v>
+      </c>
+      <c r="U238">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-1.818132232755953E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-1.817884346200227E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.0002729257641920224</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>183.3</v>
@@ -18372,21 +19089,24 @@
         <v>183.3633333333333</v>
       </c>
       <c r="T239">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U239">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>1.81816528939116E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>1.817917393842627E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>0.0008190008190007703</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>183.5</v>
@@ -18443,21 +19163,24 @@
         <v>183.3733333333333</v>
       </c>
       <c r="T240">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U240">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>5.454396698278963E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>5.453653038611783E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0.001091107474086028</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>183.5</v>
@@ -18514,21 +19237,24 @@
         <v>183.3833333333333</v>
       </c>
       <c r="T241">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U241">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>5.45409921006712E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>5.453355631490631E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>183.45</v>
@@ -18585,21 +19311,24 @@
         <v>183.3833333333333</v>
       </c>
       <c r="T242">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U242">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>4.544834795261465E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>0</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>-0.0002724795640327571</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>183.3</v>
@@ -18656,21 +19385,24 @@
         <v>183.37</v>
       </c>
       <c r="T243">
+        <v>183.4166666666667</v>
+      </c>
+      <c r="U243">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>1.817851299756867E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-7.2707443424469E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0008176614881437727</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>183.3</v>
@@ -18727,21 +19459,24 @@
         <v>183.35</v>
       </c>
       <c r="T244">
+        <v>183.35</v>
+      </c>
+      <c r="U244">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>9.089091272729277E-06</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0001090690952718631</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>183.4</v>
@@ -18798,21 +19533,24 @@
         <v>183.3466666666667</v>
       </c>
       <c r="T245">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="U245">
         <v>0.009375000000034106</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>9.089008661700149E-06</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-1.818016543952972E-05</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0.0005455537370431252</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>183.5</v>
@@ -18869,21 +19607,24 @@
         <v>183.3566666666667</v>
       </c>
       <c r="T246">
+        <v>183.4</v>
+      </c>
+      <c r="U246">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>0</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>5.454148789163504E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0.0005452562704471031</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>183.45</v>
@@ -18940,21 +19681,24 @@
         <v>183.36</v>
       </c>
       <c r="T247">
+        <v>183.45</v>
+      </c>
+      <c r="U247">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>0</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>1.817950442695171E-05</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>-0.0002724795640327571</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>183.45</v>
@@ -19011,21 +19755,24 @@
         <v>183.3633333333333</v>
       </c>
       <c r="T248">
+        <v>183.4666666666667</v>
+      </c>
+      <c r="U248">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-9.088926052336355E-06</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>1.817917393820423E-05</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>183.4</v>
@@ -19082,21 +19829,24 @@
         <v>183.3633333333333</v>
       </c>
       <c r="T249">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U249">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-1.817801732384439E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.0002725538293811836</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>183.3</v>
@@ -19153,21 +19903,24 @@
         <v>183.36</v>
       </c>
       <c r="T250">
+        <v>183.3833333333333</v>
+      </c>
+      <c r="U250">
         <v>0.02812500000001705</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-9.089173884979651E-06</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-1.817884346211329E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0005452562704471031</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>183.35</v>
@@ -19224,21 +19977,24 @@
         <v>183.37</v>
       </c>
       <c r="T251">
+        <v>183.35</v>
+      </c>
+      <c r="U251">
         <v>0.03437499999998295</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>9.089256498562293E-06</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>5.453752181505678E-05</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0.0002727768685215626</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>183.55</v>
@@ -19295,21 +20051,24 @@
         <v>183.3933333333333</v>
       </c>
       <c r="T252">
+        <v>183.4</v>
+      </c>
+      <c r="U252">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>5.453504330987791E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>0.0001272472778170997</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0.001090809926370451</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>183.55</v>
@@ -19366,21 +20125,24 @@
         <v>183.42</v>
       </c>
       <c r="T253">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U253">
         <v>0.04062499999997726</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>6.362074763477388E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>0.0001454069577229156</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>183.7</v>
@@ -19437,21 +20199,24 @@
         <v>183.4466666666667</v>
       </c>
       <c r="T254">
+        <v>183.6</v>
+      </c>
+      <c r="U254">
         <v>0.03125</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>8.179290037624298E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>0.0001453858176132528</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0.0008172160174337861</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>183.8</v>
@@ -19508,21 +20273,24 @@
         <v>183.4666666666667</v>
       </c>
       <c r="T255">
+        <v>183.6833333333334</v>
+      </c>
+      <c r="U255">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>8.17862108448697E-05</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>0.0001090235127376715</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>0.0005443658138271079</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>183.65</v>
@@ -19579,21 +20347,24 @@
         <v>183.4766666666667</v>
       </c>
       <c r="T256">
+        <v>183.7166666666667</v>
+      </c>
+      <c r="U256">
         <v>0.05937500000001705</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>5.451968160485876E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>5.450581395338716E-05</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>-0.0008161044613710366</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>183.55</v>
@@ -19650,21 +20421,24 @@
         <v>183.4833333333333</v>
       </c>
       <c r="T257">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="U257">
         <v>0.07500000000001705</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>1.817223645717014E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>3.633522882107165E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>-0.0005445140212360089</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>183.5</v>
@@ -19721,21 +20495,24 @@
         <v>183.4966666666666</v>
       </c>
       <c r="T258">
+        <v>183.5666666666667</v>
+      </c>
+      <c r="U258">
         <v>0.09687500000001137</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>0</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>7.266781724046822E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>-0.0002724053391447434</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>183.4</v>
@@ -19792,21 +20569,24 @@
         <v>183.5033333333333</v>
       </c>
       <c r="T259">
+        <v>183.4833333333333</v>
+      </c>
+      <c r="U259">
         <v>0.09687500000001137</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-3.63438124658666E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>3.63312685061068E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>-0.0005449591280654031</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>183.4</v>
@@ -19863,21 +20643,24 @@
         <v>183.5033333333334</v>
       </c>
       <c r="T260">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U260">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-9.086283346615431E-06</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>183.5</v>
@@ -19934,21 +20717,24 @@
         <v>183.5033333333334</v>
       </c>
       <c r="T261">
+        <v>183.4333333333333</v>
+      </c>
+      <c r="U261">
         <v>0.05937499999998863</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>2.725909772371971E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>0</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0.0005452562704471031</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>183.4</v>
@@ -20005,21 +20791,24 @@
         <v>183.5</v>
       </c>
       <c r="T262">
+        <v>183.4333333333334</v>
+      </c>
+      <c r="U262">
         <v>0.02812499999998863</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>0</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>-1.816497429674158E-05</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>-0.0005449591280654031</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>183.35</v>
@@ -20076,21 +20865,24 @@
         <v>183.4933333333333</v>
       </c>
       <c r="T263">
+        <v>183.4166666666667</v>
+      </c>
+      <c r="U263">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>-9.086118228363027E-06</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>-3.633060853769354E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>-0.0002726281352236626</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>183.3</v>
@@ -20147,21 +20939,24 @@
         <v>183.4866666666667</v>
       </c>
       <c r="T264">
+        <v>183.35</v>
+      </c>
+      <c r="U264">
         <v>-0.05625000000003411</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>-1.817240157375721E-05</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>-3.633192849872291E-05</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>-0.0002727024815925017</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>183.35</v>
@@ -20218,21 +21013,24 @@
         <v>183.49</v>
       </c>
       <c r="T265">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="U265">
         <v>-0.078125</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>0</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>1.816662427778226E-05</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>0.0002727768685215626</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>183.3</v>
@@ -20289,21 +21087,24 @@
         <v>183.4866666666667</v>
       </c>
       <c r="T266">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U266">
         <v>-0.1031250000000057</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>1.817273181581314E-05</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>-1.816629425765992E-05</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>-0.0002727024815925017</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>183.25</v>
@@ -20360,21 +21161,24 @@
         <v>183.4666666666667</v>
       </c>
       <c r="T267">
+        <v>183.3</v>
+      </c>
+      <c r="U267">
         <v>-0.1156249999999659</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>9.086200786878607E-06</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>-0.0001089997456671377</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>-0.0002727768685215626</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>183.25</v>
@@ -20431,21 +21235,24 @@
         <v>183.4466666666667</v>
       </c>
       <c r="T268">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U268">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>1.817223645717014E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>-0.0001090116279069964</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>183.25</v>
@@ -20502,21 +21309,24 @@
         <v>183.4166666666667</v>
       </c>
       <c r="T269">
+        <v>183.25</v>
+      </c>
+      <c r="U269">
         <v>-0.1281249999999829</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-9.085953116438894E-06</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-0.0001635352691063963</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>183.2</v>
@@ -20573,21 +21383,24 @@
         <v>183.3766666666667</v>
       </c>
       <c r="T270">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U270">
         <v>-0.1218750000000171</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-5.451621403074203E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-0.0002180826896864829</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>-0.0002728512960437079</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>183.3</v>
@@ -20644,21 +21457,24 @@
         <v>183.3533333333333</v>
       </c>
       <c r="T271">
+        <v>183.25</v>
+      </c>
+      <c r="U271">
         <v>-0.09687499999998295</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-3.634612414016303E-05</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-0.0001272426517369141</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.0005458515283844889</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>183.35</v>
@@ -20715,21 +21531,24 @@
         <v>183.34</v>
       </c>
       <c r="T272">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U272">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-1.817372261425643E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-7.271933970820488E-05</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.0002727768685215626</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>183.35</v>
@@ -20786,21 +21605,24 @@
         <v>183.33</v>
       </c>
       <c r="T273">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="U273">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>9.087026452192504E-06</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-5.454347114663971E-05</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>183.3</v>
@@ -20857,21 +21679,24 @@
         <v>183.3233333333333</v>
       </c>
       <c r="T274">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="U274">
         <v>-0.046875</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>0</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-3.636429753284265E-05</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.0002727024815925017</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>183.3</v>
@@ -20928,21 +21753,24 @@
         <v>183.3166666666667</v>
       </c>
       <c r="T275">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U275">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>-1.817388775804396E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>-3.636561994291299E-05</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>183.35</v>
@@ -20999,21 +21827,24 @@
         <v>183.3066666666667</v>
       </c>
       <c r="T276">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U276">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>-2.726132708119611E-05</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>-5.455041367397051E-05</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0.0002727768685215626</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>183.3</v>
@@ -21070,21 +21901,24 @@
         <v>183.3</v>
       </c>
       <c r="T277">
+        <v>183.3166666666667</v>
+      </c>
+      <c r="U277">
         <v>0</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>-2.726207028169725E-05</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>-3.636892638925193E-05</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>-0.0002727024815925017</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>183.2</v>
@@ -21141,21 +21975,24 @@
         <v>183.29</v>
       </c>
       <c r="T278">
+        <v>183.2833333333333</v>
+      </c>
+      <c r="U278">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-4.543802253720308E-05</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>-5.455537370446795E-05</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>-0.0005455537370432362</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>183.05</v>
@@ -21212,21 +22049,24 @@
         <v>183.2733333333333</v>
       </c>
       <c r="T279">
+        <v>183.1833333333333</v>
+      </c>
+      <c r="U279">
         <v>0</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-6.361612214300649E-05</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>-9.093058359244122E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.0008187772925762893</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>183.15</v>
@@ -21283,21 +22123,24 @@
         <v>183.26</v>
       </c>
       <c r="T280">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="U280">
         <v>-0.015625</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-2.726578689060677E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-7.275108217230652E-05</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0.0005462988254574253</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>182.95</v>
@@ -21354,21 +22197,24 @@
         <v>183.2366666666667</v>
       </c>
       <c r="T281">
+        <v>183.05</v>
+      </c>
+      <c r="U281">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-7.271074755732521E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-0.0001273236567355118</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>-0.001092001092001138</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>183.05</v>
@@ -21425,21 +22271,24 @@
         <v>183.2233333333334</v>
       </c>
       <c r="T282">
+        <v>183.05</v>
+      </c>
+      <c r="U282">
         <v>-0.05625000000003411</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-9.089504349335531E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-7.276564006464259E-05</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>0.0005465974309921684</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>182.95</v>
@@ -21496,21 +22345,24 @@
         <v>183.2033333333333</v>
       </c>
       <c r="T283">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U283">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>-0.0001090839673839605</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>-0.0001091564029327419</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>-0.0005462988254576473</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>183</v>
@@ -21567,21 +22419,24 @@
         <v>183.1866666666667</v>
       </c>
       <c r="T284">
+        <v>183</v>
+      </c>
+      <c r="U284">
         <v>-0.109375</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>-0.0001272785126595899</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>-9.097359946153016E-05</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0.0002732987154960842</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>183</v>
@@ -21638,21 +22493,24 @@
         <v>183.1733333333333</v>
       </c>
       <c r="T285">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U285">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>-0.0001454796737618835</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>-7.278550112821414E-05</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>183</v>
@@ -21709,21 +22567,24 @@
         <v>183.1533333333333</v>
       </c>
       <c r="T286">
+        <v>183</v>
+      </c>
+      <c r="U286">
         <v>-0.1437499999999829</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>-0.0001182194334560238</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>-0.0001091861988643528</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>182.9</v>
@@ -21780,21 +22641,24 @@
         <v>183.1233333333333</v>
       </c>
       <c r="T287">
+        <v>182.9666666666667</v>
+      </c>
+      <c r="U287">
         <v>-0.1375000000000171</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>-0.0001182334109431915</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>-0.000163797182688441</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>-0.0005464480874316502</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>183</v>
@@ -21851,21 +22715,24 @@
         <v>183.1</v>
       </c>
       <c r="T288">
+        <v>182.9666666666667</v>
+      </c>
+      <c r="U288">
         <v>-0.1343749999999773</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-9.095953210402907E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>-0.0001274186795784393</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>0.0005467468562054822</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>183.05</v>
@@ -21922,21 +22789,24 @@
         <v>183.0833333333333</v>
       </c>
       <c r="T289">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U289">
         <v>-0.1031250000000057</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>-6.367746454538636E-05</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>-9.102494083368384E-05</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>182.9</v>
@@ -21993,21 +22863,24 @@
         <v>183.0566666666667</v>
       </c>
       <c r="T290">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U290">
         <v>-0.09687499999998295</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>-9.097359946130812E-05</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>-0.0001456531634046465</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>-0.0008194482381863599</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>182.9</v>
@@ -22064,21 +22937,24 @@
         <v>183.0266666666667</v>
       </c>
       <c r="T291">
+        <v>182.95</v>
+      </c>
+      <c r="U291">
         <v>-0.078125</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>-0.0001091782516923212</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>-0.000163883679006549</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>182.95</v>
@@ -22135,21 +23011,24 @@
         <v>183.0033333333334</v>
       </c>
       <c r="T292">
+        <v>182.9166666666667</v>
+      </c>
+      <c r="U292">
         <v>-0.05937500000001705</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>-8.18926296632938E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>-0.0001274859765424408</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>0.0002733734281026301</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>183.1</v>
@@ -22206,21 +23085,24 @@
         <v>182.9966666666667</v>
       </c>
       <c r="T293">
+        <v>182.9833333333333</v>
+      </c>
+      <c r="U293">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>-4.549963145294988E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>-3.642920893964785E-05</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0.0008198961464882526</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>183.05</v>
@@ -22277,21 +23159,24 @@
         <v>182.9966666666666</v>
       </c>
       <c r="T294">
+        <v>183.0333333333333</v>
+      </c>
+      <c r="U294">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>-4.550170176365054E-05</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>-3.33066907387547E-16</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>-0.0002730748225012736</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>183.1</v>
@@ -22348,21 +23233,24 @@
         <v>182.9933333333333</v>
       </c>
       <c r="T295">
+        <v>183.0833333333333</v>
+      </c>
+      <c r="U295">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>-4.550377226286706E-05</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>-1.821526803769125E-05</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>0.0002731494127286016</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>183</v>
@@ -22419,21 +23307,24 @@
         <v>182.9966666666666</v>
       </c>
       <c r="T296">
+        <v>183.05</v>
+      </c>
+      <c r="U296">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>-5.460701154025305E-05</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>1.821559983961052E-05</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>-0.0005461496450026582</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>183.05</v>
@@ -22490,21 +23381,24 @@
         <v>182.9966666666666</v>
       </c>
       <c r="T297">
+        <v>183.05</v>
+      </c>
+      <c r="U297">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>-3.640666241921942E-05</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>0</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>183</v>
@@ -22561,21 +23455,24 @@
         <v>183</v>
       </c>
       <c r="T298">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U298">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>-4.550998489083469E-05</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>1.821526803791329E-05</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>-0.0002731494127288236</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>183</v>
@@ -22632,21 +23529,24 @@
         <v>183</v>
       </c>
       <c r="T299">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U299">
         <v>0.03125</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>-4.55120561436706E-05</v>
-      </c>
-      <c r="V299">
-        <v>0</v>
       </c>
       <c r="W299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:23">
+      <c r="X299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>183</v>
@@ -22703,21 +23603,24 @@
         <v>183</v>
       </c>
       <c r="T300">
+        <v>183</v>
+      </c>
+      <c r="U300">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>-3.641130206810672E-05</v>
-      </c>
-      <c r="V300">
-        <v>0</v>
       </c>
       <c r="W300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:23">
+      <c r="X300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>183</v>
@@ -22774,21 +23677,24 @@
         <v>183</v>
       </c>
       <c r="T301">
+        <v>183</v>
+      </c>
+      <c r="U301">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>-5.461894184899396E-05</v>
-      </c>
-      <c r="V301">
-        <v>0</v>
       </c>
       <c r="W301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:23">
+      <c r="X301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>183</v>
@@ -22845,21 +23751,24 @@
         <v>183.0066666666667</v>
       </c>
       <c r="T302">
+        <v>183</v>
+      </c>
+      <c r="U302">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>-6.372557944767099E-05</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>3.642987249530272E-05</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>183.05</v>
@@ -22916,21 +23825,24 @@
         <v>183.01</v>
       </c>
       <c r="T303">
+        <v>183.0166666666667</v>
+      </c>
+      <c r="U303">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>-5.462540627643175E-05</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>1.821427270431997E-05</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>183.15</v>
@@ -22987,21 +23899,24 @@
         <v>183.0166666666667</v>
       </c>
       <c r="T304">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="U304">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>-2.731419518720024E-05</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>3.64278819009467E-05</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>0.0005462988254574253</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>183.2</v>
@@ -23058,21 +23973,24 @@
         <v>183.0366666666667</v>
       </c>
       <c r="T305">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="U305">
         <v>0.02187500000002274</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>-1.820996084866966E-05</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>0.0001092796648756167</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>0.0002730002730002568</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>183.2</v>
@@ -23129,21 +24047,24 @@
         <v>183.0566666666667</v>
       </c>
       <c r="T306">
+        <v>183.1833333333333</v>
+      </c>
+      <c r="U306">
         <v>0.02812500000001705</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>-2.731543868594866E-05</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>0.0001092677241352202</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>183.1</v>
@@ -23200,21 +24121,24 @@
         <v>183.0666666666667</v>
       </c>
       <c r="T307">
+        <v>183.1666666666667</v>
+      </c>
+      <c r="U307">
         <v>0.02812500000001705</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>-3.642157978600569E-05</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>5.462789300203497E-05</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>-0.0005458515283842669</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>183.2</v>
@@ -23271,21 +24195,24 @@
         <v>183.0733333333333</v>
       </c>
       <c r="T308">
+        <v>183.1666666666667</v>
+      </c>
+      <c r="U308">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>3.641660597231144E-05</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>0.0005461496450027692</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>183.2</v>
@@ -23342,21 +24269,24 @@
         <v>183.0833333333333</v>
       </c>
       <c r="T309">
+        <v>183.1666666666667</v>
+      </c>
+      <c r="U309">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>2.73171797746663E-05</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>5.462291977731404E-05</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>183.2</v>
@@ -23413,21 +24343,24 @@
         <v>183.09</v>
       </c>
       <c r="T310">
+        <v>183.2</v>
+      </c>
+      <c r="U310">
         <v>0.07187499999997726</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>9.10547785526461E-06</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>3.641329085102285E-05</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>183.2</v>
@@ -23484,21 +24417,24 @@
         <v>183.1033333333334</v>
       </c>
       <c r="T311">
+        <v>183.2</v>
+      </c>
+      <c r="U311">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>4.552697473259038E-05</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>7.282392994345521E-05</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>183.3</v>
@@ -23555,21 +24491,24 @@
         <v>183.12</v>
       </c>
       <c r="T312">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U312">
         <v>0.08437499999996589</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>4.552490212139659E-05</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>9.102328375587554E-05</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>0.0005458515283844889</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>183.15</v>
@@ -23626,21 +24565,24 @@
         <v>183.13</v>
       </c>
       <c r="T313">
+        <v>183.2166666666667</v>
+      </c>
+      <c r="U313">
         <v>0.07187500000000568</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>3.641826375933022E-05</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>5.460899956299947E-05</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>-0.0008183306055646877</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>183.15</v>
@@ -23697,21 +24639,24 @@
         <v>183.14</v>
       </c>
       <c r="T314">
+        <v>183.2</v>
+      </c>
+      <c r="U314">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>2.731270313827139E-05</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>5.460601758300321E-05</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315">
         <v>183.15</v>
@@ -23768,21 +24713,24 @@
         <v>183.15</v>
       </c>
       <c r="T315">
+        <v>183.15</v>
+      </c>
+      <c r="U315">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <v>2.731195717475821E-05</v>
       </c>
-      <c r="V315">
+      <c r="W315">
         <v>5.460303592896842E-05</v>
       </c>
-      <c r="W315">
+      <c r="X315">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B316">
         <v>183.05</v>
@@ -23839,21 +24787,24 @@
         <v>183.1533333333333</v>
       </c>
       <c r="T316">
+        <v>183.1166666666667</v>
+      </c>
+      <c r="U316">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U316">
+      <c r="V316">
         <v>9.103737084181773E-06</v>
       </c>
-      <c r="V316">
+      <c r="W316">
         <v>1.820001820007633E-05</v>
       </c>
-      <c r="W316">
+      <c r="X316">
         <v>-0.0005460005460005135</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B317">
         <v>183</v>
@@ -23910,21 +24861,24 @@
         <v>183.1533333333333</v>
       </c>
       <c r="T317">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="U317">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U317">
+      <c r="V317">
         <v>1.820730841362028E-05</v>
       </c>
-      <c r="V317">
+      <c r="W317">
         <v>0</v>
       </c>
-      <c r="W317">
+      <c r="X317">
         <v>-0.0002731494127288236</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B318">
         <v>183.05</v>
@@ -23981,21 +24935,24 @@
         <v>183.1533333333333</v>
       </c>
       <c r="T318">
+        <v>183.0333333333333</v>
+      </c>
+      <c r="U318">
         <v>-0.01562499999997158</v>
       </c>
-      <c r="U318">
+      <c r="V318">
         <v>9.103488456840836E-06</v>
       </c>
-      <c r="V318">
+      <c r="W318">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W318">
+      <c r="X318">
         <v>0.0002732240437159916</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B319">
         <v>183.15</v>
@@ -24052,21 +25009,24 @@
         <v>183.1533333333333</v>
       </c>
       <c r="T319">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="U319">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U319">
+      <c r="V319">
         <v>1.820681116804224E-05</v>
       </c>
-      <c r="V319">
+      <c r="W319">
         <v>0</v>
       </c>
-      <c r="W319">
+      <c r="X319">
         <v>0.0005462988254574253</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B320">
         <v>183.15</v>
@@ -24123,21 +25083,24 @@
         <v>183.15</v>
       </c>
       <c r="T320">
+        <v>183.1166666666667</v>
+      </c>
+      <c r="U320">
         <v>-0.04687499999997158</v>
       </c>
-      <c r="U320">
+      <c r="V320">
         <v>4.551619921500105E-05</v>
       </c>
-      <c r="V320">
+      <c r="W320">
         <v>-1.819968696525898E-05</v>
       </c>
-      <c r="W320">
+      <c r="X320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B321">
         <v>183.3</v>
@@ -24194,21 +25157,24 @@
         <v>183.1566666666667</v>
       </c>
       <c r="T321">
+        <v>183.2</v>
+      </c>
+      <c r="U321">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U321">
+      <c r="V321">
         <v>7.282260413643549E-05</v>
       </c>
-      <c r="V321">
+      <c r="W321">
         <v>3.640003640015266E-05</v>
       </c>
-      <c r="W321">
+      <c r="X321">
         <v>0.0008190008190007703</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B322">
         <v>183.25</v>
@@ -24265,21 +25231,24 @@
         <v>183.1666666666667</v>
       </c>
       <c r="T322">
+        <v>183.2333333333333</v>
+      </c>
+      <c r="U322">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U322">
+      <c r="V322">
         <v>5.461297604325566E-05</v>
       </c>
-      <c r="V322">
+      <c r="W322">
         <v>5.459806722818428E-05</v>
       </c>
-      <c r="W322">
+      <c r="X322">
         <v>-0.0002727768685215626</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:24">
       <c r="A323" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B323">
         <v>183.25</v>
@@ -24336,21 +25305,24 @@
         <v>183.17</v>
       </c>
       <c r="T323">
+        <v>183.2666666666667</v>
+      </c>
+      <c r="U323">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U323">
+      <c r="V323">
         <v>2.730499681424803E-05</v>
       </c>
-      <c r="V323">
+      <c r="W323">
         <v>1.819836214744797E-05</v>
       </c>
-      <c r="W323">
+      <c r="X323">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:24">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B324">
         <v>183.1</v>
@@ -24407,15 +25379,18 @@
         <v>183.1633333333334</v>
       </c>
       <c r="T324">
+        <v>183.2</v>
+      </c>
+      <c r="U324">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U324">
+      <c r="V324">
         <v>9.101417090873198E-06</v>
       </c>
-      <c r="V324">
+      <c r="W324">
         <v>-3.639606194605349E-05</v>
       </c>
-      <c r="W324">
+      <c r="X324">
         <v>-0.0008185538881310128</v>
       </c>
     </row>
